--- a/documentation/Praesentation/img/analysis1000_OneNormal_runtime.xlsx
+++ b/documentation/Praesentation/img/analysis1000_OneNormal_runtime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluek\Documents\Bachelor\Results\Diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluek\Documents\Bachelor\documentation\Praesentation\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="analysis1000_OneNormal_runtime" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -7441,15 +7441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I900"/>
+  <dimension ref="A1:L900"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="A1:A1048576 I1:I1048576"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1000</v>
       </c>
@@ -7472,11 +7472,11 @@
         <v>1.7589999999999999E-3</v>
       </c>
       <c r="I1">
-        <f>G1/D1</f>
+        <f t="shared" ref="I1:I64" si="0">G1/D1</f>
         <v>1.599090909090909E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1200</v>
       </c>
@@ -7499,11 +7499,11 @@
         <v>1.8779999999999999E-3</v>
       </c>
       <c r="I2">
-        <f>G2/D2</f>
+        <f t="shared" si="0"/>
         <v>1.7072727272727273E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1400</v>
       </c>
@@ -7526,11 +7526,11 @@
         <v>2.4299999999999999E-3</v>
       </c>
       <c r="I3">
-        <f>G3/D3</f>
+        <f t="shared" si="0"/>
         <v>1.5187499999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1600</v>
       </c>
@@ -7553,11 +7553,15 @@
         <v>1.0189999999999999E-3</v>
       </c>
       <c r="I4">
-        <f>G4/D4</f>
+        <f t="shared" si="0"/>
         <v>2.0379999999999999E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>AVERAGE(I:I)</f>
+        <v>6.3562786886391847E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -7580,11 +7584,11 @@
         <v>1.139E-3</v>
       </c>
       <c r="I5">
-        <f>G5/D5</f>
+        <f t="shared" si="0"/>
         <v>1.8983333333333333E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -7607,11 +7611,11 @@
         <v>9.4499999999999998E-4</v>
       </c>
       <c r="I6">
-        <f>G6/D6</f>
+        <f t="shared" si="0"/>
         <v>1.8899999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2200</v>
       </c>
@@ -7634,11 +7638,11 @@
         <v>1.0480000000000001E-3</v>
       </c>
       <c r="I7">
-        <f>G7/D7</f>
+        <f t="shared" si="0"/>
         <v>2.0960000000000003E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2400</v>
       </c>
@@ -7661,11 +7665,11 @@
         <v>9.8400000000000007E-4</v>
       </c>
       <c r="I8">
-        <f>G8/D8</f>
+        <f t="shared" si="0"/>
         <v>2.4600000000000002E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2600</v>
       </c>
@@ -7688,11 +7692,11 @@
         <v>1.101E-3</v>
       </c>
       <c r="I9">
-        <f>G9/D9</f>
+        <f t="shared" si="0"/>
         <v>2.2019999999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2800</v>
       </c>
@@ -7715,11 +7719,11 @@
         <v>9.9799999999999997E-4</v>
       </c>
       <c r="I10">
-        <f>G10/D10</f>
+        <f t="shared" si="0"/>
         <v>2.4949999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -7742,11 +7746,11 @@
         <v>8.4199999999999998E-4</v>
       </c>
       <c r="I11">
-        <f>G11/D11</f>
+        <f t="shared" si="0"/>
         <v>2.8066666666666664E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3200</v>
       </c>
@@ -7769,11 +7773,11 @@
         <v>9.4600000000000001E-4</v>
       </c>
       <c r="I12">
-        <f>G12/D12</f>
+        <f t="shared" si="0"/>
         <v>2.365E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3400</v>
       </c>
@@ -7796,11 +7800,11 @@
         <v>8.4199999999999998E-4</v>
       </c>
       <c r="I13">
-        <f>G13/D13</f>
+        <f t="shared" si="0"/>
         <v>2.8066666666666664E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3600</v>
       </c>
@@ -7823,11 +7827,11 @@
         <v>8.3900000000000001E-4</v>
       </c>
       <c r="I14">
-        <f>G14/D14</f>
+        <f t="shared" si="0"/>
         <v>2.7966666666666667E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3800</v>
       </c>
@@ -7850,11 +7854,11 @@
         <v>9.3700000000000001E-4</v>
       </c>
       <c r="I15">
-        <f>G15/D15</f>
+        <f t="shared" si="0"/>
         <v>3.1233333333333335E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4000</v>
       </c>
@@ -7877,7 +7881,7 @@
         <v>9.6699999999999998E-4</v>
       </c>
       <c r="I16">
-        <f>G16/D16</f>
+        <f t="shared" si="0"/>
         <v>3.2233333333333333E-4</v>
       </c>
     </row>
@@ -7904,7 +7908,7 @@
         <v>1.1050000000000001E-3</v>
       </c>
       <c r="I17">
-        <f>G17/D17</f>
+        <f t="shared" si="0"/>
         <v>3.6833333333333336E-4</v>
       </c>
     </row>
@@ -7931,7 +7935,7 @@
         <v>1.0189999999999999E-3</v>
       </c>
       <c r="I18">
-        <f>G18/D18</f>
+        <f t="shared" si="0"/>
         <v>3.3966666666666666E-4</v>
       </c>
     </row>
@@ -7958,7 +7962,7 @@
         <v>7.7800000000000005E-4</v>
       </c>
       <c r="I19">
-        <f>G19/D19</f>
+        <f t="shared" si="0"/>
         <v>7.7800000000000005E-4</v>
       </c>
     </row>
@@ -7985,7 +7989,7 @@
         <v>7.8799999999999996E-4</v>
       </c>
       <c r="I20">
-        <f>G20/D20</f>
+        <f t="shared" si="0"/>
         <v>7.8799999999999996E-4</v>
       </c>
     </row>
@@ -8012,7 +8016,7 @@
         <v>8.1400000000000005E-4</v>
       </c>
       <c r="I21">
-        <f>G21/D21</f>
+        <f t="shared" si="0"/>
         <v>8.1400000000000005E-4</v>
       </c>
     </row>
@@ -8039,7 +8043,7 @@
         <v>8.12E-4</v>
       </c>
       <c r="I22">
-        <f>G22/D22</f>
+        <f t="shared" si="0"/>
         <v>8.12E-4</v>
       </c>
     </row>
@@ -8066,7 +8070,7 @@
         <v>8.3500000000000002E-4</v>
       </c>
       <c r="I23">
-        <f>G23/D23</f>
+        <f t="shared" si="0"/>
         <v>8.3500000000000002E-4</v>
       </c>
     </row>
@@ -8093,7 +8097,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
       <c r="I24">
-        <f>G24/D24</f>
+        <f t="shared" si="0"/>
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
@@ -8120,7 +8124,7 @@
         <v>9.7099999999999997E-4</v>
       </c>
       <c r="I25">
-        <f>G25/D25</f>
+        <f t="shared" si="0"/>
         <v>9.7099999999999997E-4</v>
       </c>
     </row>
@@ -8147,7 +8151,7 @@
         <v>1.085E-3</v>
       </c>
       <c r="I26">
-        <f>G26/D26</f>
+        <f t="shared" si="0"/>
         <v>3.6166666666666666E-4</v>
       </c>
     </row>
@@ -8174,7 +8178,7 @@
         <v>8.9599999999999999E-4</v>
       </c>
       <c r="I27">
-        <f>G27/D27</f>
+        <f t="shared" si="0"/>
         <v>8.9599999999999999E-4</v>
       </c>
     </row>
@@ -8201,7 +8205,7 @@
         <v>9.1399999999999999E-4</v>
       </c>
       <c r="I28">
-        <f>G28/D28</f>
+        <f t="shared" si="0"/>
         <v>9.1399999999999999E-4</v>
       </c>
     </row>
@@ -8228,7 +8232,7 @@
         <v>9.810000000000001E-4</v>
       </c>
       <c r="I29">
-        <f>G29/D29</f>
+        <f t="shared" si="0"/>
         <v>9.810000000000001E-4</v>
       </c>
     </row>
@@ -8255,7 +8259,7 @@
         <v>9.7099999999999997E-4</v>
       </c>
       <c r="I30">
-        <f>G30/D30</f>
+        <f t="shared" si="0"/>
         <v>9.7099999999999997E-4</v>
       </c>
     </row>
@@ -8282,7 +8286,7 @@
         <v>9.5600000000000004E-4</v>
       </c>
       <c r="I31">
-        <f>G31/D31</f>
+        <f t="shared" si="0"/>
         <v>9.5600000000000004E-4</v>
       </c>
     </row>
@@ -8309,7 +8313,7 @@
         <v>9.9500000000000001E-4</v>
       </c>
       <c r="I32">
-        <f>G32/D32</f>
+        <f t="shared" si="0"/>
         <v>9.9500000000000001E-4</v>
       </c>
     </row>
@@ -8336,7 +8340,7 @@
         <v>9.859999999999999E-4</v>
       </c>
       <c r="I33">
-        <f>G33/D33</f>
+        <f t="shared" si="0"/>
         <v>9.859999999999999E-4</v>
       </c>
     </row>
@@ -8363,7 +8367,7 @@
         <v>1.01E-3</v>
       </c>
       <c r="I34">
-        <f>G34/D34</f>
+        <f t="shared" si="0"/>
         <v>1.01E-3</v>
       </c>
     </row>
@@ -8390,7 +8394,7 @@
         <v>1.0009999999999999E-3</v>
       </c>
       <c r="I35">
-        <f>G35/D35</f>
+        <f t="shared" si="0"/>
         <v>1.0009999999999999E-3</v>
       </c>
     </row>
@@ -8417,7 +8421,7 @@
         <v>1.065E-3</v>
       </c>
       <c r="I36">
-        <f>G36/D36</f>
+        <f t="shared" si="0"/>
         <v>1.065E-3</v>
       </c>
     </row>
@@ -8444,7 +8448,7 @@
         <v>1.2960000000000001E-3</v>
       </c>
       <c r="I37">
-        <f>G37/D37</f>
+        <f t="shared" si="0"/>
         <v>1.2960000000000001E-3</v>
       </c>
     </row>
@@ -8471,7 +8475,7 @@
         <v>1.2620000000000001E-3</v>
       </c>
       <c r="I38">
-        <f>G38/D38</f>
+        <f t="shared" si="0"/>
         <v>1.2620000000000001E-3</v>
       </c>
     </row>
@@ -8498,7 +8502,7 @@
         <v>1.2769999999999999E-3</v>
       </c>
       <c r="I39">
-        <f>G39/D39</f>
+        <f t="shared" si="0"/>
         <v>1.2769999999999999E-3</v>
       </c>
     </row>
@@ -8525,7 +8529,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="I40">
-        <f>G40/D40</f>
+        <f t="shared" si="0"/>
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
@@ -8552,7 +8556,7 @@
         <v>1.3190000000000001E-3</v>
       </c>
       <c r="I41">
-        <f>G41/D41</f>
+        <f t="shared" si="0"/>
         <v>1.3190000000000001E-3</v>
       </c>
     </row>
@@ -8579,7 +8583,7 @@
         <v>1.4189999999999999E-3</v>
       </c>
       <c r="I42">
-        <f>G42/D42</f>
+        <f t="shared" si="0"/>
         <v>1.4189999999999999E-3</v>
       </c>
     </row>
@@ -8606,7 +8610,7 @@
         <v>1.387E-3</v>
       </c>
       <c r="I43">
-        <f>G43/D43</f>
+        <f t="shared" si="0"/>
         <v>1.387E-3</v>
       </c>
     </row>
@@ -8633,7 +8637,7 @@
         <v>1.413E-3</v>
       </c>
       <c r="I44">
-        <f>G44/D44</f>
+        <f t="shared" si="0"/>
         <v>1.413E-3</v>
       </c>
     </row>
@@ -8660,7 +8664,7 @@
         <v>1.3810000000000001E-3</v>
       </c>
       <c r="I45">
-        <f>G45/D45</f>
+        <f t="shared" si="0"/>
         <v>1.3810000000000001E-3</v>
       </c>
     </row>
@@ -8687,7 +8691,7 @@
         <v>1.3420000000000001E-3</v>
       </c>
       <c r="I46">
-        <f>G46/D46</f>
+        <f t="shared" si="0"/>
         <v>1.9171428571428573E-4</v>
       </c>
     </row>
@@ -8714,7 +8718,7 @@
         <v>1.7769999999999999E-3</v>
       </c>
       <c r="I47">
-        <f>G47/D47</f>
+        <f t="shared" si="0"/>
         <v>1.7769999999999998E-4</v>
       </c>
     </row>
@@ -8741,7 +8745,7 @@
         <v>1.8029999999999999E-3</v>
       </c>
       <c r="I48">
-        <f>G48/D48</f>
+        <f t="shared" si="0"/>
         <v>1.8029999999999999E-4</v>
       </c>
     </row>
@@ -8768,7 +8772,7 @@
         <v>1.2869999999999999E-3</v>
       </c>
       <c r="I49">
-        <f>G49/D49</f>
+        <f t="shared" si="0"/>
         <v>1.8385714285714286E-4</v>
       </c>
     </row>
@@ -8795,7 +8799,7 @@
         <v>1.137E-3</v>
       </c>
       <c r="I50">
-        <f>G50/D50</f>
+        <f t="shared" si="0"/>
         <v>1.895E-4</v>
       </c>
     </row>
@@ -8822,7 +8826,7 @@
         <v>1.026E-3</v>
       </c>
       <c r="I51">
-        <f>G51/D51</f>
+        <f t="shared" si="0"/>
         <v>2.052E-4</v>
       </c>
     </row>
@@ -8849,7 +8853,7 @@
         <v>1.0280000000000001E-3</v>
       </c>
       <c r="I52">
-        <f>G52/D52</f>
+        <f t="shared" si="0"/>
         <v>2.0560000000000001E-4</v>
       </c>
     </row>
@@ -8876,7 +8880,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
       <c r="I53">
-        <f>G53/D53</f>
+        <f t="shared" si="0"/>
         <v>2.2724999999999999E-4</v>
       </c>
     </row>
@@ -8903,7 +8907,7 @@
         <v>9.0600000000000001E-4</v>
       </c>
       <c r="I54">
-        <f>G54/D54</f>
+        <f t="shared" si="0"/>
         <v>2.265E-4</v>
       </c>
     </row>
@@ -8930,7 +8934,7 @@
         <v>7.9100000000000004E-4</v>
       </c>
       <c r="I55">
-        <f>G55/D55</f>
+        <f t="shared" si="0"/>
         <v>2.6366666666666666E-4</v>
       </c>
     </row>
@@ -8957,7 +8961,7 @@
         <v>9.3099999999999997E-4</v>
       </c>
       <c r="I56">
-        <f>G56/D56</f>
+        <f t="shared" si="0"/>
         <v>2.3274999999999999E-4</v>
       </c>
     </row>
@@ -8984,7 +8988,7 @@
         <v>8.0800000000000002E-4</v>
       </c>
       <c r="I57">
-        <f>G57/D57</f>
+        <f t="shared" si="0"/>
         <v>2.6933333333333334E-4</v>
       </c>
     </row>
@@ -9011,7 +9015,7 @@
         <v>8.3699999999999996E-4</v>
       </c>
       <c r="I58">
-        <f>G58/D58</f>
+        <f t="shared" si="0"/>
         <v>2.7900000000000001E-4</v>
       </c>
     </row>
@@ -9038,7 +9042,7 @@
         <v>8.5099999999999998E-4</v>
       </c>
       <c r="I59">
-        <f>G59/D59</f>
+        <f t="shared" si="0"/>
         <v>2.8366666666666666E-4</v>
       </c>
     </row>
@@ -9065,7 +9069,7 @@
         <v>8.6499999999999999E-4</v>
       </c>
       <c r="I60">
-        <f>G60/D60</f>
+        <f t="shared" si="0"/>
         <v>2.8833333333333331E-4</v>
       </c>
     </row>
@@ -9092,7 +9096,7 @@
         <v>8.61E-4</v>
       </c>
       <c r="I61">
-        <f>G61/D61</f>
+        <f t="shared" si="0"/>
         <v>2.8699999999999998E-4</v>
       </c>
     </row>
@@ -9119,7 +9123,7 @@
         <v>9.68E-4</v>
       </c>
       <c r="I62">
-        <f>G62/D62</f>
+        <f t="shared" si="0"/>
         <v>3.2266666666666669E-4</v>
       </c>
     </row>
@@ -9146,7 +9150,7 @@
         <v>9.8700000000000003E-4</v>
       </c>
       <c r="I63">
-        <f>G63/D63</f>
+        <f t="shared" si="0"/>
         <v>3.2900000000000003E-4</v>
       </c>
     </row>
@@ -9173,7 +9177,7 @@
         <v>1.023E-3</v>
       </c>
       <c r="I64">
-        <f>G64/D64</f>
+        <f t="shared" si="0"/>
         <v>3.4099999999999999E-4</v>
       </c>
     </row>
@@ -9200,7 +9204,7 @@
         <v>8.0900000000000004E-4</v>
       </c>
       <c r="I65">
-        <f>G65/D65</f>
+        <f t="shared" ref="I65:I128" si="1">G65/D65</f>
         <v>8.0900000000000004E-4</v>
       </c>
     </row>
@@ -9227,7 +9231,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
       <c r="I66">
-        <f>G66/D66</f>
+        <f t="shared" si="1"/>
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
@@ -9254,7 +9258,7 @@
         <v>8.2799999999999996E-4</v>
       </c>
       <c r="I67">
-        <f>G67/D67</f>
+        <f t="shared" si="1"/>
         <v>8.2799999999999996E-4</v>
       </c>
     </row>
@@ -9281,7 +9285,7 @@
         <v>8.4199999999999998E-4</v>
       </c>
       <c r="I68">
-        <f>G68/D68</f>
+        <f t="shared" si="1"/>
         <v>8.4199999999999998E-4</v>
       </c>
     </row>
@@ -9308,7 +9312,7 @@
         <v>8.7600000000000004E-4</v>
       </c>
       <c r="I69">
-        <f>G69/D69</f>
+        <f t="shared" si="1"/>
         <v>8.7600000000000004E-4</v>
       </c>
     </row>
@@ -9335,7 +9339,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I70">
-        <f>G70/D70</f>
+        <f t="shared" si="1"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -9362,7 +9366,7 @@
         <v>1.0809999999999999E-3</v>
       </c>
       <c r="I71">
-        <f>G71/D71</f>
+        <f t="shared" si="1"/>
         <v>3.6033333333333333E-4</v>
       </c>
     </row>
@@ -9389,7 +9393,7 @@
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="I72">
-        <f>G72/D72</f>
+        <f t="shared" si="1"/>
         <v>9.3000000000000005E-4</v>
       </c>
     </row>
@@ -9416,7 +9420,7 @@
         <v>9.4600000000000001E-4</v>
       </c>
       <c r="I73">
-        <f>G73/D73</f>
+        <f t="shared" si="1"/>
         <v>9.4600000000000001E-4</v>
       </c>
     </row>
@@ -9443,7 +9447,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="I74">
-        <f>G74/D74</f>
+        <f t="shared" si="1"/>
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
@@ -9470,7 +9474,7 @@
         <v>9.59E-4</v>
       </c>
       <c r="I75">
-        <f>G75/D75</f>
+        <f t="shared" si="1"/>
         <v>9.59E-4</v>
       </c>
     </row>
@@ -9497,7 +9501,7 @@
         <v>9.8400000000000007E-4</v>
       </c>
       <c r="I76">
-        <f>G76/D76</f>
+        <f t="shared" si="1"/>
         <v>9.8400000000000007E-4</v>
       </c>
     </row>
@@ -9524,7 +9528,7 @@
         <v>9.77E-4</v>
       </c>
       <c r="I77">
-        <f>G77/D77</f>
+        <f t="shared" si="1"/>
         <v>9.77E-4</v>
       </c>
     </row>
@@ -9551,7 +9555,7 @@
         <v>9.9299999999999996E-4</v>
       </c>
       <c r="I78">
-        <f>G78/D78</f>
+        <f t="shared" si="1"/>
         <v>9.9299999999999996E-4</v>
       </c>
     </row>
@@ -9578,7 +9582,7 @@
         <v>1.0280000000000001E-3</v>
       </c>
       <c r="I79">
-        <f>G79/D79</f>
+        <f t="shared" si="1"/>
         <v>1.0280000000000001E-3</v>
       </c>
     </row>
@@ -9605,7 +9609,7 @@
         <v>1.059E-3</v>
       </c>
       <c r="I80">
-        <f>G80/D80</f>
+        <f t="shared" si="1"/>
         <v>1.059E-3</v>
       </c>
     </row>
@@ -9632,7 +9636,7 @@
         <v>1.065E-3</v>
       </c>
       <c r="I81">
-        <f>G81/D81</f>
+        <f t="shared" si="1"/>
         <v>1.065E-3</v>
       </c>
     </row>
@@ -9659,7 +9663,7 @@
         <v>1.276E-3</v>
       </c>
       <c r="I82">
-        <f>G82/D82</f>
+        <f t="shared" si="1"/>
         <v>1.276E-3</v>
       </c>
     </row>
@@ -9686,7 +9690,7 @@
         <v>1.2589999999999999E-3</v>
       </c>
       <c r="I83">
-        <f>G83/D83</f>
+        <f t="shared" si="1"/>
         <v>1.2589999999999999E-3</v>
       </c>
     </row>
@@ -9713,7 +9717,7 @@
         <v>1.291E-3</v>
       </c>
       <c r="I84">
-        <f>G84/D84</f>
+        <f t="shared" si="1"/>
         <v>1.291E-3</v>
       </c>
     </row>
@@ -9740,7 +9744,7 @@
         <v>1.3600000000000001E-3</v>
       </c>
       <c r="I85">
-        <f>G85/D85</f>
+        <f t="shared" si="1"/>
         <v>1.3600000000000001E-3</v>
       </c>
     </row>
@@ -9767,7 +9771,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
       <c r="I86">
-        <f>G86/D86</f>
+        <f t="shared" si="1"/>
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
@@ -9794,7 +9798,7 @@
         <v>1.3309999999999999E-3</v>
       </c>
       <c r="I87">
-        <f>G87/D87</f>
+        <f t="shared" si="1"/>
         <v>1.3309999999999999E-3</v>
       </c>
     </row>
@@ -9821,7 +9825,7 @@
         <v>1.3649999999999999E-3</v>
       </c>
       <c r="I88">
-        <f>G88/D88</f>
+        <f t="shared" si="1"/>
         <v>1.3649999999999999E-3</v>
       </c>
     </row>
@@ -9848,7 +9852,7 @@
         <v>1.4139999999999999E-3</v>
       </c>
       <c r="I89">
-        <f>G89/D89</f>
+        <f t="shared" si="1"/>
         <v>1.4139999999999999E-3</v>
       </c>
     </row>
@@ -9875,7 +9879,7 @@
         <v>1.39E-3</v>
       </c>
       <c r="I90">
-        <f>G90/D90</f>
+        <f t="shared" si="1"/>
         <v>1.39E-3</v>
       </c>
     </row>
@@ -9902,7 +9906,7 @@
         <v>1.3309999999999999E-3</v>
       </c>
       <c r="I91">
-        <f>G91/D91</f>
+        <f t="shared" si="1"/>
         <v>1.9014285714285712E-4</v>
       </c>
     </row>
@@ -9929,7 +9933,7 @@
         <v>1.426E-3</v>
       </c>
       <c r="I92">
-        <f>G92/D92</f>
+        <f t="shared" si="1"/>
         <v>2.0371428571428572E-4</v>
       </c>
     </row>
@@ -9956,7 +9960,7 @@
         <v>1.916E-3</v>
       </c>
       <c r="I93">
-        <f>G93/D93</f>
+        <f t="shared" si="1"/>
         <v>1.5966666666666665E-4</v>
       </c>
     </row>
@@ -9983,7 +9987,7 @@
         <v>1.31E-3</v>
       </c>
       <c r="I94">
-        <f>G94/D94</f>
+        <f t="shared" si="1"/>
         <v>1.8714285714285713E-4</v>
       </c>
     </row>
@@ -10010,7 +10014,7 @@
         <v>1.088E-3</v>
       </c>
       <c r="I95">
-        <f>G95/D95</f>
+        <f t="shared" si="1"/>
         <v>1.8133333333333334E-4</v>
       </c>
     </row>
@@ -10037,7 +10041,7 @@
         <v>1.1039999999999999E-3</v>
       </c>
       <c r="I96">
-        <f>G96/D96</f>
+        <f t="shared" si="1"/>
         <v>1.84E-4</v>
       </c>
     </row>
@@ -10064,7 +10068,7 @@
         <v>1.044E-3</v>
       </c>
       <c r="I97">
-        <f>G97/D97</f>
+        <f t="shared" si="1"/>
         <v>2.0880000000000001E-4</v>
       </c>
     </row>
@@ -10091,7 +10095,7 @@
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="I98">
-        <f>G98/D98</f>
+        <f t="shared" si="1"/>
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
@@ -10118,7 +10122,7 @@
         <v>1.042E-3</v>
       </c>
       <c r="I99">
-        <f>G99/D99</f>
+        <f t="shared" si="1"/>
         <v>2.084E-4</v>
       </c>
     </row>
@@ -10145,7 +10149,7 @@
         <v>9.9099999999999991E-4</v>
       </c>
       <c r="I100">
-        <f>G100/D100</f>
+        <f t="shared" si="1"/>
         <v>2.4774999999999998E-4</v>
       </c>
     </row>
@@ -10172,7 +10176,7 @@
         <v>8.2700000000000004E-4</v>
       </c>
       <c r="I101">
-        <f>G101/D101</f>
+        <f t="shared" si="1"/>
         <v>2.7566666666666668E-4</v>
       </c>
     </row>
@@ -10199,7 +10203,7 @@
         <v>9.3099999999999997E-4</v>
       </c>
       <c r="I102">
-        <f>G102/D102</f>
+        <f t="shared" si="1"/>
         <v>2.3274999999999999E-4</v>
       </c>
     </row>
@@ -10226,7 +10230,7 @@
         <v>9.1399999999999999E-4</v>
       </c>
       <c r="I103">
-        <f>G103/D103</f>
+        <f t="shared" si="1"/>
         <v>2.285E-4</v>
       </c>
     </row>
@@ -10253,7 +10257,7 @@
         <v>8.2600000000000002E-4</v>
       </c>
       <c r="I104">
-        <f>G104/D104</f>
+        <f t="shared" si="1"/>
         <v>2.7533333333333332E-4</v>
       </c>
     </row>
@@ -10280,7 +10284,7 @@
         <v>8.6600000000000002E-4</v>
       </c>
       <c r="I105">
-        <f>G105/D105</f>
+        <f t="shared" si="1"/>
         <v>2.8866666666666667E-4</v>
       </c>
     </row>
@@ -10307,7 +10311,7 @@
         <v>8.61E-4</v>
       </c>
       <c r="I106">
-        <f>G106/D106</f>
+        <f t="shared" si="1"/>
         <v>2.8699999999999998E-4</v>
       </c>
     </row>
@@ -10334,7 +10338,7 @@
         <v>9.7300000000000002E-4</v>
       </c>
       <c r="I107">
-        <f>G107/D107</f>
+        <f t="shared" si="1"/>
         <v>3.2433333333333332E-4</v>
       </c>
     </row>
@@ -10361,7 +10365,7 @@
         <v>8.7600000000000004E-4</v>
       </c>
       <c r="I108">
-        <f>G108/D108</f>
+        <f t="shared" si="1"/>
         <v>8.7600000000000004E-4</v>
       </c>
     </row>
@@ -10388,7 +10392,7 @@
         <v>1.005E-3</v>
       </c>
       <c r="I109">
-        <f>G109/D109</f>
+        <f t="shared" si="1"/>
         <v>3.3500000000000001E-4</v>
       </c>
     </row>
@@ -10415,7 +10419,7 @@
         <v>1.0560000000000001E-3</v>
       </c>
       <c r="I110">
-        <f>G110/D110</f>
+        <f t="shared" si="1"/>
         <v>3.5200000000000005E-4</v>
       </c>
     </row>
@@ -10442,7 +10446,7 @@
         <v>1.031E-3</v>
       </c>
       <c r="I111">
-        <f>G111/D111</f>
+        <f t="shared" si="1"/>
         <v>3.4366666666666665E-4</v>
       </c>
     </row>
@@ -10469,7 +10473,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="I112">
-        <f>G112/D112</f>
+        <f t="shared" si="1"/>
         <v>8.7000000000000001E-4</v>
       </c>
     </row>
@@ -10496,7 +10500,7 @@
         <v>8.5599999999999999E-4</v>
       </c>
       <c r="I113">
-        <f>G113/D113</f>
+        <f t="shared" si="1"/>
         <v>8.5599999999999999E-4</v>
       </c>
     </row>
@@ -10523,7 +10527,7 @@
         <v>8.6600000000000002E-4</v>
       </c>
       <c r="I114">
-        <f>G114/D114</f>
+        <f t="shared" si="1"/>
         <v>8.6600000000000002E-4</v>
       </c>
     </row>
@@ -10550,7 +10554,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
       <c r="I115">
-        <f>G115/D115</f>
+        <f t="shared" si="1"/>
         <v>8.7900000000000001E-4</v>
       </c>
     </row>
@@ -10577,7 +10581,7 @@
         <v>9.2199999999999997E-4</v>
       </c>
       <c r="I116">
-        <f>G116/D116</f>
+        <f t="shared" si="1"/>
         <v>9.2199999999999997E-4</v>
       </c>
     </row>
@@ -10604,7 +10608,7 @@
         <v>9.1500000000000001E-4</v>
       </c>
       <c r="I117">
-        <f>G117/D117</f>
+        <f t="shared" si="1"/>
         <v>9.1500000000000001E-4</v>
       </c>
     </row>
@@ -10631,7 +10635,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
       <c r="I118">
-        <f>G118/D118</f>
+        <f t="shared" si="1"/>
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
@@ -10658,7 +10662,7 @@
         <v>9.8799999999999995E-4</v>
       </c>
       <c r="I119">
-        <f>G119/D119</f>
+        <f t="shared" si="1"/>
         <v>9.8799999999999995E-4</v>
       </c>
     </row>
@@ -10685,7 +10689,7 @@
         <v>9.4399999999999996E-4</v>
       </c>
       <c r="I120">
-        <f>G120/D120</f>
+        <f t="shared" si="1"/>
         <v>9.4399999999999996E-4</v>
       </c>
     </row>
@@ -10712,7 +10716,7 @@
         <v>1.0120000000000001E-3</v>
       </c>
       <c r="I121">
-        <f>G121/D121</f>
+        <f t="shared" si="1"/>
         <v>1.0120000000000001E-3</v>
       </c>
     </row>
@@ -10739,7 +10743,7 @@
         <v>1.016E-3</v>
       </c>
       <c r="I122">
-        <f>G122/D122</f>
+        <f t="shared" si="1"/>
         <v>1.016E-3</v>
       </c>
     </row>
@@ -10766,7 +10770,7 @@
         <v>9.9099999999999991E-4</v>
       </c>
       <c r="I123">
-        <f>G123/D123</f>
+        <f t="shared" si="1"/>
         <v>9.9099999999999991E-4</v>
       </c>
     </row>
@@ -10793,7 +10797,7 @@
         <v>1.0059999999999999E-3</v>
       </c>
       <c r="I124">
-        <f>G124/D124</f>
+        <f t="shared" si="1"/>
         <v>1.0059999999999999E-3</v>
       </c>
     </row>
@@ -10820,7 +10824,7 @@
         <v>1.065E-3</v>
       </c>
       <c r="I125">
-        <f>G125/D125</f>
+        <f t="shared" si="1"/>
         <v>1.065E-3</v>
       </c>
     </row>
@@ -10847,7 +10851,7 @@
         <v>1.034E-3</v>
       </c>
       <c r="I126">
-        <f>G126/D126</f>
+        <f t="shared" si="1"/>
         <v>1.034E-3</v>
       </c>
     </row>
@@ -10874,7 +10878,7 @@
         <v>1.2650000000000001E-3</v>
       </c>
       <c r="I127">
-        <f>G127/D127</f>
+        <f t="shared" si="1"/>
         <v>1.2650000000000001E-3</v>
       </c>
     </row>
@@ -10901,7 +10905,7 @@
         <v>1.291E-3</v>
       </c>
       <c r="I128">
-        <f>G128/D128</f>
+        <f t="shared" si="1"/>
         <v>1.291E-3</v>
       </c>
     </row>
@@ -10928,7 +10932,7 @@
         <v>1.2880000000000001E-3</v>
       </c>
       <c r="I129">
-        <f>G129/D129</f>
+        <f t="shared" ref="I129:I192" si="2">G129/D129</f>
         <v>1.2880000000000001E-3</v>
       </c>
     </row>
@@ -10955,7 +10959,7 @@
         <v>1.305E-3</v>
       </c>
       <c r="I130">
-        <f>G130/D130</f>
+        <f t="shared" si="2"/>
         <v>1.305E-3</v>
       </c>
     </row>
@@ -10982,7 +10986,7 @@
         <v>1.34E-3</v>
       </c>
       <c r="I131">
-        <f>G131/D131</f>
+        <f t="shared" si="2"/>
         <v>1.34E-3</v>
       </c>
     </row>
@@ -11009,7 +11013,7 @@
         <v>1.3090000000000001E-3</v>
       </c>
       <c r="I132">
-        <f>G132/D132</f>
+        <f t="shared" si="2"/>
         <v>1.3090000000000001E-3</v>
       </c>
     </row>
@@ -11036,7 +11040,7 @@
         <v>1.3270000000000001E-3</v>
       </c>
       <c r="I133">
-        <f>G133/D133</f>
+        <f t="shared" si="2"/>
         <v>1.3270000000000001E-3</v>
       </c>
     </row>
@@ -11063,7 +11067,7 @@
         <v>1.382E-3</v>
       </c>
       <c r="I134">
-        <f>G134/D134</f>
+        <f t="shared" si="2"/>
         <v>1.382E-3</v>
       </c>
     </row>
@@ -11090,7 +11094,7 @@
         <v>1.364E-3</v>
       </c>
       <c r="I135">
-        <f>G135/D135</f>
+        <f t="shared" si="2"/>
         <v>1.364E-3</v>
       </c>
     </row>
@@ -11117,7 +11121,7 @@
         <v>1.3259999999999999E-3</v>
       </c>
       <c r="I136">
-        <f>G136/D136</f>
+        <f t="shared" si="2"/>
         <v>1.8942857142857143E-4</v>
       </c>
     </row>
@@ -11144,7 +11148,7 @@
         <v>2.075E-3</v>
       </c>
       <c r="I137">
-        <f>G137/D137</f>
+        <f t="shared" si="2"/>
         <v>1.5961538461538462E-4</v>
       </c>
     </row>
@@ -11171,7 +11175,7 @@
         <v>1.99E-3</v>
       </c>
       <c r="I138">
-        <f>G138/D138</f>
+        <f t="shared" si="2"/>
         <v>1.6583333333333334E-4</v>
       </c>
     </row>
@@ -11198,7 +11202,7 @@
         <v>1.3990000000000001E-3</v>
       </c>
       <c r="I139">
-        <f>G139/D139</f>
+        <f t="shared" si="2"/>
         <v>1.9985714285714287E-4</v>
       </c>
     </row>
@@ -11225,7 +11229,7 @@
         <v>1.122E-3</v>
       </c>
       <c r="I140">
-        <f>G140/D140</f>
+        <f t="shared" si="2"/>
         <v>1.8699999999999999E-4</v>
       </c>
     </row>
@@ -11252,7 +11256,7 @@
         <v>8.7100000000000003E-4</v>
       </c>
       <c r="I141">
-        <f>G141/D141</f>
+        <f t="shared" si="2"/>
         <v>2.1775000000000001E-4</v>
       </c>
     </row>
@@ -11279,7 +11283,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="I142">
-        <f>G142/D142</f>
+        <f t="shared" si="2"/>
         <v>2.0999999999999998E-4</v>
       </c>
     </row>
@@ -11306,7 +11310,7 @@
         <v>9.2100000000000005E-4</v>
       </c>
       <c r="I143">
-        <f>G143/D143</f>
+        <f t="shared" si="2"/>
         <v>2.3025000000000001E-4</v>
       </c>
     </row>
@@ -11333,7 +11337,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
       <c r="I144">
-        <f>G144/D144</f>
+        <f t="shared" si="2"/>
         <v>2.2724999999999999E-4</v>
       </c>
     </row>
@@ -11360,7 +11364,7 @@
         <v>8.9599999999999999E-4</v>
       </c>
       <c r="I145">
-        <f>G145/D145</f>
+        <f t="shared" si="2"/>
         <v>2.24E-4</v>
       </c>
     </row>
@@ -11387,7 +11391,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
       <c r="I146">
-        <f>G146/D146</f>
+        <f t="shared" si="2"/>
         <v>2.3175E-4</v>
       </c>
     </row>
@@ -11414,7 +11418,7 @@
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="I147">
-        <f>G147/D147</f>
+        <f t="shared" si="2"/>
         <v>2.3250000000000001E-4</v>
       </c>
     </row>
@@ -11441,7 +11445,7 @@
         <v>8.3699999999999996E-4</v>
       </c>
       <c r="I148">
-        <f>G148/D148</f>
+        <f t="shared" si="2"/>
         <v>2.7900000000000001E-4</v>
       </c>
     </row>
@@ -11468,7 +11472,7 @@
         <v>8.4099999999999995E-4</v>
       </c>
       <c r="I149">
-        <f>G149/D149</f>
+        <f t="shared" si="2"/>
         <v>2.8033333333333333E-4</v>
       </c>
     </row>
@@ -11495,7 +11499,7 @@
         <v>8.3199999999999995E-4</v>
       </c>
       <c r="I150">
-        <f>G150/D150</f>
+        <f t="shared" si="2"/>
         <v>2.7733333333333332E-4</v>
       </c>
     </row>
@@ -11522,7 +11526,7 @@
         <v>8.5899999999999995E-4</v>
       </c>
       <c r="I151">
-        <f>G151/D151</f>
+        <f t="shared" si="2"/>
         <v>2.8633333333333332E-4</v>
       </c>
     </row>
@@ -11549,7 +11553,7 @@
         <v>1.005E-3</v>
       </c>
       <c r="I152">
-        <f>G152/D152</f>
+        <f t="shared" si="2"/>
         <v>3.3500000000000001E-4</v>
       </c>
     </row>
@@ -11576,7 +11580,7 @@
         <v>8.0400000000000003E-4</v>
       </c>
       <c r="I153">
-        <f>G153/D153</f>
+        <f t="shared" si="2"/>
         <v>8.0400000000000003E-4</v>
       </c>
     </row>
@@ -11603,7 +11607,7 @@
         <v>9.859999999999999E-4</v>
       </c>
       <c r="I154">
-        <f>G154/D154</f>
+        <f t="shared" si="2"/>
         <v>3.2866666666666661E-4</v>
       </c>
     </row>
@@ -11630,7 +11634,7 @@
         <v>8.0099999999999995E-4</v>
       </c>
       <c r="I155">
-        <f>G155/D155</f>
+        <f t="shared" si="2"/>
         <v>8.0099999999999995E-4</v>
       </c>
     </row>
@@ -11657,7 +11661,7 @@
         <v>1.01E-3</v>
       </c>
       <c r="I156">
-        <f>G156/D156</f>
+        <f t="shared" si="2"/>
         <v>3.366666666666667E-4</v>
       </c>
     </row>
@@ -11684,7 +11688,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
       <c r="I157">
-        <f>G157/D157</f>
+        <f t="shared" si="2"/>
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
@@ -11711,7 +11715,7 @@
         <v>1.078E-3</v>
       </c>
       <c r="I158">
-        <f>G158/D158</f>
+        <f t="shared" si="2"/>
         <v>3.593333333333333E-4</v>
       </c>
     </row>
@@ -11738,7 +11742,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="I159">
-        <f>G159/D159</f>
+        <f t="shared" si="2"/>
         <v>8.7000000000000001E-4</v>
       </c>
     </row>
@@ -11765,7 +11769,7 @@
         <v>9.1200000000000005E-4</v>
       </c>
       <c r="I160">
-        <f>G160/D160</f>
+        <f t="shared" si="2"/>
         <v>9.1200000000000005E-4</v>
       </c>
     </row>
@@ -11792,7 +11796,7 @@
         <v>8.8999999999999995E-4</v>
       </c>
       <c r="I161">
-        <f>G161/D161</f>
+        <f t="shared" si="2"/>
         <v>8.8999999999999995E-4</v>
       </c>
     </row>
@@ -11819,7 +11823,7 @@
         <v>9.19E-4</v>
       </c>
       <c r="I162">
-        <f>G162/D162</f>
+        <f t="shared" si="2"/>
         <v>9.19E-4</v>
       </c>
     </row>
@@ -11846,7 +11850,7 @@
         <v>9.4600000000000001E-4</v>
       </c>
       <c r="I163">
-        <f>G163/D163</f>
+        <f t="shared" si="2"/>
         <v>9.4600000000000001E-4</v>
       </c>
     </row>
@@ -11873,7 +11877,7 @@
         <v>9.4200000000000002E-4</v>
       </c>
       <c r="I164">
-        <f>G164/D164</f>
+        <f t="shared" si="2"/>
         <v>9.4200000000000002E-4</v>
       </c>
     </row>
@@ -11900,7 +11904,7 @@
         <v>9.6599999999999995E-4</v>
       </c>
       <c r="I165">
-        <f>G165/D165</f>
+        <f t="shared" si="2"/>
         <v>9.6599999999999995E-4</v>
       </c>
     </row>
@@ -11927,7 +11931,7 @@
         <v>1.5250000000000001E-3</v>
       </c>
       <c r="I166">
-        <f>G166/D166</f>
+        <f t="shared" si="2"/>
         <v>1.5250000000000001E-3</v>
       </c>
     </row>
@@ -11954,7 +11958,7 @@
         <v>1.01E-3</v>
       </c>
       <c r="I167">
-        <f>G167/D167</f>
+        <f t="shared" si="2"/>
         <v>1.01E-3</v>
       </c>
     </row>
@@ -11981,7 +11985,7 @@
         <v>9.5299999999999996E-4</v>
       </c>
       <c r="I168">
-        <f>G168/D168</f>
+        <f t="shared" si="2"/>
         <v>9.5299999999999996E-4</v>
       </c>
     </row>
@@ -12008,7 +12012,7 @@
         <v>1.152E-3</v>
       </c>
       <c r="I169">
-        <f>G169/D169</f>
+        <f t="shared" si="2"/>
         <v>1.152E-3</v>
       </c>
     </row>
@@ -12035,7 +12039,7 @@
         <v>1.057E-3</v>
       </c>
       <c r="I170">
-        <f>G170/D170</f>
+        <f t="shared" si="2"/>
         <v>1.057E-3</v>
       </c>
     </row>
@@ -12062,7 +12066,7 @@
         <v>1.237E-3</v>
       </c>
       <c r="I171">
-        <f>G171/D171</f>
+        <f t="shared" si="2"/>
         <v>1.237E-3</v>
       </c>
     </row>
@@ -12089,7 +12093,7 @@
         <v>1.3730000000000001E-3</v>
       </c>
       <c r="I172">
-        <f>G172/D172</f>
+        <f t="shared" si="2"/>
         <v>1.3730000000000001E-3</v>
       </c>
     </row>
@@ -12116,7 +12120,7 @@
         <v>1.312E-3</v>
       </c>
       <c r="I173">
-        <f>G173/D173</f>
+        <f t="shared" si="2"/>
         <v>1.312E-3</v>
       </c>
     </row>
@@ -12143,7 +12147,7 @@
         <v>1.366E-3</v>
       </c>
       <c r="I174">
-        <f>G174/D174</f>
+        <f t="shared" si="2"/>
         <v>1.366E-3</v>
       </c>
     </row>
@@ -12170,7 +12174,7 @@
         <v>1.377E-3</v>
       </c>
       <c r="I175">
-        <f>G175/D175</f>
+        <f t="shared" si="2"/>
         <v>1.377E-3</v>
       </c>
     </row>
@@ -12197,7 +12201,7 @@
         <v>1.5529999999999999E-3</v>
       </c>
       <c r="I176">
-        <f>G176/D176</f>
+        <f t="shared" si="2"/>
         <v>1.5529999999999999E-3</v>
       </c>
     </row>
@@ -12224,7 +12228,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="I177">
-        <f>G177/D177</f>
+        <f t="shared" si="2"/>
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
@@ -12251,7 +12255,7 @@
         <v>1.354E-3</v>
       </c>
       <c r="I178">
-        <f>G178/D178</f>
+        <f t="shared" si="2"/>
         <v>1.354E-3</v>
       </c>
     </row>
@@ -12278,7 +12282,7 @@
         <v>1.305E-3</v>
       </c>
       <c r="I179">
-        <f>G179/D179</f>
+        <f t="shared" si="2"/>
         <v>1.305E-3</v>
       </c>
     </row>
@@ -12305,7 +12309,7 @@
         <v>1.3270000000000001E-3</v>
       </c>
       <c r="I180">
-        <f>G180/D180</f>
+        <f t="shared" si="2"/>
         <v>1.3270000000000001E-3</v>
       </c>
     </row>
@@ -12332,7 +12336,7 @@
         <v>1.2750000000000001E-3</v>
       </c>
       <c r="I181">
-        <f>G181/D181</f>
+        <f t="shared" si="2"/>
         <v>1.8214285714285714E-4</v>
       </c>
     </row>
@@ -12359,7 +12363,7 @@
         <v>1.4530000000000001E-3</v>
       </c>
       <c r="I182">
-        <f>G182/D182</f>
+        <f t="shared" si="2"/>
         <v>1.8162500000000001E-4</v>
       </c>
     </row>
@@ -12386,7 +12390,7 @@
         <v>2.859E-3</v>
       </c>
       <c r="I183">
-        <f>G183/D183</f>
+        <f t="shared" si="2"/>
         <v>1.3614285714285714E-4</v>
       </c>
     </row>
@@ -12413,7 +12417,7 @@
         <v>1.946E-3</v>
       </c>
       <c r="I184">
-        <f>G184/D184</f>
+        <f t="shared" si="2"/>
         <v>1.4969230769230768E-4</v>
       </c>
     </row>
@@ -12440,7 +12444,7 @@
         <v>1.2520000000000001E-3</v>
       </c>
       <c r="I185">
-        <f>G185/D185</f>
+        <f t="shared" si="2"/>
         <v>1.7885714285714288E-4</v>
       </c>
     </row>
@@ -12467,7 +12471,7 @@
         <v>9.6400000000000001E-4</v>
       </c>
       <c r="I186">
-        <f>G186/D186</f>
+        <f t="shared" si="2"/>
         <v>1.928E-4</v>
       </c>
     </row>
@@ -12494,7 +12498,7 @@
         <v>8.9099999999999997E-4</v>
       </c>
       <c r="I187">
-        <f>G187/D187</f>
+        <f t="shared" si="2"/>
         <v>2.2274999999999999E-4</v>
       </c>
     </row>
@@ -12521,7 +12525,7 @@
         <v>8.8199999999999997E-4</v>
       </c>
       <c r="I188">
-        <f>G188/D188</f>
+        <f t="shared" si="2"/>
         <v>2.2049999999999999E-4</v>
       </c>
     </row>
@@ -12548,7 +12552,7 @@
         <v>1.0120000000000001E-3</v>
       </c>
       <c r="I189">
-        <f>G189/D189</f>
+        <f t="shared" si="2"/>
         <v>2.0240000000000001E-4</v>
       </c>
     </row>
@@ -12575,7 +12579,7 @@
         <v>9.2100000000000005E-4</v>
       </c>
       <c r="I190">
-        <f>G190/D190</f>
+        <f t="shared" si="2"/>
         <v>2.3025000000000001E-4</v>
       </c>
     </row>
@@ -12602,7 +12606,7 @@
         <v>8.3699999999999996E-4</v>
       </c>
       <c r="I191">
-        <f>G191/D191</f>
+        <f t="shared" si="2"/>
         <v>2.7900000000000001E-4</v>
       </c>
     </row>
@@ -12629,7 +12633,7 @@
         <v>9.5E-4</v>
       </c>
       <c r="I192">
-        <f>G192/D192</f>
+        <f t="shared" si="2"/>
         <v>2.375E-4</v>
       </c>
     </row>
@@ -12656,7 +12660,7 @@
         <v>8.2700000000000004E-4</v>
       </c>
       <c r="I193">
-        <f>G193/D193</f>
+        <f t="shared" ref="I193:I256" si="3">G193/D193</f>
         <v>2.7566666666666668E-4</v>
       </c>
     </row>
@@ -12683,7 +12687,7 @@
         <v>8.1099999999999998E-4</v>
       </c>
       <c r="I194">
-        <f>G194/D194</f>
+        <f t="shared" si="3"/>
         <v>2.7033333333333331E-4</v>
       </c>
     </row>
@@ -12710,7 +12714,7 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="I195">
-        <f>G195/D195</f>
+        <f t="shared" si="3"/>
         <v>2.8666666666666668E-4</v>
       </c>
     </row>
@@ -12737,7 +12741,7 @@
         <v>8.61E-4</v>
       </c>
       <c r="I196">
-        <f>G196/D196</f>
+        <f t="shared" si="3"/>
         <v>2.8699999999999998E-4</v>
       </c>
     </row>
@@ -12764,7 +12768,7 @@
         <v>9.8900000000000008E-4</v>
       </c>
       <c r="I197">
-        <f>G197/D197</f>
+        <f t="shared" si="3"/>
         <v>3.2966666666666669E-4</v>
       </c>
     </row>
@@ -12791,7 +12795,7 @@
         <v>9.9599999999999992E-4</v>
       </c>
       <c r="I198">
-        <f>G198/D198</f>
+        <f t="shared" si="3"/>
         <v>3.3199999999999999E-4</v>
       </c>
     </row>
@@ -12818,7 +12822,7 @@
         <v>9.5500000000000001E-4</v>
       </c>
       <c r="I199">
-        <f>G199/D199</f>
+        <f t="shared" si="3"/>
         <v>3.1833333333333334E-4</v>
       </c>
     </row>
@@ -12845,7 +12849,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
       <c r="I200">
-        <f>G200/D200</f>
+        <f t="shared" si="3"/>
         <v>3.4866666666666667E-4</v>
       </c>
     </row>
@@ -12872,7 +12876,7 @@
         <v>1.0610000000000001E-3</v>
       </c>
       <c r="I201">
-        <f>G201/D201</f>
+        <f t="shared" si="3"/>
         <v>3.5366666666666668E-4</v>
       </c>
     </row>
@@ -12899,7 +12903,7 @@
         <v>8.0900000000000004E-4</v>
       </c>
       <c r="I202">
-        <f>G202/D202</f>
+        <f t="shared" si="3"/>
         <v>8.0900000000000004E-4</v>
       </c>
     </row>
@@ -12926,7 +12930,7 @@
         <v>8.8900000000000003E-4</v>
       </c>
       <c r="I203">
-        <f>G203/D203</f>
+        <f t="shared" si="3"/>
         <v>8.8900000000000003E-4</v>
       </c>
     </row>
@@ -12953,7 +12957,7 @@
         <v>8.8500000000000004E-4</v>
       </c>
       <c r="I204">
-        <f>G204/D204</f>
+        <f t="shared" si="3"/>
         <v>8.8500000000000004E-4</v>
       </c>
     </row>
@@ -12980,7 +12984,7 @@
         <v>9.0600000000000001E-4</v>
       </c>
       <c r="I205">
-        <f>G205/D205</f>
+        <f t="shared" si="3"/>
         <v>9.0600000000000001E-4</v>
       </c>
     </row>
@@ -13007,7 +13011,7 @@
         <v>1.088E-3</v>
       </c>
       <c r="I206">
-        <f>G206/D206</f>
+        <f t="shared" si="3"/>
         <v>3.6266666666666668E-4</v>
       </c>
     </row>
@@ -13034,7 +13038,7 @@
         <v>9.5100000000000002E-4</v>
       </c>
       <c r="I207">
-        <f>G207/D207</f>
+        <f t="shared" si="3"/>
         <v>9.5100000000000002E-4</v>
       </c>
     </row>
@@ -13061,7 +13065,7 @@
         <v>8.9899999999999995E-4</v>
       </c>
       <c r="I208">
-        <f>G208/D208</f>
+        <f t="shared" si="3"/>
         <v>8.9899999999999995E-4</v>
       </c>
     </row>
@@ -13088,7 +13092,7 @@
         <v>9.2199999999999997E-4</v>
       </c>
       <c r="I209">
-        <f>G209/D209</f>
+        <f t="shared" si="3"/>
         <v>9.2199999999999997E-4</v>
       </c>
     </row>
@@ -13115,7 +13119,7 @@
         <v>9.8200000000000002E-4</v>
       </c>
       <c r="I210">
-        <f>G210/D210</f>
+        <f t="shared" si="3"/>
         <v>9.8200000000000002E-4</v>
       </c>
     </row>
@@ -13142,7 +13146,7 @@
         <v>1.114E-3</v>
       </c>
       <c r="I211">
-        <f>G211/D211</f>
+        <f t="shared" si="3"/>
         <v>1.114E-3</v>
       </c>
     </row>
@@ -13169,7 +13173,7 @@
         <v>1.32E-3</v>
       </c>
       <c r="I212">
-        <f>G212/D212</f>
+        <f t="shared" si="3"/>
         <v>4.4000000000000002E-4</v>
       </c>
     </row>
@@ -13196,7 +13200,7 @@
         <v>1.1100000000000001E-3</v>
       </c>
       <c r="I213">
-        <f>G213/D213</f>
+        <f t="shared" si="3"/>
         <v>1.1100000000000001E-3</v>
       </c>
     </row>
@@ -13223,7 +13227,7 @@
         <v>1.096E-3</v>
       </c>
       <c r="I214">
-        <f>G214/D214</f>
+        <f t="shared" si="3"/>
         <v>1.096E-3</v>
       </c>
     </row>
@@ -13250,7 +13254,7 @@
         <v>1.06E-3</v>
       </c>
       <c r="I215">
-        <f>G215/D215</f>
+        <f t="shared" si="3"/>
         <v>1.06E-3</v>
       </c>
     </row>
@@ -13277,7 +13281,7 @@
         <v>1.17E-3</v>
       </c>
       <c r="I216">
-        <f>G216/D216</f>
+        <f t="shared" si="3"/>
         <v>1.17E-3</v>
       </c>
     </row>
@@ -13304,7 +13308,7 @@
         <v>1.2489999999999999E-3</v>
       </c>
       <c r="I217">
-        <f>G217/D217</f>
+        <f t="shared" si="3"/>
         <v>1.2489999999999999E-3</v>
       </c>
     </row>
@@ -13331,7 +13335,7 @@
         <v>1.2750000000000001E-3</v>
       </c>
       <c r="I218">
-        <f>G218/D218</f>
+        <f t="shared" si="3"/>
         <v>1.2750000000000001E-3</v>
       </c>
     </row>
@@ -13358,7 +13362,7 @@
         <v>1.431E-3</v>
       </c>
       <c r="I219">
-        <f>G219/D219</f>
+        <f t="shared" si="3"/>
         <v>1.431E-3</v>
       </c>
     </row>
@@ -13385,7 +13389,7 @@
         <v>1.3370000000000001E-3</v>
       </c>
       <c r="I220">
-        <f>G220/D220</f>
+        <f t="shared" si="3"/>
         <v>1.3370000000000001E-3</v>
       </c>
     </row>
@@ -13412,7 +13416,7 @@
         <v>1.4090000000000001E-3</v>
       </c>
       <c r="I221">
-        <f>G221/D221</f>
+        <f t="shared" si="3"/>
         <v>1.4090000000000001E-3</v>
       </c>
     </row>
@@ -13439,7 +13443,7 @@
         <v>1.4519999999999999E-3</v>
       </c>
       <c r="I222">
-        <f>G222/D222</f>
+        <f t="shared" si="3"/>
         <v>1.4519999999999999E-3</v>
       </c>
     </row>
@@ -13466,7 +13470,7 @@
         <v>1.421E-3</v>
       </c>
       <c r="I223">
-        <f>G223/D223</f>
+        <f t="shared" si="3"/>
         <v>1.421E-3</v>
       </c>
     </row>
@@ -13493,7 +13497,7 @@
         <v>1.444E-3</v>
       </c>
       <c r="I224">
-        <f>G224/D224</f>
+        <f t="shared" si="3"/>
         <v>1.444E-3</v>
       </c>
     </row>
@@ -13520,7 +13524,7 @@
         <v>1.4920000000000001E-3</v>
       </c>
       <c r="I225">
-        <f>G225/D225</f>
+        <f t="shared" si="3"/>
         <v>1.4920000000000001E-3</v>
       </c>
     </row>
@@ -13547,7 +13551,7 @@
         <v>1.4710000000000001E-3</v>
       </c>
       <c r="I226">
-        <f>G226/D226</f>
+        <f t="shared" si="3"/>
         <v>1.6344444444444447E-4</v>
       </c>
     </row>
@@ -13574,7 +13578,7 @@
         <v>1.7129999999999999E-3</v>
       </c>
       <c r="I227">
-        <f>G227/D227</f>
+        <f t="shared" si="3"/>
         <v>1.5572727272727271E-4</v>
       </c>
     </row>
@@ -13601,7 +13605,7 @@
         <v>2.5370000000000002E-3</v>
       </c>
       <c r="I228">
-        <f>G228/D228</f>
+        <f t="shared" si="3"/>
         <v>1.4923529411764707E-4</v>
       </c>
     </row>
@@ -13628,7 +13632,7 @@
         <v>1.493E-3</v>
       </c>
       <c r="I229">
-        <f>G229/D229</f>
+        <f t="shared" si="3"/>
         <v>1.86625E-4</v>
       </c>
     </row>
@@ -13655,7 +13659,7 @@
         <v>1.34E-3</v>
       </c>
       <c r="I230">
-        <f>G230/D230</f>
+        <f t="shared" si="3"/>
         <v>1.6750000000000001E-4</v>
       </c>
     </row>
@@ -13682,7 +13686,7 @@
         <v>1.0809999999999999E-3</v>
       </c>
       <c r="I231">
-        <f>G231/D231</f>
+        <f t="shared" si="3"/>
         <v>1.8016666666666666E-4</v>
       </c>
     </row>
@@ -13709,7 +13713,7 @@
         <v>9.1200000000000005E-4</v>
       </c>
       <c r="I232">
-        <f>G232/D232</f>
+        <f t="shared" si="3"/>
         <v>2.2800000000000001E-4</v>
       </c>
     </row>
@@ -13736,7 +13740,7 @@
         <v>9.9200000000000004E-4</v>
       </c>
       <c r="I233">
-        <f>G233/D233</f>
+        <f t="shared" si="3"/>
         <v>1.984E-4</v>
       </c>
     </row>
@@ -13763,7 +13767,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I234">
-        <f>G234/D234</f>
+        <f t="shared" si="3"/>
         <v>2.2499999999999999E-4</v>
       </c>
     </row>
@@ -13790,7 +13794,7 @@
         <v>7.9100000000000004E-4</v>
       </c>
       <c r="I235">
-        <f>G235/D235</f>
+        <f t="shared" si="3"/>
         <v>2.6366666666666666E-4</v>
       </c>
     </row>
@@ -13817,7 +13821,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
       <c r="I236">
-        <f>G236/D236</f>
+        <f t="shared" si="3"/>
         <v>2.6433333333333333E-4</v>
       </c>
     </row>
@@ -13844,7 +13848,7 @@
         <v>8.1099999999999998E-4</v>
       </c>
       <c r="I237">
-        <f>G237/D237</f>
+        <f t="shared" si="3"/>
         <v>2.7033333333333331E-4</v>
       </c>
     </row>
@@ -13871,7 +13875,7 @@
         <v>8.5499999999999997E-4</v>
       </c>
       <c r="I238">
-        <f>G238/D238</f>
+        <f t="shared" si="3"/>
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
@@ -13898,7 +13902,7 @@
         <v>1.005E-3</v>
       </c>
       <c r="I239">
-        <f>G239/D239</f>
+        <f t="shared" si="3"/>
         <v>2.5125000000000001E-4</v>
       </c>
     </row>
@@ -13925,7 +13929,7 @@
         <v>8.9700000000000001E-4</v>
       </c>
       <c r="I240">
-        <f>G240/D240</f>
+        <f t="shared" si="3"/>
         <v>2.99E-4</v>
       </c>
     </row>
@@ -13952,7 +13956,7 @@
         <v>8.7699999999999996E-4</v>
       </c>
       <c r="I241">
-        <f>G241/D241</f>
+        <f t="shared" si="3"/>
         <v>2.923333333333333E-4</v>
       </c>
     </row>
@@ -13979,7 +13983,7 @@
         <v>9.7300000000000002E-4</v>
       </c>
       <c r="I242">
-        <f>G242/D242</f>
+        <f t="shared" si="3"/>
         <v>3.2433333333333332E-4</v>
       </c>
     </row>
@@ -14006,7 +14010,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
       <c r="I243">
-        <f>G243/D243</f>
+        <f t="shared" si="3"/>
         <v>3.3400000000000004E-4</v>
       </c>
     </row>
@@ -14033,7 +14037,7 @@
         <v>1.0610000000000001E-3</v>
       </c>
       <c r="I244">
-        <f>G244/D244</f>
+        <f t="shared" si="3"/>
         <v>3.5366666666666668E-4</v>
       </c>
     </row>
@@ -14060,7 +14064,7 @@
         <v>1.008E-3</v>
       </c>
       <c r="I245">
-        <f>G245/D245</f>
+        <f t="shared" si="3"/>
         <v>3.3599999999999998E-4</v>
       </c>
     </row>
@@ -14087,7 +14091,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
       <c r="I246">
-        <f>G246/D246</f>
+        <f t="shared" si="3"/>
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
@@ -14114,7 +14118,7 @@
         <v>1.0349999999999999E-3</v>
       </c>
       <c r="I247">
-        <f>G247/D247</f>
+        <f t="shared" si="3"/>
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
@@ -14141,7 +14145,7 @@
         <v>8.5599999999999999E-4</v>
       </c>
       <c r="I248">
-        <f>G248/D248</f>
+        <f t="shared" si="3"/>
         <v>8.5599999999999999E-4</v>
       </c>
     </row>
@@ -14168,7 +14172,7 @@
         <v>8.7799999999999998E-4</v>
       </c>
       <c r="I249">
-        <f>G249/D249</f>
+        <f t="shared" si="3"/>
         <v>8.7799999999999998E-4</v>
       </c>
     </row>
@@ -14195,7 +14199,7 @@
         <v>8.7699999999999996E-4</v>
       </c>
       <c r="I250">
-        <f>G250/D250</f>
+        <f t="shared" si="3"/>
         <v>8.7699999999999996E-4</v>
       </c>
     </row>
@@ -14222,7 +14226,7 @@
         <v>9.01E-4</v>
       </c>
       <c r="I251">
-        <f>G251/D251</f>
+        <f t="shared" si="3"/>
         <v>9.01E-4</v>
       </c>
     </row>
@@ -14249,7 +14253,7 @@
         <v>9.19E-4</v>
       </c>
       <c r="I252">
-        <f>G252/D252</f>
+        <f t="shared" si="3"/>
         <v>9.19E-4</v>
       </c>
     </row>
@@ -14276,7 +14280,7 @@
         <v>9.01E-4</v>
       </c>
       <c r="I253">
-        <f>G253/D253</f>
+        <f t="shared" si="3"/>
         <v>9.01E-4</v>
       </c>
     </row>
@@ -14303,7 +14307,7 @@
         <v>9.3199999999999999E-4</v>
       </c>
       <c r="I254">
-        <f>G254/D254</f>
+        <f t="shared" si="3"/>
         <v>9.3199999999999999E-4</v>
       </c>
     </row>
@@ -14330,7 +14334,7 @@
         <v>9.5799999999999998E-4</v>
       </c>
       <c r="I255">
-        <f>G255/D255</f>
+        <f t="shared" si="3"/>
         <v>9.5799999999999998E-4</v>
       </c>
     </row>
@@ -14357,7 +14361,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="I256">
-        <f>G256/D256</f>
+        <f t="shared" si="3"/>
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
@@ -14384,7 +14388,7 @@
         <v>9.8900000000000008E-4</v>
       </c>
       <c r="I257">
-        <f>G257/D257</f>
+        <f t="shared" ref="I257:I320" si="4">G257/D257</f>
         <v>9.8900000000000008E-4</v>
       </c>
     </row>
@@ -14411,7 +14415,7 @@
         <v>1.031E-3</v>
       </c>
       <c r="I258">
-        <f>G258/D258</f>
+        <f t="shared" si="4"/>
         <v>1.031E-3</v>
       </c>
     </row>
@@ -14438,7 +14442,7 @@
         <v>1.01E-3</v>
       </c>
       <c r="I259">
-        <f>G259/D259</f>
+        <f t="shared" si="4"/>
         <v>1.01E-3</v>
       </c>
     </row>
@@ -14465,7 +14469,7 @@
         <v>1.0510000000000001E-3</v>
       </c>
       <c r="I260">
-        <f>G260/D260</f>
+        <f t="shared" si="4"/>
         <v>1.0510000000000001E-3</v>
       </c>
     </row>
@@ -14492,7 +14496,7 @@
         <v>1.018E-3</v>
       </c>
       <c r="I261">
-        <f>G261/D261</f>
+        <f t="shared" si="4"/>
         <v>1.018E-3</v>
       </c>
     </row>
@@ -14519,7 +14523,7 @@
         <v>1.297E-3</v>
       </c>
       <c r="I262">
-        <f>G262/D262</f>
+        <f t="shared" si="4"/>
         <v>1.297E-3</v>
       </c>
     </row>
@@ -14546,7 +14550,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
       <c r="I263">
-        <f>G263/D263</f>
+        <f t="shared" si="4"/>
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
@@ -14573,7 +14577,7 @@
         <v>1.2750000000000001E-3</v>
       </c>
       <c r="I264">
-        <f>G264/D264</f>
+        <f t="shared" si="4"/>
         <v>1.2750000000000001E-3</v>
       </c>
     </row>
@@ -14600,7 +14604,7 @@
         <v>1.294E-3</v>
       </c>
       <c r="I265">
-        <f>G265/D265</f>
+        <f t="shared" si="4"/>
         <v>1.294E-3</v>
       </c>
     </row>
@@ -14627,7 +14631,7 @@
         <v>1.328E-3</v>
       </c>
       <c r="I266">
-        <f>G266/D266</f>
+        <f t="shared" si="4"/>
         <v>1.328E-3</v>
       </c>
     </row>
@@ -14654,7 +14658,7 @@
         <v>1.317E-3</v>
       </c>
       <c r="I267">
-        <f>G267/D267</f>
+        <f t="shared" si="4"/>
         <v>1.317E-3</v>
       </c>
     </row>
@@ -14681,7 +14685,7 @@
         <v>1.3569999999999999E-3</v>
       </c>
       <c r="I268">
-        <f>G268/D268</f>
+        <f t="shared" si="4"/>
         <v>1.3569999999999999E-3</v>
       </c>
     </row>
@@ -14708,7 +14712,7 @@
         <v>1.354E-3</v>
       </c>
       <c r="I269">
-        <f>G269/D269</f>
+        <f t="shared" si="4"/>
         <v>1.354E-3</v>
       </c>
     </row>
@@ -14735,7 +14739,7 @@
         <v>1.382E-3</v>
       </c>
       <c r="I270">
-        <f>G270/D270</f>
+        <f t="shared" si="4"/>
         <v>1.382E-3</v>
       </c>
     </row>
@@ -14762,7 +14766,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
       <c r="I271">
-        <f>G271/D271</f>
+        <f t="shared" si="4"/>
         <v>1.9314285714285714E-4</v>
       </c>
     </row>
@@ -14789,7 +14793,7 @@
         <v>2.3809999999999999E-3</v>
       </c>
       <c r="I272">
-        <f>G272/D272</f>
+        <f t="shared" si="4"/>
         <v>1.4881249999999999E-4</v>
       </c>
     </row>
@@ -14816,7 +14820,7 @@
         <v>1.4580000000000001E-3</v>
       </c>
       <c r="I273">
-        <f>G273/D273</f>
+        <f t="shared" si="4"/>
         <v>1.8225000000000001E-4</v>
       </c>
     </row>
@@ -14843,7 +14847,7 @@
         <v>1.817E-3</v>
       </c>
       <c r="I274">
-        <f>G274/D274</f>
+        <f t="shared" si="4"/>
         <v>1.5141666666666667E-4</v>
       </c>
     </row>
@@ -14870,7 +14874,7 @@
         <v>1.6080000000000001E-3</v>
       </c>
       <c r="I275">
-        <f>G275/D275</f>
+        <f t="shared" si="4"/>
         <v>1.6080000000000001E-4</v>
       </c>
     </row>
@@ -14897,7 +14901,7 @@
         <v>9.5200000000000005E-4</v>
       </c>
       <c r="I276">
-        <f>G276/D276</f>
+        <f t="shared" si="4"/>
         <v>1.9040000000000002E-4</v>
       </c>
     </row>
@@ -14924,7 +14928,7 @@
         <v>1.011E-3</v>
       </c>
       <c r="I277">
-        <f>G277/D277</f>
+        <f t="shared" si="4"/>
         <v>2.0219999999999998E-4</v>
       </c>
     </row>
@@ -14951,7 +14955,7 @@
         <v>1.016E-3</v>
       </c>
       <c r="I278">
-        <f>G278/D278</f>
+        <f t="shared" si="4"/>
         <v>2.0320000000000001E-4</v>
       </c>
     </row>
@@ -14978,7 +14982,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
       <c r="I279">
-        <f>G279/D279</f>
+        <f t="shared" si="4"/>
         <v>2.2724999999999999E-4</v>
       </c>
     </row>
@@ -15005,7 +15009,7 @@
         <v>1.0219999999999999E-3</v>
       </c>
       <c r="I280">
-        <f>G280/D280</f>
+        <f t="shared" si="4"/>
         <v>2.0439999999999998E-4</v>
       </c>
     </row>
@@ -15032,7 +15036,7 @@
         <v>7.9900000000000001E-4</v>
       </c>
       <c r="I281">
-        <f>G281/D281</f>
+        <f t="shared" si="4"/>
         <v>2.6633333333333332E-4</v>
       </c>
     </row>
@@ -15059,7 +15063,7 @@
         <v>8.3699999999999996E-4</v>
       </c>
       <c r="I282">
-        <f>G282/D282</f>
+        <f t="shared" si="4"/>
         <v>2.7900000000000001E-4</v>
       </c>
     </row>
@@ -15086,7 +15090,7 @@
         <v>8.2600000000000002E-4</v>
       </c>
       <c r="I283">
-        <f>G283/D283</f>
+        <f t="shared" si="4"/>
         <v>2.7533333333333332E-4</v>
       </c>
     </row>
@@ -15113,7 +15117,7 @@
         <v>9.5E-4</v>
       </c>
       <c r="I284">
-        <f>G284/D284</f>
+        <f t="shared" si="4"/>
         <v>2.375E-4</v>
       </c>
     </row>
@@ -15140,7 +15144,7 @@
         <v>8.2899999999999998E-4</v>
       </c>
       <c r="I285">
-        <f>G285/D285</f>
+        <f t="shared" si="4"/>
         <v>2.7633333333333335E-4</v>
       </c>
     </row>
@@ -15167,7 +15171,7 @@
         <v>8.6899999999999998E-4</v>
       </c>
       <c r="I286">
-        <f>G286/D286</f>
+        <f t="shared" si="4"/>
         <v>2.8966666666666664E-4</v>
       </c>
     </row>
@@ -15194,7 +15198,7 @@
         <v>9.859999999999999E-4</v>
       </c>
       <c r="I287">
-        <f>G287/D287</f>
+        <f t="shared" si="4"/>
         <v>3.2866666666666661E-4</v>
       </c>
     </row>
@@ -15221,7 +15225,7 @@
         <v>1.0690000000000001E-3</v>
       </c>
       <c r="I288">
-        <f>G288/D288</f>
+        <f t="shared" si="4"/>
         <v>3.5633333333333334E-4</v>
       </c>
     </row>
@@ -15248,7 +15252,7 @@
         <v>8.0900000000000004E-4</v>
       </c>
       <c r="I289">
-        <f>G289/D289</f>
+        <f t="shared" si="4"/>
         <v>8.0900000000000004E-4</v>
       </c>
     </row>
@@ -15275,7 +15279,7 @@
         <v>1.0330000000000001E-3</v>
       </c>
       <c r="I290">
-        <f>G290/D290</f>
+        <f t="shared" si="4"/>
         <v>3.4433333333333337E-4</v>
       </c>
     </row>
@@ -15302,7 +15306,7 @@
         <v>1.0430000000000001E-3</v>
       </c>
       <c r="I291">
-        <f>G291/D291</f>
+        <f t="shared" si="4"/>
         <v>3.476666666666667E-4</v>
       </c>
     </row>
@@ -15329,7 +15333,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
       <c r="I292">
-        <f>G292/D292</f>
+        <f t="shared" si="4"/>
         <v>9.0899999999999998E-4</v>
       </c>
     </row>
@@ -15356,7 +15360,7 @@
         <v>8.4900000000000004E-4</v>
       </c>
       <c r="I293">
-        <f>G293/D293</f>
+        <f t="shared" si="4"/>
         <v>8.4900000000000004E-4</v>
       </c>
     </row>
@@ -15383,7 +15387,7 @@
         <v>8.9300000000000002E-4</v>
       </c>
       <c r="I294">
-        <f>G294/D294</f>
+        <f t="shared" si="4"/>
         <v>8.9300000000000002E-4</v>
       </c>
     </row>
@@ -15410,7 +15414,7 @@
         <v>8.7600000000000004E-4</v>
       </c>
       <c r="I295">
-        <f>G295/D295</f>
+        <f t="shared" si="4"/>
         <v>8.7600000000000004E-4</v>
       </c>
     </row>
@@ -15437,7 +15441,7 @@
         <v>9.1299999999999997E-4</v>
       </c>
       <c r="I296">
-        <f>G296/D296</f>
+        <f t="shared" si="4"/>
         <v>9.1299999999999997E-4</v>
       </c>
     </row>
@@ -15464,7 +15468,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
       <c r="I297">
-        <f>G297/D297</f>
+        <f t="shared" si="4"/>
         <v>9.0899999999999998E-4</v>
       </c>
     </row>
@@ -15491,7 +15495,7 @@
         <v>9.2500000000000004E-4</v>
       </c>
       <c r="I298">
-        <f>G298/D298</f>
+        <f t="shared" si="4"/>
         <v>9.2500000000000004E-4</v>
       </c>
     </row>
@@ -15518,7 +15522,7 @@
         <v>9.6400000000000001E-4</v>
       </c>
       <c r="I299">
-        <f>G299/D299</f>
+        <f t="shared" si="4"/>
         <v>9.6400000000000001E-4</v>
       </c>
     </row>
@@ -15545,7 +15549,7 @@
         <v>9.6199999999999996E-4</v>
       </c>
       <c r="I300">
-        <f>G300/D300</f>
+        <f t="shared" si="4"/>
         <v>9.6199999999999996E-4</v>
       </c>
     </row>
@@ -15572,7 +15576,7 @@
         <v>9.6900000000000003E-4</v>
       </c>
       <c r="I301">
-        <f>G301/D301</f>
+        <f t="shared" si="4"/>
         <v>9.6900000000000003E-4</v>
       </c>
     </row>
@@ -15599,7 +15603,7 @@
         <v>1.044E-3</v>
       </c>
       <c r="I302">
-        <f>G302/D302</f>
+        <f t="shared" si="4"/>
         <v>1.044E-3</v>
       </c>
     </row>
@@ -15626,7 +15630,7 @@
         <v>1.0740000000000001E-3</v>
       </c>
       <c r="I303">
-        <f>G303/D303</f>
+        <f t="shared" si="4"/>
         <v>1.0740000000000001E-3</v>
       </c>
     </row>
@@ -15653,7 +15657,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
       <c r="I304">
-        <f>G304/D304</f>
+        <f t="shared" si="4"/>
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
@@ -15680,7 +15684,7 @@
         <v>1.047E-3</v>
       </c>
       <c r="I305">
-        <f>G305/D305</f>
+        <f t="shared" si="4"/>
         <v>1.047E-3</v>
       </c>
     </row>
@@ -15707,7 +15711,7 @@
         <v>1.0369999999999999E-3</v>
       </c>
       <c r="I306">
-        <f>G306/D306</f>
+        <f t="shared" si="4"/>
         <v>1.0369999999999999E-3</v>
       </c>
     </row>
@@ -15734,7 +15738,7 @@
         <v>1.268E-3</v>
       </c>
       <c r="I307">
-        <f>G307/D307</f>
+        <f t="shared" si="4"/>
         <v>1.268E-3</v>
       </c>
     </row>
@@ -15761,7 +15765,7 @@
         <v>1.291E-3</v>
       </c>
       <c r="I308">
-        <f>G308/D308</f>
+        <f t="shared" si="4"/>
         <v>1.291E-3</v>
       </c>
     </row>
@@ -15788,7 +15792,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I309">
-        <f>G309/D309</f>
+        <f t="shared" si="4"/>
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
@@ -15815,7 +15819,7 @@
         <v>1.3359999999999999E-3</v>
       </c>
       <c r="I310">
-        <f>G310/D310</f>
+        <f t="shared" si="4"/>
         <v>1.3359999999999999E-3</v>
       </c>
     </row>
@@ -15842,7 +15846,7 @@
         <v>1.3309999999999999E-3</v>
       </c>
       <c r="I311">
-        <f>G311/D311</f>
+        <f t="shared" si="4"/>
         <v>1.3309999999999999E-3</v>
       </c>
     </row>
@@ -15869,7 +15873,7 @@
         <v>1.3489999999999999E-3</v>
       </c>
       <c r="I312">
-        <f>G312/D312</f>
+        <f t="shared" si="4"/>
         <v>1.3489999999999999E-3</v>
       </c>
     </row>
@@ -15896,7 +15900,7 @@
         <v>1.3829999999999999E-3</v>
       </c>
       <c r="I313">
-        <f>G313/D313</f>
+        <f t="shared" si="4"/>
         <v>1.3829999999999999E-3</v>
       </c>
     </row>
@@ -15923,7 +15927,7 @@
         <v>1.351E-3</v>
       </c>
       <c r="I314">
-        <f>G314/D314</f>
+        <f t="shared" si="4"/>
         <v>1.351E-3</v>
       </c>
     </row>
@@ -15950,7 +15954,7 @@
         <v>1.382E-3</v>
       </c>
       <c r="I315">
-        <f>G315/D315</f>
+        <f t="shared" si="4"/>
         <v>1.382E-3</v>
       </c>
     </row>
@@ -15977,7 +15981,7 @@
         <v>1.356E-3</v>
       </c>
       <c r="I316">
-        <f>G316/D316</f>
+        <f t="shared" si="4"/>
         <v>1.9371428571428572E-4</v>
       </c>
     </row>
@@ -16004,7 +16008,7 @@
         <v>2.232E-3</v>
       </c>
       <c r="I317">
-        <f>G317/D317</f>
+        <f t="shared" si="4"/>
         <v>1.4880000000000001E-4</v>
       </c>
     </row>
@@ -16031,7 +16035,7 @@
         <v>1.4369999999999999E-3</v>
       </c>
       <c r="I318">
-        <f>G318/D318</f>
+        <f t="shared" si="4"/>
         <v>1.7962499999999999E-4</v>
       </c>
     </row>
@@ -16058,7 +16062,7 @@
         <v>1.5150000000000001E-3</v>
       </c>
       <c r="I319">
-        <f>G319/D319</f>
+        <f t="shared" si="4"/>
         <v>1.6833333333333335E-4</v>
       </c>
     </row>
@@ -16085,7 +16089,7 @@
         <v>1.1249999999999999E-3</v>
       </c>
       <c r="I320">
-        <f>G320/D320</f>
+        <f t="shared" si="4"/>
         <v>1.8749999999999998E-4</v>
       </c>
     </row>
@@ -16112,7 +16116,7 @@
         <v>1.119E-3</v>
       </c>
       <c r="I321">
-        <f>G321/D321</f>
+        <f t="shared" ref="I321:I384" si="5">G321/D321</f>
         <v>1.8650000000000001E-4</v>
       </c>
     </row>
@@ -16139,7 +16143,7 @@
         <v>1.0529999999999999E-3</v>
       </c>
       <c r="I322">
-        <f>G322/D322</f>
+        <f t="shared" si="5"/>
         <v>2.1059999999999997E-4</v>
       </c>
     </row>
@@ -16166,7 +16170,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
       <c r="I323">
-        <f>G323/D323</f>
+        <f t="shared" si="5"/>
         <v>2.2149999999999999E-4</v>
       </c>
     </row>
@@ -16193,7 +16197,7 @@
         <v>9.1399999999999999E-4</v>
       </c>
       <c r="I324">
-        <f>G324/D324</f>
+        <f t="shared" si="5"/>
         <v>2.285E-4</v>
       </c>
     </row>
@@ -16220,7 +16224,7 @@
         <v>8.1899999999999996E-4</v>
       </c>
       <c r="I325">
-        <f>G325/D325</f>
+        <f t="shared" si="5"/>
         <v>2.7299999999999997E-4</v>
       </c>
     </row>
@@ -16247,7 +16251,7 @@
         <v>8.9300000000000002E-4</v>
       </c>
       <c r="I326">
-        <f>G326/D326</f>
+        <f t="shared" si="5"/>
         <v>2.2325000000000001E-4</v>
       </c>
     </row>
@@ -16274,7 +16278,7 @@
         <v>8.1899999999999996E-4</v>
       </c>
       <c r="I327">
-        <f>G327/D327</f>
+        <f t="shared" si="5"/>
         <v>2.7299999999999997E-4</v>
       </c>
     </row>
@@ -16301,7 +16305,7 @@
         <v>8.34E-4</v>
       </c>
       <c r="I328">
-        <f>G328/D328</f>
+        <f t="shared" si="5"/>
         <v>2.7799999999999998E-4</v>
       </c>
     </row>
@@ -16328,7 +16332,7 @@
         <v>8.6499999999999999E-4</v>
       </c>
       <c r="I329">
-        <f>G329/D329</f>
+        <f t="shared" si="5"/>
         <v>2.8833333333333331E-4</v>
       </c>
     </row>
@@ -16355,7 +16359,7 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="I330">
-        <f>G330/D330</f>
+        <f t="shared" si="5"/>
         <v>2.8666666666666668E-4</v>
       </c>
     </row>
@@ -16382,7 +16386,7 @@
         <v>8.6200000000000003E-4</v>
       </c>
       <c r="I331">
-        <f>G331/D331</f>
+        <f t="shared" si="5"/>
         <v>2.8733333333333334E-4</v>
       </c>
     </row>
@@ -16409,7 +16413,7 @@
         <v>9.990000000000001E-4</v>
       </c>
       <c r="I332">
-        <f>G332/D332</f>
+        <f t="shared" si="5"/>
         <v>3.3300000000000002E-4</v>
       </c>
     </row>
@@ -16436,7 +16440,7 @@
         <v>1.005E-3</v>
       </c>
       <c r="I333">
-        <f>G333/D333</f>
+        <f t="shared" si="5"/>
         <v>3.3500000000000001E-4</v>
       </c>
     </row>
@@ -16463,7 +16467,7 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="I334">
-        <f>G334/D334</f>
+        <f t="shared" si="5"/>
         <v>3.4000000000000002E-4</v>
       </c>
     </row>
@@ -16490,7 +16494,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
       <c r="I335">
-        <f>G335/D335</f>
+        <f t="shared" si="5"/>
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
@@ -16517,7 +16521,7 @@
         <v>1.0349999999999999E-3</v>
       </c>
       <c r="I336">
-        <f>G336/D336</f>
+        <f t="shared" si="5"/>
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
@@ -16544,7 +16548,7 @@
         <v>1.0330000000000001E-3</v>
       </c>
       <c r="I337">
-        <f>G337/D337</f>
+        <f t="shared" si="5"/>
         <v>3.4433333333333337E-4</v>
       </c>
     </row>
@@ -16571,7 +16575,7 @@
         <v>8.4900000000000004E-4</v>
       </c>
       <c r="I338">
-        <f>G338/D338</f>
+        <f t="shared" si="5"/>
         <v>8.4900000000000004E-4</v>
       </c>
     </row>
@@ -16598,7 +16602,7 @@
         <v>1.072E-3</v>
       </c>
       <c r="I339">
-        <f>G339/D339</f>
+        <f t="shared" si="5"/>
         <v>3.5733333333333336E-4</v>
       </c>
     </row>
@@ -16625,7 +16629,7 @@
         <v>8.9099999999999997E-4</v>
       </c>
       <c r="I340">
-        <f>G340/D340</f>
+        <f t="shared" si="5"/>
         <v>8.9099999999999997E-4</v>
       </c>
     </row>
@@ -16652,7 +16656,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
       <c r="I341">
-        <f>G341/D341</f>
+        <f t="shared" si="5"/>
         <v>8.7900000000000001E-4</v>
       </c>
     </row>
@@ -16679,7 +16683,7 @@
         <v>9.2100000000000005E-4</v>
       </c>
       <c r="I342">
-        <f>G342/D342</f>
+        <f t="shared" si="5"/>
         <v>9.2100000000000005E-4</v>
       </c>
     </row>
@@ -16706,7 +16710,7 @@
         <v>9.1699999999999995E-4</v>
       </c>
       <c r="I343">
-        <f>G343/D343</f>
+        <f t="shared" si="5"/>
         <v>9.1699999999999995E-4</v>
       </c>
     </row>
@@ -16733,7 +16737,7 @@
         <v>9.3800000000000003E-4</v>
       </c>
       <c r="I344">
-        <f>G344/D344</f>
+        <f t="shared" si="5"/>
         <v>9.3800000000000003E-4</v>
       </c>
     </row>
@@ -16760,7 +16764,7 @@
         <v>9.5299999999999996E-4</v>
       </c>
       <c r="I345">
-        <f>G345/D345</f>
+        <f t="shared" si="5"/>
         <v>9.5299999999999996E-4</v>
       </c>
     </row>
@@ -16787,7 +16791,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="I346">
-        <f>G346/D346</f>
+        <f t="shared" si="5"/>
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
@@ -16814,7 +16818,7 @@
         <v>9.7199999999999999E-4</v>
       </c>
       <c r="I347">
-        <f>G347/D347</f>
+        <f t="shared" si="5"/>
         <v>9.7199999999999999E-4</v>
       </c>
     </row>
@@ -16841,7 +16845,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
       <c r="I348">
-        <f>G348/D348</f>
+        <f t="shared" si="5"/>
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
@@ -16868,7 +16872,7 @@
         <v>1.0089999999999999E-3</v>
       </c>
       <c r="I349">
-        <f>G349/D349</f>
+        <f t="shared" si="5"/>
         <v>1.0089999999999999E-3</v>
       </c>
     </row>
@@ -16895,7 +16899,7 @@
         <v>1.059E-3</v>
       </c>
       <c r="I350">
-        <f>G350/D350</f>
+        <f t="shared" si="5"/>
         <v>1.059E-3</v>
       </c>
     </row>
@@ -16922,7 +16926,7 @@
         <v>1.029E-3</v>
       </c>
       <c r="I351">
-        <f>G351/D351</f>
+        <f t="shared" si="5"/>
         <v>1.029E-3</v>
       </c>
     </row>
@@ -16949,7 +16953,7 @@
         <v>1.328E-3</v>
       </c>
       <c r="I352">
-        <f>G352/D352</f>
+        <f t="shared" si="5"/>
         <v>1.328E-3</v>
       </c>
     </row>
@@ -16976,7 +16980,7 @@
         <v>1.3129999999999999E-3</v>
       </c>
       <c r="I353">
-        <f>G353/D353</f>
+        <f t="shared" si="5"/>
         <v>1.3129999999999999E-3</v>
       </c>
     </row>
@@ -17003,7 +17007,7 @@
         <v>1.297E-3</v>
       </c>
       <c r="I354">
-        <f>G354/D354</f>
+        <f t="shared" si="5"/>
         <v>1.297E-3</v>
       </c>
     </row>
@@ -17030,7 +17034,7 @@
         <v>1.2880000000000001E-3</v>
       </c>
       <c r="I355">
-        <f>G355/D355</f>
+        <f t="shared" si="5"/>
         <v>1.2880000000000001E-3</v>
       </c>
     </row>
@@ -17057,7 +17061,7 @@
         <v>1.3320000000000001E-3</v>
       </c>
       <c r="I356">
-        <f>G356/D356</f>
+        <f t="shared" si="5"/>
         <v>1.3320000000000001E-3</v>
       </c>
     </row>
@@ -17084,7 +17088,7 @@
         <v>1.3649999999999999E-3</v>
       </c>
       <c r="I357">
-        <f>G357/D357</f>
+        <f t="shared" si="5"/>
         <v>1.3649999999999999E-3</v>
       </c>
     </row>
@@ -17111,7 +17115,7 @@
         <v>1.3799999999999999E-3</v>
       </c>
       <c r="I358">
-        <f>G358/D358</f>
+        <f t="shared" si="5"/>
         <v>1.3799999999999999E-3</v>
       </c>
     </row>
@@ -17138,7 +17142,7 @@
         <v>1.3389999999999999E-3</v>
       </c>
       <c r="I359">
-        <f>G359/D359</f>
+        <f t="shared" si="5"/>
         <v>1.3389999999999999E-3</v>
       </c>
     </row>
@@ -17165,7 +17169,7 @@
         <v>1.366E-3</v>
       </c>
       <c r="I360">
-        <f>G360/D360</f>
+        <f t="shared" si="5"/>
         <v>1.366E-3</v>
       </c>
     </row>
@@ -17192,7 +17196,7 @@
         <v>1.24E-3</v>
       </c>
       <c r="I361">
-        <f>G361/D361</f>
+        <f t="shared" si="5"/>
         <v>2.0666666666666666E-4</v>
       </c>
     </row>
@@ -17219,7 +17223,7 @@
         <v>1.6490000000000001E-3</v>
       </c>
       <c r="I362">
-        <f>G362/D362</f>
+        <f t="shared" si="5"/>
         <v>1.8322222222222223E-4</v>
       </c>
     </row>
@@ -17246,7 +17250,7 @@
         <v>3.5690000000000001E-3</v>
       </c>
       <c r="I363">
-        <f>G363/D363</f>
+        <f t="shared" si="5"/>
         <v>1.3218518518518519E-4</v>
       </c>
     </row>
@@ -17273,7 +17277,7 @@
         <v>1.866E-3</v>
       </c>
       <c r="I364">
-        <f>G364/D364</f>
+        <f t="shared" si="5"/>
         <v>1.5550000000000001E-4</v>
       </c>
     </row>
@@ -17300,7 +17304,7 @@
         <v>1.263E-3</v>
       </c>
       <c r="I365">
-        <f>G365/D365</f>
+        <f t="shared" si="5"/>
         <v>1.8042857142857143E-4</v>
       </c>
     </row>
@@ -17327,7 +17331,7 @@
         <v>9.7599999999999998E-4</v>
       </c>
       <c r="I366">
-        <f>G366/D366</f>
+        <f t="shared" si="5"/>
         <v>1.952E-4</v>
       </c>
     </row>
@@ -17354,7 +17358,7 @@
         <v>9.0200000000000002E-4</v>
       </c>
       <c r="I367">
-        <f>G367/D367</f>
+        <f t="shared" si="5"/>
         <v>2.2550000000000001E-4</v>
       </c>
     </row>
@@ -17381,7 +17385,7 @@
         <v>8.9700000000000001E-4</v>
       </c>
       <c r="I368">
-        <f>G368/D368</f>
+        <f t="shared" si="5"/>
         <v>2.2425E-4</v>
       </c>
     </row>
@@ -17408,7 +17412,7 @@
         <v>9.1E-4</v>
       </c>
       <c r="I369">
-        <f>G369/D369</f>
+        <f t="shared" si="5"/>
         <v>2.275E-4</v>
       </c>
     </row>
@@ -17435,7 +17439,7 @@
         <v>7.9699999999999997E-4</v>
       </c>
       <c r="I370">
-        <f>G370/D370</f>
+        <f t="shared" si="5"/>
         <v>2.6566666666666666E-4</v>
       </c>
     </row>
@@ -17462,7 +17466,7 @@
         <v>9.2500000000000004E-4</v>
       </c>
       <c r="I371">
-        <f>G371/D371</f>
+        <f t="shared" si="5"/>
         <v>2.3125000000000001E-4</v>
       </c>
     </row>
@@ -17489,7 +17493,7 @@
         <v>8.0599999999999997E-4</v>
       </c>
       <c r="I372">
-        <f>G372/D372</f>
+        <f t="shared" si="5"/>
         <v>2.6866666666666667E-4</v>
       </c>
     </row>
@@ -17516,7 +17520,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="I373">
-        <f>G373/D373</f>
+        <f t="shared" si="5"/>
         <v>2.9E-4</v>
       </c>
     </row>
@@ -17543,7 +17547,7 @@
         <v>8.6200000000000003E-4</v>
       </c>
       <c r="I374">
-        <f>G374/D374</f>
+        <f t="shared" si="5"/>
         <v>2.8733333333333334E-4</v>
       </c>
     </row>
@@ -17570,7 +17574,7 @@
         <v>6.4300000000000002E-4</v>
       </c>
       <c r="I375">
-        <f>G375/D375</f>
+        <f t="shared" si="5"/>
         <v>2.1433333333333333E-4</v>
       </c>
     </row>
@@ -17597,7 +17601,7 @@
         <v>6.5899999999999997E-4</v>
       </c>
       <c r="I376">
-        <f>G376/D376</f>
+        <f t="shared" si="5"/>
         <v>2.1966666666666665E-4</v>
       </c>
     </row>
@@ -17624,7 +17628,7 @@
         <v>7.1900000000000002E-4</v>
       </c>
       <c r="I377">
-        <f>G377/D377</f>
+        <f t="shared" si="5"/>
         <v>2.3966666666666667E-4</v>
       </c>
     </row>
@@ -17651,7 +17655,7 @@
         <v>9.2599999999999996E-4</v>
       </c>
       <c r="I378">
-        <f>G378/D378</f>
+        <f t="shared" si="5"/>
         <v>3.0866666666666667E-4</v>
       </c>
     </row>
@@ -17678,7 +17682,7 @@
         <v>7.8299999999999995E-4</v>
       </c>
       <c r="I379">
-        <f>G379/D379</f>
+        <f t="shared" si="5"/>
         <v>2.61E-4</v>
       </c>
     </row>
@@ -17705,7 +17709,7 @@
         <v>9.8499999999999998E-4</v>
       </c>
       <c r="I380">
-        <f>G380/D380</f>
+        <f t="shared" si="5"/>
         <v>3.2833333333333331E-4</v>
       </c>
     </row>
@@ -17732,7 +17736,7 @@
         <v>6.11E-4</v>
       </c>
       <c r="I381">
-        <f>G381/D381</f>
+        <f t="shared" si="5"/>
         <v>6.11E-4</v>
       </c>
     </row>
@@ -17759,7 +17763,7 @@
         <v>7.6800000000000002E-4</v>
       </c>
       <c r="I382">
-        <f>G382/D382</f>
+        <f t="shared" si="5"/>
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
@@ -17786,7 +17790,7 @@
         <v>6.38E-4</v>
       </c>
       <c r="I383">
-        <f>G383/D383</f>
+        <f t="shared" si="5"/>
         <v>6.38E-4</v>
       </c>
     </row>
@@ -17813,7 +17817,7 @@
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="I384">
-        <f>G384/D384</f>
+        <f t="shared" si="5"/>
         <v>6.4400000000000004E-4</v>
       </c>
     </row>
@@ -17840,7 +17844,7 @@
         <v>6.5399999999999996E-4</v>
       </c>
       <c r="I385">
-        <f>G385/D385</f>
+        <f t="shared" ref="I385:I448" si="6">G385/D385</f>
         <v>6.5399999999999996E-4</v>
       </c>
     </row>
@@ -17867,7 +17871,7 @@
         <v>6.4700000000000001E-4</v>
       </c>
       <c r="I386">
-        <f>G386/D386</f>
+        <f t="shared" si="6"/>
         <v>6.4700000000000001E-4</v>
       </c>
     </row>
@@ -17894,7 +17898,7 @@
         <v>6.5899999999999997E-4</v>
       </c>
       <c r="I387">
-        <f>G387/D387</f>
+        <f t="shared" si="6"/>
         <v>6.5899999999999997E-4</v>
       </c>
     </row>
@@ -17921,7 +17925,7 @@
         <v>6.69E-4</v>
       </c>
       <c r="I388">
-        <f>G388/D388</f>
+        <f t="shared" si="6"/>
         <v>6.69E-4</v>
       </c>
     </row>
@@ -17948,7 +17952,7 @@
         <v>6.96E-4</v>
       </c>
       <c r="I389">
-        <f>G389/D389</f>
+        <f t="shared" si="6"/>
         <v>6.96E-4</v>
       </c>
     </row>
@@ -17975,7 +17979,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
       <c r="I390">
-        <f>G390/D390</f>
+        <f t="shared" si="6"/>
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
@@ -18002,7 +18006,7 @@
         <v>7.0100000000000002E-4</v>
       </c>
       <c r="I391">
-        <f>G391/D391</f>
+        <f t="shared" si="6"/>
         <v>7.0100000000000002E-4</v>
       </c>
     </row>
@@ -18029,7 +18033,7 @@
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="I392">
-        <f>G392/D392</f>
+        <f t="shared" si="6"/>
         <v>7.1000000000000002E-4</v>
       </c>
     </row>
@@ -18056,7 +18060,7 @@
         <v>7.2199999999999999E-4</v>
       </c>
       <c r="I393">
-        <f>G393/D393</f>
+        <f t="shared" si="6"/>
         <v>7.2199999999999999E-4</v>
       </c>
     </row>
@@ -18083,7 +18087,7 @@
         <v>7.3700000000000002E-4</v>
       </c>
       <c r="I394">
-        <f>G394/D394</f>
+        <f t="shared" si="6"/>
         <v>7.3700000000000002E-4</v>
       </c>
     </row>
@@ -18110,7 +18114,7 @@
         <v>7.5600000000000005E-4</v>
       </c>
       <c r="I395">
-        <f>G395/D395</f>
+        <f t="shared" si="6"/>
         <v>7.5600000000000005E-4</v>
       </c>
     </row>
@@ -18137,7 +18141,7 @@
         <v>7.67E-4</v>
       </c>
       <c r="I396">
-        <f>G396/D396</f>
+        <f t="shared" si="6"/>
         <v>7.67E-4</v>
       </c>
     </row>
@@ -18164,7 +18168,7 @@
         <v>9.3499999999999996E-4</v>
       </c>
       <c r="I397">
-        <f>G397/D397</f>
+        <f t="shared" si="6"/>
         <v>9.3499999999999996E-4</v>
       </c>
     </row>
@@ -18191,7 +18195,7 @@
         <v>9.7599999999999998E-4</v>
       </c>
       <c r="I398">
-        <f>G398/D398</f>
+        <f t="shared" si="6"/>
         <v>9.7599999999999998E-4</v>
       </c>
     </row>
@@ -18218,7 +18222,7 @@
         <v>8.8699999999999998E-4</v>
       </c>
       <c r="I399">
-        <f>G399/D399</f>
+        <f t="shared" si="6"/>
         <v>8.8699999999999998E-4</v>
       </c>
     </row>
@@ -18245,7 +18249,7 @@
         <v>8.6200000000000003E-4</v>
       </c>
       <c r="I400">
-        <f>G400/D400</f>
+        <f t="shared" si="6"/>
         <v>8.6200000000000003E-4</v>
       </c>
     </row>
@@ -18272,7 +18276,7 @@
         <v>8.9300000000000002E-4</v>
       </c>
       <c r="I401">
-        <f>G401/D401</f>
+        <f t="shared" si="6"/>
         <v>8.9300000000000002E-4</v>
       </c>
     </row>
@@ -18299,7 +18303,7 @@
         <v>9.1200000000000005E-4</v>
       </c>
       <c r="I402">
-        <f>G402/D402</f>
+        <f t="shared" si="6"/>
         <v>9.1200000000000005E-4</v>
       </c>
     </row>
@@ -18326,7 +18330,7 @@
         <v>8.7799999999999998E-4</v>
       </c>
       <c r="I403">
-        <f>G403/D403</f>
+        <f t="shared" si="6"/>
         <v>8.7799999999999998E-4</v>
       </c>
     </row>
@@ -18353,7 +18357,7 @@
         <v>9.3300000000000002E-4</v>
       </c>
       <c r="I404">
-        <f>G404/D404</f>
+        <f t="shared" si="6"/>
         <v>9.3300000000000002E-4</v>
       </c>
     </row>
@@ -18380,7 +18384,7 @@
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="I405">
-        <f>G405/D405</f>
+        <f t="shared" si="6"/>
         <v>9.3000000000000005E-4</v>
       </c>
     </row>
@@ -18407,7 +18411,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
       <c r="I406">
-        <f>G406/D406</f>
+        <f t="shared" si="6"/>
         <v>1.5200000000000001E-4</v>
       </c>
     </row>
@@ -18434,7 +18438,7 @@
         <v>1.833E-3</v>
       </c>
       <c r="I407">
-        <f>G407/D407</f>
+        <f t="shared" si="6"/>
         <v>1.6663636363636362E-4</v>
       </c>
     </row>
@@ -18461,7 +18465,7 @@
         <v>1.818E-3</v>
       </c>
       <c r="I408">
-        <f>G408/D408</f>
+        <f t="shared" si="6"/>
         <v>1.818E-4</v>
       </c>
     </row>
@@ -18488,7 +18492,7 @@
         <v>1.3649999999999999E-3</v>
       </c>
       <c r="I409">
-        <f>G409/D409</f>
+        <f t="shared" si="6"/>
         <v>1.1374999999999999E-4</v>
       </c>
     </row>
@@ -18515,7 +18519,7 @@
         <v>1.258E-3</v>
       </c>
       <c r="I410">
-        <f>G410/D410</f>
+        <f t="shared" si="6"/>
         <v>2.0966666666666668E-4</v>
       </c>
     </row>
@@ -18542,7 +18546,7 @@
         <v>1.108E-3</v>
       </c>
       <c r="I411">
-        <f>G411/D411</f>
+        <f t="shared" si="6"/>
         <v>2.2160000000000002E-4</v>
       </c>
     </row>
@@ -18569,7 +18573,7 @@
         <v>6.7100000000000005E-4</v>
       </c>
       <c r="I412">
-        <f>G412/D412</f>
+        <f t="shared" si="6"/>
         <v>1.6775000000000001E-4</v>
       </c>
     </row>
@@ -18596,7 +18600,7 @@
         <v>6.6799999999999997E-4</v>
       </c>
       <c r="I413">
-        <f>G413/D413</f>
+        <f t="shared" si="6"/>
         <v>1.6699999999999999E-4</v>
       </c>
     </row>
@@ -18623,7 +18627,7 @@
         <v>6.6299999999999996E-4</v>
       </c>
       <c r="I414">
-        <f>G414/D414</f>
+        <f t="shared" si="6"/>
         <v>1.6574999999999999E-4</v>
       </c>
     </row>
@@ -18650,7 +18654,7 @@
         <v>6.9499999999999998E-4</v>
       </c>
       <c r="I415">
-        <f>G415/D415</f>
+        <f t="shared" si="6"/>
         <v>1.7374999999999999E-4</v>
       </c>
     </row>
@@ -18677,7 +18681,7 @@
         <v>5.8E-4</v>
       </c>
       <c r="I416">
-        <f>G416/D416</f>
+        <f t="shared" si="6"/>
         <v>1.9333333333333333E-4</v>
       </c>
     </row>
@@ -18704,7 +18708,7 @@
         <v>6.0400000000000004E-4</v>
       </c>
       <c r="I417">
-        <f>G417/D417</f>
+        <f t="shared" si="6"/>
         <v>2.0133333333333334E-4</v>
       </c>
     </row>
@@ -18731,7 +18735,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
       <c r="I418">
-        <f>G418/D418</f>
+        <f t="shared" si="6"/>
         <v>2.0166666666666664E-4</v>
       </c>
     </row>
@@ -18758,7 +18762,7 @@
         <v>6.1700000000000004E-4</v>
       </c>
       <c r="I419">
-        <f>G419/D419</f>
+        <f t="shared" si="6"/>
         <v>2.0566666666666669E-4</v>
       </c>
     </row>
@@ -18785,7 +18789,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
       <c r="I420">
-        <f>G420/D420</f>
+        <f t="shared" si="6"/>
         <v>2.0799999999999999E-4</v>
       </c>
     </row>
@@ -18812,7 +18816,7 @@
         <v>6.3100000000000005E-4</v>
       </c>
       <c r="I421">
-        <f>G421/D421</f>
+        <f t="shared" si="6"/>
         <v>2.1033333333333334E-4</v>
       </c>
     </row>
@@ -18839,7 +18843,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="I422">
-        <f>G422/D422</f>
+        <f t="shared" si="6"/>
         <v>2.3899999999999998E-4</v>
       </c>
     </row>
@@ -18866,7 +18870,7 @@
         <v>7.3200000000000001E-4</v>
       </c>
       <c r="I423">
-        <f>G423/D423</f>
+        <f t="shared" si="6"/>
         <v>2.4399999999999999E-4</v>
       </c>
     </row>
@@ -18893,7 +18897,7 @@
         <v>5.9199999999999997E-4</v>
       </c>
       <c r="I424">
-        <f>G424/D424</f>
+        <f t="shared" si="6"/>
         <v>5.9199999999999997E-4</v>
       </c>
     </row>
@@ -18920,7 +18924,7 @@
         <v>5.9800000000000001E-4</v>
       </c>
       <c r="I425">
-        <f>G425/D425</f>
+        <f t="shared" si="6"/>
         <v>5.9800000000000001E-4</v>
       </c>
     </row>
@@ -18947,7 +18951,7 @@
         <v>6.0300000000000002E-4</v>
       </c>
       <c r="I426">
-        <f>G426/D426</f>
+        <f t="shared" si="6"/>
         <v>6.0300000000000002E-4</v>
       </c>
     </row>
@@ -18974,7 +18978,7 @@
         <v>6.2200000000000005E-4</v>
       </c>
       <c r="I427">
-        <f>G427/D427</f>
+        <f t="shared" si="6"/>
         <v>6.2200000000000005E-4</v>
       </c>
     </row>
@@ -19001,7 +19005,7 @@
         <v>6.1399999999999996E-4</v>
       </c>
       <c r="I428">
-        <f>G428/D428</f>
+        <f t="shared" si="6"/>
         <v>6.1399999999999996E-4</v>
       </c>
     </row>
@@ -19028,7 +19032,7 @@
         <v>9.0499999999999999E-4</v>
       </c>
       <c r="I429">
-        <f>G429/D429</f>
+        <f t="shared" si="6"/>
         <v>9.0499999999999999E-4</v>
       </c>
     </row>
@@ -19055,7 +19059,7 @@
         <v>6.4700000000000001E-4</v>
       </c>
       <c r="I430">
-        <f>G430/D430</f>
+        <f t="shared" si="6"/>
         <v>6.4700000000000001E-4</v>
       </c>
     </row>
@@ -19082,7 +19086,7 @@
         <v>1.238E-3</v>
       </c>
       <c r="I431">
-        <f>G431/D431</f>
+        <f t="shared" si="6"/>
         <v>4.1266666666666665E-4</v>
       </c>
     </row>
@@ -19109,7 +19113,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
       <c r="I432">
-        <f>G432/D432</f>
+        <f t="shared" si="6"/>
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
@@ -19136,7 +19140,7 @@
         <v>8.4099999999999995E-4</v>
       </c>
       <c r="I433">
-        <f>G433/D433</f>
+        <f t="shared" si="6"/>
         <v>8.4099999999999995E-4</v>
       </c>
     </row>
@@ -19163,7 +19167,7 @@
         <v>9.9400000000000009E-4</v>
       </c>
       <c r="I434">
-        <f>G434/D434</f>
+        <f t="shared" si="6"/>
         <v>9.9400000000000009E-4</v>
       </c>
     </row>
@@ -19190,7 +19194,7 @@
         <v>9.41E-4</v>
       </c>
       <c r="I435">
-        <f>G435/D435</f>
+        <f t="shared" si="6"/>
         <v>9.41E-4</v>
       </c>
     </row>
@@ -19217,7 +19221,7 @@
         <v>1E-3</v>
       </c>
       <c r="I436">
-        <f>G436/D436</f>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -19244,7 +19248,7 @@
         <v>9.8799999999999995E-4</v>
       </c>
       <c r="I437">
-        <f>G437/D437</f>
+        <f t="shared" si="6"/>
         <v>9.8799999999999995E-4</v>
       </c>
     </row>
@@ -19271,7 +19275,7 @@
         <v>1.0839999999999999E-3</v>
       </c>
       <c r="I438">
-        <f>G438/D438</f>
+        <f t="shared" si="6"/>
         <v>1.0839999999999999E-3</v>
       </c>
     </row>
@@ -19298,7 +19302,7 @@
         <v>1.0660000000000001E-3</v>
       </c>
       <c r="I439">
-        <f>G439/D439</f>
+        <f t="shared" si="6"/>
         <v>1.0660000000000001E-3</v>
       </c>
     </row>
@@ -19325,7 +19329,7 @@
         <v>1.103E-3</v>
       </c>
       <c r="I440">
-        <f>G440/D440</f>
+        <f t="shared" si="6"/>
         <v>1.103E-3</v>
       </c>
     </row>
@@ -19352,7 +19356,7 @@
         <v>1.042E-3</v>
       </c>
       <c r="I441">
-        <f>G441/D441</f>
+        <f t="shared" si="6"/>
         <v>1.042E-3</v>
       </c>
     </row>
@@ -19379,7 +19383,7 @@
         <v>1.2359999999999999E-3</v>
       </c>
       <c r="I442">
-        <f>G442/D442</f>
+        <f t="shared" si="6"/>
         <v>1.2359999999999999E-3</v>
       </c>
     </row>
@@ -19406,7 +19410,7 @@
         <v>1.441E-3</v>
       </c>
       <c r="I443">
-        <f>G443/D443</f>
+        <f t="shared" si="6"/>
         <v>1.441E-3</v>
       </c>
     </row>
@@ -19433,7 +19437,7 @@
         <v>1.245E-3</v>
       </c>
       <c r="I444">
-        <f>G444/D444</f>
+        <f t="shared" si="6"/>
         <v>1.245E-3</v>
       </c>
     </row>
@@ -19460,7 +19464,7 @@
         <v>1.335E-3</v>
       </c>
       <c r="I445">
-        <f>G445/D445</f>
+        <f t="shared" si="6"/>
         <v>1.335E-3</v>
       </c>
     </row>
@@ -19487,7 +19491,7 @@
         <v>1.3190000000000001E-3</v>
       </c>
       <c r="I446">
-        <f>G446/D446</f>
+        <f t="shared" si="6"/>
         <v>1.3190000000000001E-3</v>
       </c>
     </row>
@@ -19514,7 +19518,7 @@
         <v>1.315E-3</v>
       </c>
       <c r="I447">
-        <f>G447/D447</f>
+        <f t="shared" si="6"/>
         <v>1.315E-3</v>
       </c>
     </row>
@@ -19541,7 +19545,7 @@
         <v>1.4250000000000001E-3</v>
       </c>
       <c r="I448">
-        <f>G448/D448</f>
+        <f t="shared" si="6"/>
         <v>1.4250000000000001E-3</v>
       </c>
     </row>
@@ -19568,7 +19572,7 @@
         <v>1.3209999999999999E-3</v>
       </c>
       <c r="I449">
-        <f>G449/D449</f>
+        <f t="shared" ref="I449:I512" si="7">G449/D449</f>
         <v>1.3209999999999999E-3</v>
       </c>
     </row>
@@ -19595,7 +19599,7 @@
         <v>1.2880000000000001E-3</v>
       </c>
       <c r="I450">
-        <f>G450/D450</f>
+        <f t="shared" si="7"/>
         <v>1.2880000000000001E-3</v>
       </c>
     </row>
@@ -19622,7 +19626,7 @@
         <v>1.379E-3</v>
       </c>
       <c r="I451">
-        <f>G451/D451</f>
+        <f t="shared" si="7"/>
         <v>1.72375E-4</v>
       </c>
     </row>
@@ -19649,7 +19653,7 @@
         <v>1.763E-3</v>
       </c>
       <c r="I452">
-        <f>G452/D452</f>
+        <f t="shared" si="7"/>
         <v>1.6027272727272727E-4</v>
       </c>
     </row>
@@ -19676,7 +19680,7 @@
         <v>1.9369999999999999E-3</v>
       </c>
       <c r="I453">
-        <f>G453/D453</f>
+        <f t="shared" si="7"/>
         <v>1.6141666666666667E-4</v>
       </c>
     </row>
@@ -19703,7 +19707,7 @@
         <v>1.157E-3</v>
       </c>
       <c r="I454">
-        <f>G454/D454</f>
+        <f t="shared" si="7"/>
         <v>1.9283333333333335E-4</v>
       </c>
     </row>
@@ -19730,7 +19734,7 @@
         <v>9.4700000000000003E-4</v>
       </c>
       <c r="I455">
-        <f>G455/D455</f>
+        <f t="shared" si="7"/>
         <v>1.894E-4</v>
       </c>
     </row>
@@ -19757,7 +19761,7 @@
         <v>9.5799999999999998E-4</v>
       </c>
       <c r="I456">
-        <f>G456/D456</f>
+        <f t="shared" si="7"/>
         <v>1.916E-4</v>
       </c>
     </row>
@@ -19784,7 +19788,7 @@
         <v>8.5300000000000003E-4</v>
       </c>
       <c r="I457">
-        <f>G457/D457</f>
+        <f t="shared" si="7"/>
         <v>2.1325000000000001E-4</v>
       </c>
     </row>
@@ -19811,7 +19815,7 @@
         <v>1.026E-3</v>
       </c>
       <c r="I458">
-        <f>G458/D458</f>
+        <f t="shared" si="7"/>
         <v>2.052E-4</v>
       </c>
     </row>
@@ -19838,7 +19842,7 @@
         <v>9.6299999999999999E-4</v>
       </c>
       <c r="I459">
-        <f>G459/D459</f>
+        <f t="shared" si="7"/>
         <v>1.9259999999999999E-4</v>
       </c>
     </row>
@@ -19865,7 +19869,7 @@
         <v>8.1300000000000003E-4</v>
       </c>
       <c r="I460">
-        <f>G460/D460</f>
+        <f t="shared" si="7"/>
         <v>2.0325000000000001E-4</v>
       </c>
     </row>
@@ -19892,7 +19896,7 @@
         <v>9.0700000000000004E-4</v>
       </c>
       <c r="I461">
-        <f>G461/D461</f>
+        <f t="shared" si="7"/>
         <v>2.2675000000000001E-4</v>
       </c>
     </row>
@@ -19919,7 +19923,7 @@
         <v>7.6800000000000002E-4</v>
       </c>
       <c r="I462">
-        <f>G462/D462</f>
+        <f t="shared" si="7"/>
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
@@ -19946,7 +19950,7 @@
         <v>8.5700000000000001E-4</v>
       </c>
       <c r="I463">
-        <f>G463/D463</f>
+        <f t="shared" si="7"/>
         <v>2.1425E-4</v>
       </c>
     </row>
@@ -19973,7 +19977,7 @@
         <v>8.0099999999999995E-4</v>
       </c>
       <c r="I464">
-        <f>G464/D464</f>
+        <f t="shared" si="7"/>
         <v>2.6699999999999998E-4</v>
       </c>
     </row>
@@ -20000,7 +20004,7 @@
         <v>8.25E-4</v>
       </c>
       <c r="I465">
-        <f>G465/D465</f>
+        <f t="shared" si="7"/>
         <v>2.7500000000000002E-4</v>
       </c>
     </row>
@@ -20027,7 +20031,7 @@
         <v>8.8999999999999995E-4</v>
       </c>
       <c r="I466">
-        <f>G466/D466</f>
+        <f t="shared" si="7"/>
         <v>2.9666666666666665E-4</v>
       </c>
     </row>
@@ -20054,7 +20058,7 @@
         <v>1.008E-3</v>
       </c>
       <c r="I467">
-        <f>G467/D467</f>
+        <f t="shared" si="7"/>
         <v>3.3599999999999998E-4</v>
       </c>
     </row>
@@ -20081,7 +20085,7 @@
         <v>8.5599999999999999E-4</v>
       </c>
       <c r="I468">
-        <f>G468/D468</f>
+        <f t="shared" si="7"/>
         <v>8.5599999999999999E-4</v>
       </c>
     </row>
@@ -20108,7 +20112,7 @@
         <v>7.9500000000000003E-4</v>
       </c>
       <c r="I469">
-        <f>G469/D469</f>
+        <f t="shared" si="7"/>
         <v>7.9500000000000003E-4</v>
       </c>
     </row>
@@ -20135,7 +20139,7 @@
         <v>7.5500000000000003E-4</v>
       </c>
       <c r="I470">
-        <f>G470/D470</f>
+        <f t="shared" si="7"/>
         <v>2.5166666666666669E-4</v>
       </c>
     </row>
@@ -20162,7 +20166,7 @@
         <v>7.6099999999999996E-4</v>
       </c>
       <c r="I471">
-        <f>G471/D471</f>
+        <f t="shared" si="7"/>
         <v>2.5366666666666663E-4</v>
       </c>
     </row>
@@ -20189,7 +20193,7 @@
         <v>6.2100000000000002E-4</v>
       </c>
       <c r="I472">
-        <f>G472/D472</f>
+        <f t="shared" si="7"/>
         <v>6.2100000000000002E-4</v>
       </c>
     </row>
@@ -20216,7 +20220,7 @@
         <v>6.2600000000000004E-4</v>
       </c>
       <c r="I473">
-        <f>G473/D473</f>
+        <f t="shared" si="7"/>
         <v>6.2600000000000004E-4</v>
       </c>
     </row>
@@ -20243,7 +20247,7 @@
         <v>6.3400000000000001E-4</v>
       </c>
       <c r="I474">
-        <f>G474/D474</f>
+        <f t="shared" si="7"/>
         <v>6.3400000000000001E-4</v>
       </c>
     </row>
@@ -20270,7 +20274,7 @@
         <v>6.4700000000000001E-4</v>
       </c>
       <c r="I475">
-        <f>G475/D475</f>
+        <f t="shared" si="7"/>
         <v>6.4700000000000001E-4</v>
       </c>
     </row>
@@ -20297,7 +20301,7 @@
         <v>6.7100000000000005E-4</v>
       </c>
       <c r="I476">
-        <f>G476/D476</f>
+        <f t="shared" si="7"/>
         <v>6.7100000000000005E-4</v>
       </c>
     </row>
@@ -20324,7 +20328,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
       <c r="I477">
-        <f>G477/D477</f>
+        <f t="shared" si="7"/>
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
@@ -20351,7 +20355,7 @@
         <v>6.8300000000000001E-4</v>
       </c>
       <c r="I478">
-        <f>G478/D478</f>
+        <f t="shared" si="7"/>
         <v>6.8300000000000001E-4</v>
       </c>
     </row>
@@ -20378,7 +20382,7 @@
         <v>9.9200000000000004E-4</v>
       </c>
       <c r="I479">
-        <f>G479/D479</f>
+        <f t="shared" si="7"/>
         <v>9.9200000000000004E-4</v>
       </c>
     </row>
@@ -20405,7 +20409,7 @@
         <v>7.6400000000000003E-4</v>
       </c>
       <c r="I480">
-        <f>G480/D480</f>
+        <f t="shared" si="7"/>
         <v>7.6400000000000003E-4</v>
       </c>
     </row>
@@ -20432,7 +20436,7 @@
         <v>7.1900000000000002E-4</v>
       </c>
       <c r="I481">
-        <f>G481/D481</f>
+        <f t="shared" si="7"/>
         <v>7.1900000000000002E-4</v>
       </c>
     </row>
@@ -20459,7 +20463,7 @@
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="I482">
-        <f>G482/D482</f>
+        <f t="shared" si="7"/>
         <v>7.2000000000000005E-4</v>
       </c>
     </row>
@@ -20486,7 +20490,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="I483">
-        <f>G483/D483</f>
+        <f t="shared" si="7"/>
         <v>7.2800000000000002E-4</v>
       </c>
     </row>
@@ -20513,7 +20517,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
       <c r="I484">
-        <f>G484/D484</f>
+        <f t="shared" si="7"/>
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
@@ -20540,7 +20544,7 @@
         <v>7.4899999999999999E-4</v>
       </c>
       <c r="I485">
-        <f>G485/D485</f>
+        <f t="shared" si="7"/>
         <v>7.4899999999999999E-4</v>
       </c>
     </row>
@@ -20567,7 +20571,7 @@
         <v>8.0099999999999995E-4</v>
       </c>
       <c r="I486">
-        <f>G486/D486</f>
+        <f t="shared" si="7"/>
         <v>8.0099999999999995E-4</v>
       </c>
     </row>
@@ -20594,7 +20598,7 @@
         <v>9.4200000000000002E-4</v>
       </c>
       <c r="I487">
-        <f>G487/D487</f>
+        <f t="shared" si="7"/>
         <v>9.4200000000000002E-4</v>
       </c>
     </row>
@@ -20621,7 +20625,7 @@
         <v>1.333E-3</v>
       </c>
       <c r="I488">
-        <f>G488/D488</f>
+        <f t="shared" si="7"/>
         <v>1.333E-3</v>
       </c>
     </row>
@@ -20648,7 +20652,7 @@
         <v>1.348E-3</v>
       </c>
       <c r="I489">
-        <f>G489/D489</f>
+        <f t="shared" si="7"/>
         <v>1.348E-3</v>
       </c>
     </row>
@@ -20675,7 +20679,7 @@
         <v>1.242E-3</v>
       </c>
       <c r="I490">
-        <f>G490/D490</f>
+        <f t="shared" si="7"/>
         <v>1.242E-3</v>
       </c>
     </row>
@@ -20702,7 +20706,7 @@
         <v>1.266E-3</v>
       </c>
       <c r="I491">
-        <f>G491/D491</f>
+        <f t="shared" si="7"/>
         <v>1.266E-3</v>
       </c>
     </row>
@@ -20729,7 +20733,7 @@
         <v>1.31E-3</v>
       </c>
       <c r="I492">
-        <f>G492/D492</f>
+        <f t="shared" si="7"/>
         <v>1.31E-3</v>
       </c>
     </row>
@@ -20756,7 +20760,7 @@
         <v>1.2719999999999999E-3</v>
       </c>
       <c r="I493">
-        <f>G493/D493</f>
+        <f t="shared" si="7"/>
         <v>1.2719999999999999E-3</v>
       </c>
     </row>
@@ -20783,7 +20787,7 @@
         <v>1.2700000000000001E-3</v>
       </c>
       <c r="I494">
-        <f>G494/D494</f>
+        <f t="shared" si="7"/>
         <v>1.2700000000000001E-3</v>
       </c>
     </row>
@@ -20810,7 +20814,7 @@
         <v>1.3010000000000001E-3</v>
       </c>
       <c r="I495">
-        <f>G495/D495</f>
+        <f t="shared" si="7"/>
         <v>1.3010000000000001E-3</v>
       </c>
     </row>
@@ -20837,7 +20841,7 @@
         <v>1.186E-3</v>
       </c>
       <c r="I496">
-        <f>G496/D496</f>
+        <f t="shared" si="7"/>
         <v>1.9766666666666666E-4</v>
       </c>
     </row>
@@ -20864,7 +20868,7 @@
         <v>1.6570000000000001E-3</v>
       </c>
       <c r="I497">
-        <f>G497/D497</f>
+        <f t="shared" si="7"/>
         <v>1.6570000000000002E-4</v>
       </c>
     </row>
@@ -20891,7 +20895,7 @@
         <v>2.5569999999999998E-3</v>
       </c>
       <c r="I498">
-        <f>G498/D498</f>
+        <f t="shared" si="7"/>
         <v>1.4205555555555553E-4</v>
       </c>
     </row>
@@ -20918,7 +20922,7 @@
         <v>1.3389999999999999E-3</v>
       </c>
       <c r="I499">
-        <f>G499/D499</f>
+        <f t="shared" si="7"/>
         <v>1.9128571428571428E-4</v>
       </c>
     </row>
@@ -20945,7 +20949,7 @@
         <v>1.2470000000000001E-3</v>
       </c>
       <c r="I500">
-        <f>G500/D500</f>
+        <f t="shared" si="7"/>
         <v>1.7814285714285716E-4</v>
       </c>
     </row>
@@ -20972,7 +20976,7 @@
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="I501">
-        <f>G501/D501</f>
+        <f t="shared" si="7"/>
         <v>1.92E-4</v>
       </c>
     </row>
@@ -20999,7 +21003,7 @@
         <v>1.09E-3</v>
       </c>
       <c r="I502">
-        <f>G502/D502</f>
+        <f t="shared" si="7"/>
         <v>2.1800000000000001E-4</v>
       </c>
     </row>
@@ -21026,7 +21030,7 @@
         <v>7.7700000000000002E-4</v>
       </c>
       <c r="I503">
-        <f>G503/D503</f>
+        <f t="shared" si="7"/>
         <v>1.5540000000000001E-4</v>
       </c>
     </row>
@@ -21053,7 +21057,7 @@
         <v>6.5399999999999996E-4</v>
       </c>
       <c r="I504">
-        <f>G504/D504</f>
+        <f t="shared" si="7"/>
         <v>1.6349999999999999E-4</v>
       </c>
     </row>
@@ -21080,7 +21084,7 @@
         <v>6.0400000000000004E-4</v>
       </c>
       <c r="I505">
-        <f>G505/D505</f>
+        <f t="shared" si="7"/>
         <v>2.0133333333333334E-4</v>
       </c>
     </row>
@@ -21107,7 +21111,7 @@
         <v>6.0099999999999997E-4</v>
       </c>
       <c r="I506">
-        <f>G506/D506</f>
+        <f t="shared" si="7"/>
         <v>2.0033333333333331E-4</v>
       </c>
     </row>
@@ -21134,7 +21138,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
       <c r="I507">
-        <f>G507/D507</f>
+        <f t="shared" si="7"/>
         <v>2.0166666666666664E-4</v>
       </c>
     </row>
@@ -21161,7 +21165,7 @@
         <v>6.1600000000000001E-4</v>
       </c>
       <c r="I508">
-        <f>G508/D508</f>
+        <f t="shared" si="7"/>
         <v>2.0533333333333333E-4</v>
       </c>
     </row>
@@ -21188,7 +21192,7 @@
         <v>6.2100000000000002E-4</v>
       </c>
       <c r="I509">
-        <f>G509/D509</f>
+        <f t="shared" si="7"/>
         <v>2.0700000000000002E-4</v>
       </c>
     </row>
@@ -21215,7 +21219,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
       <c r="I510">
-        <f>G510/D510</f>
+        <f t="shared" si="7"/>
         <v>2.0799999999999999E-4</v>
       </c>
     </row>
@@ -21242,7 +21246,7 @@
         <v>6.3100000000000005E-4</v>
       </c>
       <c r="I511">
-        <f>G511/D511</f>
+        <f t="shared" si="7"/>
         <v>2.1033333333333334E-4</v>
       </c>
     </row>
@@ -21269,7 +21273,7 @@
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="I512">
-        <f>G512/D512</f>
+        <f t="shared" si="7"/>
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
@@ -21296,7 +21300,7 @@
         <v>7.4200000000000004E-4</v>
       </c>
       <c r="I513">
-        <f>G513/D513</f>
+        <f t="shared" ref="I513:I576" si="8">G513/D513</f>
         <v>2.4733333333333335E-4</v>
       </c>
     </row>
@@ -21323,7 +21327,7 @@
         <v>7.4100000000000001E-4</v>
       </c>
       <c r="I514">
-        <f>G514/D514</f>
+        <f t="shared" si="8"/>
         <v>2.4699999999999999E-4</v>
       </c>
     </row>
@@ -21350,7 +21354,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I515">
-        <f>G515/D515</f>
+        <f t="shared" si="8"/>
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
@@ -21377,7 +21381,7 @@
         <v>8.3199999999999995E-4</v>
       </c>
       <c r="I516">
-        <f>G516/D516</f>
+        <f t="shared" si="8"/>
         <v>8.3199999999999995E-4</v>
       </c>
     </row>
@@ -21404,7 +21408,7 @@
         <v>8.7600000000000004E-4</v>
       </c>
       <c r="I517">
-        <f>G517/D517</f>
+        <f t="shared" si="8"/>
         <v>8.7600000000000004E-4</v>
       </c>
     </row>
@@ -21431,7 +21435,7 @@
         <v>1.121E-3</v>
       </c>
       <c r="I518">
-        <f>G518/D518</f>
+        <f t="shared" si="8"/>
         <v>3.7366666666666668E-4</v>
       </c>
     </row>
@@ -21458,7 +21462,7 @@
         <v>9.5299999999999996E-4</v>
       </c>
       <c r="I519">
-        <f>G519/D519</f>
+        <f t="shared" si="8"/>
         <v>3.1766666666666667E-4</v>
       </c>
     </row>
@@ -21485,7 +21489,7 @@
         <v>6.5200000000000002E-4</v>
       </c>
       <c r="I520">
-        <f>G520/D520</f>
+        <f t="shared" si="8"/>
         <v>6.5200000000000002E-4</v>
       </c>
     </row>
@@ -21512,7 +21516,7 @@
         <v>8.1800000000000004E-4</v>
       </c>
       <c r="I521">
-        <f>G521/D521</f>
+        <f t="shared" si="8"/>
         <v>2.7266666666666666E-4</v>
       </c>
     </row>
@@ -21539,7 +21543,7 @@
         <v>6.7199999999999996E-4</v>
       </c>
       <c r="I522">
-        <f>G522/D522</f>
+        <f t="shared" si="8"/>
         <v>6.7199999999999996E-4</v>
       </c>
     </row>
@@ -21566,7 +21570,7 @@
         <v>6.9099999999999999E-4</v>
       </c>
       <c r="I523">
-        <f>G523/D523</f>
+        <f t="shared" si="8"/>
         <v>6.9099999999999999E-4</v>
       </c>
     </row>
@@ -21593,7 +21597,7 @@
         <v>6.9300000000000004E-4</v>
       </c>
       <c r="I524">
-        <f>G524/D524</f>
+        <f t="shared" si="8"/>
         <v>6.9300000000000004E-4</v>
       </c>
     </row>
@@ -21620,7 +21624,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="I525">
-        <f>G525/D525</f>
+        <f t="shared" si="8"/>
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
@@ -21647,7 +21651,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="I526">
-        <f>G526/D526</f>
+        <f t="shared" si="8"/>
         <v>7.1699999999999997E-4</v>
       </c>
     </row>
@@ -21674,7 +21678,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="I527">
-        <f>G527/D527</f>
+        <f t="shared" si="8"/>
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
@@ -21701,7 +21705,7 @@
         <v>1.0820000000000001E-3</v>
       </c>
       <c r="I528">
-        <f>G528/D528</f>
+        <f t="shared" si="8"/>
         <v>1.0820000000000001E-3</v>
       </c>
     </row>
@@ -21728,7 +21732,7 @@
         <v>1.0610000000000001E-3</v>
       </c>
       <c r="I529">
-        <f>G529/D529</f>
+        <f t="shared" si="8"/>
         <v>1.0610000000000001E-3</v>
       </c>
     </row>
@@ -21755,7 +21759,7 @@
         <v>1.072E-3</v>
       </c>
       <c r="I530">
-        <f>G530/D530</f>
+        <f t="shared" si="8"/>
         <v>1.072E-3</v>
       </c>
     </row>
@@ -21782,7 +21786,7 @@
         <v>1.0870000000000001E-3</v>
       </c>
       <c r="I531">
-        <f>G531/D531</f>
+        <f t="shared" si="8"/>
         <v>1.0870000000000001E-3</v>
       </c>
     </row>
@@ -21809,7 +21813,7 @@
         <v>1.284E-3</v>
       </c>
       <c r="I532">
-        <f>G532/D532</f>
+        <f t="shared" si="8"/>
         <v>1.284E-3</v>
       </c>
     </row>
@@ -21836,7 +21840,7 @@
         <v>1.3010000000000001E-3</v>
       </c>
       <c r="I533">
-        <f>G533/D533</f>
+        <f t="shared" si="8"/>
         <v>1.3010000000000001E-3</v>
       </c>
     </row>
@@ -21863,7 +21867,7 @@
         <v>1.3079999999999999E-3</v>
       </c>
       <c r="I534">
-        <f>G534/D534</f>
+        <f t="shared" si="8"/>
         <v>1.3079999999999999E-3</v>
       </c>
     </row>
@@ -21890,7 +21894,7 @@
         <v>1.3190000000000001E-3</v>
       </c>
       <c r="I535">
-        <f>G535/D535</f>
+        <f t="shared" si="8"/>
         <v>1.3190000000000001E-3</v>
       </c>
     </row>
@@ -21917,7 +21921,7 @@
         <v>1.3339999999999999E-3</v>
       </c>
       <c r="I536">
-        <f>G536/D536</f>
+        <f t="shared" si="8"/>
         <v>1.3339999999999999E-3</v>
       </c>
     </row>
@@ -21944,7 +21948,7 @@
         <v>1.505E-3</v>
       </c>
       <c r="I537">
-        <f>G537/D537</f>
+        <f t="shared" si="8"/>
         <v>1.505E-3</v>
       </c>
     </row>
@@ -21971,7 +21975,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
       <c r="I538">
-        <f>G538/D538</f>
+        <f t="shared" si="8"/>
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
@@ -21998,7 +22002,7 @@
         <v>1.874E-3</v>
       </c>
       <c r="I539">
-        <f>G539/D539</f>
+        <f t="shared" si="8"/>
         <v>1.874E-3</v>
       </c>
     </row>
@@ -22025,7 +22029,7 @@
         <v>1.431E-3</v>
       </c>
       <c r="I540">
-        <f>G540/D540</f>
+        <f t="shared" si="8"/>
         <v>1.431E-3</v>
       </c>
     </row>
@@ -22052,7 +22056,7 @@
         <v>1.2880000000000001E-3</v>
       </c>
       <c r="I541">
-        <f>G541/D541</f>
+        <f t="shared" si="8"/>
         <v>2.1466666666666669E-4</v>
       </c>
     </row>
@@ -22079,7 +22083,7 @@
         <v>2.0449999999999999E-3</v>
       </c>
       <c r="I542">
-        <f>G542/D542</f>
+        <f t="shared" si="8"/>
         <v>1.7041666666666667E-4</v>
       </c>
     </row>
@@ -22106,7 +22110,7 @@
         <v>2.0010000000000002E-3</v>
       </c>
       <c r="I543">
-        <f>G543/D543</f>
+        <f t="shared" si="8"/>
         <v>1.3340000000000002E-4</v>
       </c>
     </row>
@@ -22133,7 +22137,7 @@
         <v>1.941E-3</v>
       </c>
       <c r="I544">
-        <f>G544/D544</f>
+        <f t="shared" si="8"/>
         <v>1.6175E-4</v>
       </c>
     </row>
@@ -22160,7 +22164,7 @@
         <v>1.2310000000000001E-3</v>
       </c>
       <c r="I545">
-        <f>G545/D545</f>
+        <f t="shared" si="8"/>
         <v>2.0516666666666668E-4</v>
       </c>
     </row>
@@ -22187,7 +22191,7 @@
         <v>1.103E-3</v>
       </c>
       <c r="I546">
-        <f>G546/D546</f>
+        <f t="shared" si="8"/>
         <v>1.8383333333333335E-4</v>
       </c>
     </row>
@@ -22214,7 +22218,7 @@
         <v>9.5500000000000001E-4</v>
       </c>
       <c r="I547">
-        <f>G547/D547</f>
+        <f t="shared" si="8"/>
         <v>2.3875E-4</v>
       </c>
     </row>
@@ -22241,7 +22245,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
       <c r="I548">
-        <f>G548/D548</f>
+        <f t="shared" si="8"/>
         <v>2.34E-4</v>
       </c>
     </row>
@@ -22268,7 +22272,7 @@
         <v>9.1E-4</v>
       </c>
       <c r="I549">
-        <f>G549/D549</f>
+        <f t="shared" si="8"/>
         <v>2.275E-4</v>
       </c>
     </row>
@@ -22295,7 +22299,7 @@
         <v>9.0600000000000001E-4</v>
       </c>
       <c r="I550">
-        <f>G550/D550</f>
+        <f t="shared" si="8"/>
         <v>2.265E-4</v>
       </c>
     </row>
@@ -22322,7 +22326,7 @@
         <v>9.6699999999999998E-4</v>
       </c>
       <c r="I551">
-        <f>G551/D551</f>
+        <f t="shared" si="8"/>
         <v>2.4174999999999999E-4</v>
       </c>
     </row>
@@ -22349,7 +22353,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
       <c r="I552">
-        <f>G552/D552</f>
+        <f t="shared" si="8"/>
         <v>2.7933333333333331E-4</v>
       </c>
     </row>
@@ -22376,7 +22380,7 @@
         <v>8.5700000000000001E-4</v>
       </c>
       <c r="I553">
-        <f>G553/D553</f>
+        <f t="shared" si="8"/>
         <v>2.8566666666666665E-4</v>
       </c>
     </row>
@@ -22403,7 +22407,7 @@
         <v>1.003E-3</v>
       </c>
       <c r="I554">
-        <f>G554/D554</f>
+        <f t="shared" si="8"/>
         <v>2.5075E-4</v>
       </c>
     </row>
@@ -22430,7 +22434,7 @@
         <v>8.8900000000000003E-4</v>
       </c>
       <c r="I555">
-        <f>G555/D555</f>
+        <f t="shared" si="8"/>
         <v>2.9633333333333334E-4</v>
       </c>
     </row>
@@ -22457,7 +22461,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="I556">
-        <f>G556/D556</f>
+        <f t="shared" si="8"/>
         <v>3.1333333333333332E-4</v>
       </c>
     </row>
@@ -22484,7 +22488,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="I557">
-        <f>G557/D557</f>
+        <f t="shared" si="8"/>
         <v>2.4333333333333333E-4</v>
       </c>
     </row>
@@ -22511,7 +22515,7 @@
         <v>7.4899999999999999E-4</v>
       </c>
       <c r="I558">
-        <f>G558/D558</f>
+        <f t="shared" si="8"/>
         <v>2.4966666666666665E-4</v>
       </c>
     </row>
@@ -22538,7 +22542,7 @@
         <v>7.4299999999999995E-4</v>
       </c>
       <c r="I559">
-        <f>G559/D559</f>
+        <f t="shared" si="8"/>
         <v>2.4766666666666665E-4</v>
       </c>
     </row>
@@ -22565,7 +22569,7 @@
         <v>7.6599999999999997E-4</v>
       </c>
       <c r="I560">
-        <f>G560/D560</f>
+        <f t="shared" si="8"/>
         <v>2.5533333333333332E-4</v>
       </c>
     </row>
@@ -22592,7 +22596,7 @@
         <v>7.5900000000000002E-4</v>
       </c>
       <c r="I561">
-        <f>G561/D561</f>
+        <f t="shared" si="8"/>
         <v>2.5300000000000002E-4</v>
       </c>
     </row>
@@ -22619,7 +22623,7 @@
         <v>6.2100000000000002E-4</v>
       </c>
       <c r="I562">
-        <f>G562/D562</f>
+        <f t="shared" si="8"/>
         <v>6.2100000000000002E-4</v>
       </c>
     </row>
@@ -22646,7 +22650,7 @@
         <v>6.3400000000000001E-4</v>
       </c>
       <c r="I563">
-        <f>G563/D563</f>
+        <f t="shared" si="8"/>
         <v>6.3400000000000001E-4</v>
       </c>
     </row>
@@ -22673,7 +22677,7 @@
         <v>6.5499999999999998E-4</v>
       </c>
       <c r="I564">
-        <f>G564/D564</f>
+        <f t="shared" si="8"/>
         <v>6.5499999999999998E-4</v>
       </c>
     </row>
@@ -22700,7 +22704,7 @@
         <v>6.5399999999999996E-4</v>
       </c>
       <c r="I565">
-        <f>G565/D565</f>
+        <f t="shared" si="8"/>
         <v>6.5399999999999996E-4</v>
       </c>
     </row>
@@ -22727,7 +22731,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
       <c r="I566">
-        <f>G566/D566</f>
+        <f t="shared" si="8"/>
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
@@ -22754,7 +22758,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
       <c r="I567">
-        <f>G567/D567</f>
+        <f t="shared" si="8"/>
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
@@ -22781,7 +22785,7 @@
         <v>6.9499999999999998E-4</v>
       </c>
       <c r="I568">
-        <f>G568/D568</f>
+        <f t="shared" si="8"/>
         <v>6.9499999999999998E-4</v>
       </c>
     </row>
@@ -22808,7 +22812,7 @@
         <v>7.2599999999999997E-4</v>
       </c>
       <c r="I569">
-        <f>G569/D569</f>
+        <f t="shared" si="8"/>
         <v>7.2599999999999997E-4</v>
       </c>
     </row>
@@ -22835,7 +22839,7 @@
         <v>7.0299999999999996E-4</v>
       </c>
       <c r="I570">
-        <f>G570/D570</f>
+        <f t="shared" si="8"/>
         <v>7.0299999999999996E-4</v>
       </c>
     </row>
@@ -22862,7 +22866,7 @@
         <v>7.1199999999999996E-4</v>
       </c>
       <c r="I571">
-        <f>G571/D571</f>
+        <f t="shared" si="8"/>
         <v>7.1199999999999996E-4</v>
       </c>
     </row>
@@ -22889,7 +22893,7 @@
         <v>1.0399999999999999E-3</v>
       </c>
       <c r="I572">
-        <f>G572/D572</f>
+        <f t="shared" si="8"/>
         <v>1.0399999999999999E-3</v>
       </c>
     </row>
@@ -22916,7 +22920,7 @@
         <v>7.3399999999999995E-4</v>
       </c>
       <c r="I573">
-        <f>G573/D573</f>
+        <f t="shared" si="8"/>
         <v>7.3399999999999995E-4</v>
       </c>
     </row>
@@ -22943,7 +22947,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
       <c r="I574">
-        <f>G574/D574</f>
+        <f t="shared" si="8"/>
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
@@ -22970,7 +22974,7 @@
         <v>7.85E-4</v>
       </c>
       <c r="I575">
-        <f>G575/D575</f>
+        <f t="shared" si="8"/>
         <v>7.85E-4</v>
       </c>
     </row>
@@ -22997,7 +23001,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="I576">
-        <f>G576/D576</f>
+        <f t="shared" si="8"/>
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
@@ -23024,7 +23028,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="I577">
-        <f>G577/D577</f>
+        <f t="shared" ref="I577:I640" si="9">G577/D577</f>
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
@@ -23051,7 +23055,7 @@
         <v>9.5200000000000005E-4</v>
       </c>
       <c r="I578">
-        <f>G578/D578</f>
+        <f t="shared" si="9"/>
         <v>9.5200000000000005E-4</v>
       </c>
     </row>
@@ -23078,7 +23082,7 @@
         <v>9.5699999999999995E-4</v>
       </c>
       <c r="I579">
-        <f>G579/D579</f>
+        <f t="shared" si="9"/>
         <v>9.5699999999999995E-4</v>
       </c>
     </row>
@@ -23105,7 +23109,7 @@
         <v>9.68E-4</v>
       </c>
       <c r="I580">
-        <f>G580/D580</f>
+        <f t="shared" si="9"/>
         <v>9.68E-4</v>
       </c>
     </row>
@@ -23132,7 +23136,7 @@
         <v>1.0280000000000001E-3</v>
       </c>
       <c r="I581">
-        <f>G581/D581</f>
+        <f t="shared" si="9"/>
         <v>1.0280000000000001E-3</v>
       </c>
     </row>
@@ -23159,7 +23163,7 @@
         <v>1.008E-3</v>
       </c>
       <c r="I582">
-        <f>G582/D582</f>
+        <f t="shared" si="9"/>
         <v>1.008E-3</v>
       </c>
     </row>
@@ -23186,7 +23190,7 @@
         <v>1.008E-3</v>
       </c>
       <c r="I583">
-        <f>G583/D583</f>
+        <f t="shared" si="9"/>
         <v>1.008E-3</v>
       </c>
     </row>
@@ -23213,7 +23217,7 @@
         <v>1.023E-3</v>
       </c>
       <c r="I584">
-        <f>G584/D584</f>
+        <f t="shared" si="9"/>
         <v>1.023E-3</v>
       </c>
     </row>
@@ -23240,7 +23244,7 @@
         <v>1.132E-3</v>
       </c>
       <c r="I585">
-        <f>G585/D585</f>
+        <f t="shared" si="9"/>
         <v>1.132E-3</v>
       </c>
     </row>
@@ -23267,7 +23271,7 @@
         <v>1.0560000000000001E-3</v>
       </c>
       <c r="I586">
-        <f>G586/D586</f>
+        <f t="shared" si="9"/>
         <v>1.3200000000000001E-4</v>
       </c>
     </row>
@@ -23294,7 +23298,7 @@
         <v>1.343E-3</v>
       </c>
       <c r="I587">
-        <f>G587/D587</f>
+        <f t="shared" si="9"/>
         <v>1.220909090909091E-4</v>
       </c>
     </row>
@@ -23321,7 +23325,7 @@
         <v>1.6739999999999999E-3</v>
       </c>
       <c r="I588">
-        <f>G588/D588</f>
+        <f t="shared" si="9"/>
         <v>1.1159999999999999E-4</v>
       </c>
     </row>
@@ -23348,7 +23352,7 @@
         <v>1.0970000000000001E-3</v>
       </c>
       <c r="I589">
-        <f>G589/D589</f>
+        <f t="shared" si="9"/>
         <v>1.218888888888889E-4</v>
       </c>
     </row>
@@ -23375,7 +23379,7 @@
         <v>7.3300000000000004E-4</v>
       </c>
       <c r="I590">
-        <f>G590/D590</f>
+        <f t="shared" si="9"/>
         <v>1.4660000000000001E-4</v>
       </c>
     </row>
@@ -23402,7 +23406,7 @@
         <v>7.2300000000000001E-4</v>
       </c>
       <c r="I591">
-        <f>G591/D591</f>
+        <f t="shared" si="9"/>
         <v>1.4459999999999999E-4</v>
       </c>
     </row>
@@ -23429,7 +23433,7 @@
         <v>7.5100000000000004E-4</v>
       </c>
       <c r="I592">
-        <f>G592/D592</f>
+        <f t="shared" si="9"/>
         <v>1.5020000000000002E-4</v>
       </c>
     </row>
@@ -23456,7 +23460,7 @@
         <v>7.6599999999999997E-4</v>
       </c>
       <c r="I593">
-        <f>G593/D593</f>
+        <f t="shared" si="9"/>
         <v>1.5319999999999998E-4</v>
       </c>
     </row>
@@ -23483,7 +23487,7 @@
         <v>6.6200000000000005E-4</v>
       </c>
       <c r="I594">
-        <f>G594/D594</f>
+        <f t="shared" si="9"/>
         <v>1.6550000000000001E-4</v>
       </c>
     </row>
@@ -23510,7 +23514,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
       <c r="I595">
-        <f>G595/D595</f>
+        <f t="shared" si="9"/>
         <v>1.6650000000000001E-4</v>
       </c>
     </row>
@@ -23537,7 +23541,7 @@
         <v>6.8199999999999999E-4</v>
       </c>
       <c r="I596">
-        <f>G596/D596</f>
+        <f t="shared" si="9"/>
         <v>1.705E-4</v>
       </c>
     </row>
@@ -23564,7 +23568,7 @@
         <v>5.9800000000000001E-4</v>
       </c>
       <c r="I597">
-        <f>G597/D597</f>
+        <f t="shared" si="9"/>
         <v>1.9933333333333334E-4</v>
       </c>
     </row>
@@ -23591,7 +23595,7 @@
         <v>6.7400000000000001E-4</v>
       </c>
       <c r="I598">
-        <f>G598/D598</f>
+        <f t="shared" si="9"/>
         <v>2.2466666666666666E-4</v>
       </c>
     </row>
@@ -23618,7 +23622,7 @@
         <v>9.1699999999999995E-4</v>
       </c>
       <c r="I599">
-        <f>G599/D599</f>
+        <f t="shared" si="9"/>
         <v>3.0566666666666665E-4</v>
       </c>
     </row>
@@ -23645,7 +23649,7 @@
         <v>6.5200000000000002E-4</v>
       </c>
       <c r="I600">
-        <f>G600/D600</f>
+        <f t="shared" si="9"/>
         <v>2.1733333333333335E-4</v>
       </c>
     </row>
@@ -23672,7 +23676,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="I601">
-        <f>G601/D601</f>
+        <f t="shared" si="9"/>
         <v>1.8200000000000001E-4</v>
       </c>
     </row>
@@ -23699,7 +23703,7 @@
         <v>5.7399999999999997E-4</v>
       </c>
       <c r="I602">
-        <f>G602/D602</f>
+        <f t="shared" si="9"/>
         <v>5.7399999999999997E-4</v>
       </c>
     </row>
@@ -23726,7 +23730,7 @@
         <v>5.8299999999999997E-4</v>
       </c>
       <c r="I603">
-        <f>G603/D603</f>
+        <f t="shared" si="9"/>
         <v>5.8299999999999997E-4</v>
       </c>
     </row>
@@ -23753,7 +23757,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="I604">
-        <f>G604/D604</f>
+        <f t="shared" si="9"/>
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
@@ -23780,7 +23784,7 @@
         <v>7.5799999999999999E-4</v>
       </c>
       <c r="I605">
-        <f>G605/D605</f>
+        <f t="shared" si="9"/>
         <v>2.5266666666666666E-4</v>
       </c>
     </row>
@@ -23807,7 +23811,7 @@
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="I606">
-        <f>G606/D606</f>
+        <f t="shared" si="9"/>
         <v>6.3000000000000003E-4</v>
       </c>
     </row>
@@ -23834,7 +23838,7 @@
         <v>6.1600000000000001E-4</v>
       </c>
       <c r="I607">
-        <f>G607/D607</f>
+        <f t="shared" si="9"/>
         <v>6.1600000000000001E-4</v>
       </c>
     </row>
@@ -23861,7 +23865,7 @@
         <v>6.2799999999999998E-4</v>
       </c>
       <c r="I608">
-        <f>G608/D608</f>
+        <f t="shared" si="9"/>
         <v>6.2799999999999998E-4</v>
       </c>
     </row>
@@ -23888,7 +23892,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
       <c r="I609">
-        <f>G609/D609</f>
+        <f t="shared" si="9"/>
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
@@ -23915,7 +23919,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
       <c r="I610">
-        <f>G610/D610</f>
+        <f t="shared" si="9"/>
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
@@ -23942,7 +23946,7 @@
         <v>6.5200000000000002E-4</v>
       </c>
       <c r="I611">
-        <f>G611/D611</f>
+        <f t="shared" si="9"/>
         <v>6.5200000000000002E-4</v>
       </c>
     </row>
@@ -23969,7 +23973,7 @@
         <v>6.6799999999999997E-4</v>
       </c>
       <c r="I612">
-        <f>G612/D612</f>
+        <f t="shared" si="9"/>
         <v>6.6799999999999997E-4</v>
       </c>
     </row>
@@ -23996,7 +24000,7 @@
         <v>7.0299999999999996E-4</v>
       </c>
       <c r="I613">
-        <f>G613/D613</f>
+        <f t="shared" si="9"/>
         <v>7.0299999999999996E-4</v>
       </c>
     </row>
@@ -24023,7 +24027,7 @@
         <v>6.8499999999999995E-4</v>
       </c>
       <c r="I614">
-        <f>G614/D614</f>
+        <f t="shared" si="9"/>
         <v>6.8499999999999995E-4</v>
       </c>
     </row>
@@ -24050,7 +24054,7 @@
         <v>7.1100000000000004E-4</v>
       </c>
       <c r="I615">
-        <f>G615/D615</f>
+        <f t="shared" si="9"/>
         <v>7.1100000000000004E-4</v>
       </c>
     </row>
@@ -24077,7 +24081,7 @@
         <v>7.1100000000000004E-4</v>
       </c>
       <c r="I616">
-        <f>G616/D616</f>
+        <f t="shared" si="9"/>
         <v>7.1100000000000004E-4</v>
       </c>
     </row>
@@ -24104,7 +24108,7 @@
         <v>7.1599999999999995E-4</v>
       </c>
       <c r="I617">
-        <f>G617/D617</f>
+        <f t="shared" si="9"/>
         <v>7.1599999999999995E-4</v>
       </c>
     </row>
@@ -24131,7 +24135,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="I618">
-        <f>G618/D618</f>
+        <f t="shared" si="9"/>
         <v>7.2800000000000002E-4</v>
       </c>
     </row>
@@ -24158,7 +24162,7 @@
         <v>7.5299999999999998E-4</v>
       </c>
       <c r="I619">
-        <f>G619/D619</f>
+        <f t="shared" si="9"/>
         <v>7.5299999999999998E-4</v>
       </c>
     </row>
@@ -24185,7 +24189,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="I620">
-        <f>G620/D620</f>
+        <f t="shared" si="9"/>
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
@@ -24212,7 +24216,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
       <c r="I621">
-        <f>G621/D621</f>
+        <f t="shared" si="9"/>
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
@@ -24239,7 +24243,7 @@
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="I622">
-        <f>G622/D622</f>
+        <f t="shared" si="9"/>
         <v>9.3000000000000005E-4</v>
       </c>
     </row>
@@ -24266,7 +24270,7 @@
         <v>9.5E-4</v>
       </c>
       <c r="I623">
-        <f>G623/D623</f>
+        <f t="shared" si="9"/>
         <v>9.5E-4</v>
       </c>
     </row>
@@ -24293,7 +24297,7 @@
         <v>9.4899999999999997E-4</v>
       </c>
       <c r="I624">
-        <f>G624/D624</f>
+        <f t="shared" si="9"/>
         <v>9.4899999999999997E-4</v>
       </c>
     </row>
@@ -24320,7 +24324,7 @@
         <v>9.9599999999999992E-4</v>
       </c>
       <c r="I625">
-        <f>G625/D625</f>
+        <f t="shared" si="9"/>
         <v>9.9599999999999992E-4</v>
       </c>
     </row>
@@ -24347,7 +24351,7 @@
         <v>1.2880000000000001E-3</v>
       </c>
       <c r="I626">
-        <f>G626/D626</f>
+        <f t="shared" si="9"/>
         <v>1.2880000000000001E-3</v>
       </c>
     </row>
@@ -24374,7 +24378,7 @@
         <v>1.3979999999999999E-3</v>
       </c>
       <c r="I627">
-        <f>G627/D627</f>
+        <f t="shared" si="9"/>
         <v>1.3979999999999999E-3</v>
       </c>
     </row>
@@ -24401,7 +24405,7 @@
         <v>1.3940000000000001E-3</v>
       </c>
       <c r="I628">
-        <f>G628/D628</f>
+        <f t="shared" si="9"/>
         <v>1.3940000000000001E-3</v>
       </c>
     </row>
@@ -24428,7 +24432,7 @@
         <v>1.029E-3</v>
       </c>
       <c r="I629">
-        <f>G629/D629</f>
+        <f t="shared" si="9"/>
         <v>1.029E-3</v>
       </c>
     </row>
@@ -24455,7 +24459,7 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="I630">
-        <f>G630/D630</f>
+        <f t="shared" si="9"/>
         <v>1.0200000000000001E-3</v>
       </c>
     </row>
@@ -24482,7 +24486,7 @@
         <v>1.1950000000000001E-3</v>
       </c>
       <c r="I631">
-        <f>G631/D631</f>
+        <f t="shared" si="9"/>
         <v>1.195E-4</v>
       </c>
     </row>
@@ -24509,7 +24513,7 @@
         <v>1.4369999999999999E-3</v>
       </c>
       <c r="I632">
-        <f>G632/D632</f>
+        <f t="shared" si="9"/>
         <v>1.1975E-4</v>
       </c>
     </row>
@@ -24536,7 +24540,7 @@
         <v>1.1379999999999999E-3</v>
       </c>
       <c r="I633">
-        <f>G633/D633</f>
+        <f t="shared" si="9"/>
         <v>1.4224999999999999E-4</v>
       </c>
     </row>
@@ -24563,7 +24567,7 @@
         <v>1.016E-3</v>
       </c>
       <c r="I634">
-        <f>G634/D634</f>
+        <f t="shared" si="9"/>
         <v>1.4514285714285714E-4</v>
       </c>
     </row>
@@ -24590,7 +24594,7 @@
         <v>8.5099999999999998E-4</v>
       </c>
       <c r="I635">
-        <f>G635/D635</f>
+        <f t="shared" si="9"/>
         <v>1.4183333333333333E-4</v>
       </c>
     </row>
@@ -24617,7 +24621,7 @@
         <v>8.9300000000000002E-4</v>
       </c>
       <c r="I636">
-        <f>G636/D636</f>
+        <f t="shared" si="9"/>
         <v>1.2757142857142858E-4</v>
       </c>
     </row>
@@ -24644,7 +24648,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="I637">
-        <f>G637/D637</f>
+        <f t="shared" si="9"/>
         <v>1.54E-4</v>
       </c>
     </row>
@@ -24671,7 +24675,7 @@
         <v>6.6100000000000002E-4</v>
       </c>
       <c r="I638">
-        <f>G638/D638</f>
+        <f t="shared" si="9"/>
         <v>1.6525000000000001E-4</v>
       </c>
     </row>
@@ -24698,7 +24702,7 @@
         <v>6.6399999999999999E-4</v>
       </c>
       <c r="I639">
-        <f>G639/D639</f>
+        <f t="shared" si="9"/>
         <v>1.66E-4</v>
       </c>
     </row>
@@ -24725,7 +24729,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
       <c r="I640">
-        <f>G640/D640</f>
+        <f t="shared" si="9"/>
         <v>1.6650000000000001E-4</v>
       </c>
     </row>
@@ -24752,7 +24756,7 @@
         <v>6.5200000000000002E-4</v>
       </c>
       <c r="I641">
-        <f>G641/D641</f>
+        <f t="shared" ref="I641:I704" si="10">G641/D641</f>
         <v>1.63E-4</v>
       </c>
     </row>
@@ -24779,7 +24783,7 @@
         <v>6.7199999999999996E-4</v>
       </c>
       <c r="I642">
-        <f>G642/D642</f>
+        <f t="shared" si="10"/>
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
@@ -24806,7 +24810,7 @@
         <v>6.02E-4</v>
       </c>
       <c r="I643">
-        <f>G643/D643</f>
+        <f t="shared" si="10"/>
         <v>2.0066666666666667E-4</v>
       </c>
     </row>
@@ -24833,7 +24837,7 @@
         <v>6.7500000000000004E-4</v>
       </c>
       <c r="I644">
-        <f>G644/D644</f>
+        <f t="shared" si="10"/>
         <v>1.6875000000000001E-4</v>
       </c>
     </row>
@@ -24860,7 +24864,7 @@
         <v>6.1300000000000005E-4</v>
       </c>
       <c r="I645">
-        <f>G645/D645</f>
+        <f t="shared" si="10"/>
         <v>2.0433333333333336E-4</v>
       </c>
     </row>
@@ -24887,7 +24891,7 @@
         <v>6.6200000000000005E-4</v>
       </c>
       <c r="I646">
-        <f>G646/D646</f>
+        <f t="shared" si="10"/>
         <v>6.6200000000000005E-4</v>
       </c>
     </row>
@@ -24914,7 +24918,7 @@
         <v>1.1069999999999999E-3</v>
       </c>
       <c r="I647">
-        <f>G647/D647</f>
+        <f t="shared" si="10"/>
         <v>3.6899999999999997E-4</v>
       </c>
     </row>
@@ -24941,7 +24945,7 @@
         <v>1.0250000000000001E-3</v>
       </c>
       <c r="I648">
-        <f>G648/D648</f>
+        <f t="shared" si="10"/>
         <v>3.4166666666666671E-4</v>
       </c>
     </row>
@@ -24968,7 +24972,7 @@
         <v>1.1770000000000001E-3</v>
       </c>
       <c r="I649">
-        <f>G649/D649</f>
+        <f t="shared" si="10"/>
         <v>3.9233333333333335E-4</v>
       </c>
     </row>
@@ -24995,7 +24999,7 @@
         <v>9.9099999999999991E-4</v>
       </c>
       <c r="I650">
-        <f>G650/D650</f>
+        <f t="shared" si="10"/>
         <v>9.9099999999999991E-4</v>
       </c>
     </row>
@@ -25022,7 +25026,7 @@
         <v>9.7799999999999992E-4</v>
       </c>
       <c r="I651">
-        <f>G651/D651</f>
+        <f t="shared" si="10"/>
         <v>9.7799999999999992E-4</v>
       </c>
     </row>
@@ -25049,7 +25053,7 @@
         <v>9.3199999999999999E-4</v>
       </c>
       <c r="I652">
-        <f>G652/D652</f>
+        <f t="shared" si="10"/>
         <v>9.3199999999999999E-4</v>
       </c>
     </row>
@@ -25076,7 +25080,7 @@
         <v>1.072E-3</v>
       </c>
       <c r="I653">
-        <f>G653/D653</f>
+        <f t="shared" si="10"/>
         <v>3.5733333333333336E-4</v>
       </c>
     </row>
@@ -25103,7 +25107,7 @@
         <v>9.4200000000000002E-4</v>
       </c>
       <c r="I654">
-        <f>G654/D654</f>
+        <f t="shared" si="10"/>
         <v>9.4200000000000002E-4</v>
       </c>
     </row>
@@ -25130,7 +25134,7 @@
         <v>9.2500000000000004E-4</v>
       </c>
       <c r="I655">
-        <f>G655/D655</f>
+        <f t="shared" si="10"/>
         <v>9.2500000000000004E-4</v>
       </c>
     </row>
@@ -25157,7 +25161,7 @@
         <v>1.186E-3</v>
       </c>
       <c r="I656">
-        <f>G656/D656</f>
+        <f t="shared" si="10"/>
         <v>1.186E-3</v>
       </c>
     </row>
@@ -25184,7 +25188,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
       <c r="I657">
-        <f>G657/D657</f>
+        <f t="shared" si="10"/>
         <v>9.0799999999999995E-4</v>
       </c>
     </row>
@@ -25211,7 +25215,7 @@
         <v>9.4600000000000001E-4</v>
       </c>
       <c r="I658">
-        <f>G658/D658</f>
+        <f t="shared" si="10"/>
         <v>9.4600000000000001E-4</v>
       </c>
     </row>
@@ -25238,7 +25242,7 @@
         <v>9.4300000000000004E-4</v>
       </c>
       <c r="I659">
-        <f>G659/D659</f>
+        <f t="shared" si="10"/>
         <v>9.4300000000000004E-4</v>
       </c>
     </row>
@@ -25265,7 +25269,7 @@
         <v>9.6500000000000004E-4</v>
       </c>
       <c r="I660">
-        <f>G660/D660</f>
+        <f t="shared" si="10"/>
         <v>9.6500000000000004E-4</v>
       </c>
     </row>
@@ -25292,7 +25296,7 @@
         <v>9.7900000000000005E-4</v>
       </c>
       <c r="I661">
-        <f>G661/D661</f>
+        <f t="shared" si="10"/>
         <v>9.7900000000000005E-4</v>
       </c>
     </row>
@@ -25319,7 +25323,7 @@
         <v>9.8900000000000008E-4</v>
       </c>
       <c r="I662">
-        <f>G662/D662</f>
+        <f t="shared" si="10"/>
         <v>9.8900000000000008E-4</v>
       </c>
     </row>
@@ -25346,7 +25350,7 @@
         <v>1.4220000000000001E-3</v>
       </c>
       <c r="I663">
-        <f>G663/D663</f>
+        <f t="shared" si="10"/>
         <v>1.4220000000000001E-3</v>
       </c>
     </row>
@@ -25373,7 +25377,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
       <c r="I664">
-        <f>G664/D664</f>
+        <f t="shared" si="10"/>
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
@@ -25400,7 +25404,7 @@
         <v>1E-3</v>
       </c>
       <c r="I665">
-        <f>G665/D665</f>
+        <f t="shared" si="10"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -25427,7 +25431,7 @@
         <v>1.072E-3</v>
       </c>
       <c r="I666">
-        <f>G666/D666</f>
+        <f t="shared" si="10"/>
         <v>1.072E-3</v>
       </c>
     </row>
@@ -25454,7 +25458,7 @@
         <v>1.2830000000000001E-3</v>
       </c>
       <c r="I667">
-        <f>G667/D667</f>
+        <f t="shared" si="10"/>
         <v>1.2830000000000001E-3</v>
       </c>
     </row>
@@ -25481,7 +25485,7 @@
         <v>1.2719999999999999E-3</v>
       </c>
       <c r="I668">
-        <f>G668/D668</f>
+        <f t="shared" si="10"/>
         <v>1.2719999999999999E-3</v>
       </c>
     </row>
@@ -25508,7 +25512,7 @@
         <v>1.224E-3</v>
       </c>
       <c r="I669">
-        <f>G669/D669</f>
+        <f t="shared" si="10"/>
         <v>1.224E-3</v>
       </c>
     </row>
@@ -25535,7 +25539,7 @@
         <v>1.207E-3</v>
       </c>
       <c r="I670">
-        <f>G670/D670</f>
+        <f t="shared" si="10"/>
         <v>1.207E-3</v>
       </c>
     </row>
@@ -25562,7 +25566,7 @@
         <v>1.2279999999999999E-3</v>
       </c>
       <c r="I671">
-        <f>G671/D671</f>
+        <f t="shared" si="10"/>
         <v>1.2279999999999999E-3</v>
       </c>
     </row>
@@ -25589,7 +25593,7 @@
         <v>1.2279999999999999E-3</v>
       </c>
       <c r="I672">
-        <f>G672/D672</f>
+        <f t="shared" si="10"/>
         <v>1.2279999999999999E-3</v>
       </c>
     </row>
@@ -25616,7 +25620,7 @@
         <v>1.2489999999999999E-3</v>
       </c>
       <c r="I673">
-        <f>G673/D673</f>
+        <f t="shared" si="10"/>
         <v>1.2489999999999999E-3</v>
       </c>
     </row>
@@ -25643,7 +25647,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="I674">
-        <f>G674/D674</f>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
     </row>
@@ -25670,7 +25674,7 @@
         <v>1.3079999999999999E-3</v>
       </c>
       <c r="I675">
-        <f>G675/D675</f>
+        <f t="shared" si="10"/>
         <v>1.3079999999999999E-3</v>
       </c>
     </row>
@@ -25697,7 +25701,7 @@
         <v>1.152E-3</v>
       </c>
       <c r="I676">
-        <f>G676/D676</f>
+        <f t="shared" si="10"/>
         <v>1.92E-4</v>
       </c>
     </row>
@@ -25724,7 +25728,7 @@
         <v>1.475E-3</v>
       </c>
       <c r="I677">
-        <f>G677/D677</f>
+        <f t="shared" si="10"/>
         <v>1.6388888888888887E-4</v>
       </c>
     </row>
@@ -25751,7 +25755,7 @@
         <v>1.2589999999999999E-3</v>
       </c>
       <c r="I678">
-        <f>G678/D678</f>
+        <f t="shared" si="10"/>
         <v>1.7985714285714285E-4</v>
       </c>
     </row>
@@ -25778,7 +25782,7 @@
         <v>1.5920000000000001E-3</v>
       </c>
       <c r="I679">
-        <f>G679/D679</f>
+        <f t="shared" si="10"/>
         <v>1.4472727272727274E-4</v>
       </c>
     </row>
@@ -25805,7 +25809,7 @@
         <v>1.029E-3</v>
       </c>
       <c r="I680">
-        <f>G680/D680</f>
+        <f t="shared" si="10"/>
         <v>1.7149999999999999E-4</v>
       </c>
     </row>
@@ -25832,7 +25836,7 @@
         <v>9.810000000000001E-4</v>
       </c>
       <c r="I681">
-        <f>G681/D681</f>
+        <f t="shared" si="10"/>
         <v>1.6350000000000002E-4</v>
       </c>
     </row>
@@ -25859,7 +25863,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
       <c r="I682">
-        <f>G682/D682</f>
+        <f t="shared" si="10"/>
         <v>2.1824999999999999E-4</v>
       </c>
     </row>
@@ -25886,7 +25890,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
       <c r="I683">
-        <f>G683/D683</f>
+        <f t="shared" si="10"/>
         <v>2.1824999999999999E-4</v>
       </c>
     </row>
@@ -25913,7 +25917,7 @@
         <v>8.4500000000000005E-4</v>
       </c>
       <c r="I684">
-        <f>G684/D684</f>
+        <f t="shared" si="10"/>
         <v>2.1125000000000001E-4</v>
       </c>
     </row>
@@ -25940,7 +25944,7 @@
         <v>1.0660000000000001E-3</v>
       </c>
       <c r="I685">
-        <f>G685/D685</f>
+        <f t="shared" si="10"/>
         <v>2.6650000000000003E-4</v>
       </c>
     </row>
@@ -25967,7 +25971,7 @@
         <v>9.7400000000000004E-4</v>
       </c>
       <c r="I686">
-        <f>G686/D686</f>
+        <f t="shared" si="10"/>
         <v>3.2466666666666668E-4</v>
       </c>
     </row>
@@ -25994,7 +25998,7 @@
         <v>9.5699999999999995E-4</v>
       </c>
       <c r="I687">
-        <f>G687/D687</f>
+        <f t="shared" si="10"/>
         <v>3.19E-4</v>
       </c>
     </row>
@@ -26021,7 +26025,7 @@
         <v>8.6799999999999996E-4</v>
       </c>
       <c r="I688">
-        <f>G688/D688</f>
+        <f t="shared" si="10"/>
         <v>2.1699999999999999E-4</v>
       </c>
     </row>
@@ -26048,7 +26052,7 @@
         <v>7.5500000000000003E-4</v>
       </c>
       <c r="I689">
-        <f>G689/D689</f>
+        <f t="shared" si="10"/>
         <v>2.5166666666666669E-4</v>
       </c>
     </row>
@@ -26075,7 +26079,7 @@
         <v>7.6199999999999998E-4</v>
       </c>
       <c r="I690">
-        <f>G690/D690</f>
+        <f t="shared" si="10"/>
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
@@ -26102,7 +26106,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
       <c r="I691">
-        <f>G691/D691</f>
+        <f t="shared" si="10"/>
         <v>2.6433333333333333E-4</v>
       </c>
     </row>
@@ -26129,7 +26133,7 @@
         <v>9.2400000000000002E-4</v>
       </c>
       <c r="I692">
-        <f>G692/D692</f>
+        <f t="shared" si="10"/>
         <v>3.0800000000000001E-4</v>
       </c>
     </row>
@@ -26156,7 +26160,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
       <c r="I693">
-        <f>G693/D693</f>
+        <f t="shared" si="10"/>
         <v>2.9533333333333332E-4</v>
       </c>
     </row>
@@ -26183,7 +26187,7 @@
         <v>9.0700000000000004E-4</v>
       </c>
       <c r="I694">
-        <f>G694/D694</f>
+        <f t="shared" si="10"/>
         <v>3.0233333333333333E-4</v>
       </c>
     </row>
@@ -26210,7 +26214,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
       <c r="I695">
-        <f>G695/D695</f>
+        <f t="shared" si="10"/>
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
@@ -26237,7 +26241,7 @@
         <v>9.4499999999999998E-4</v>
       </c>
       <c r="I696">
-        <f>G696/D696</f>
+        <f t="shared" si="10"/>
         <v>3.1500000000000001E-4</v>
       </c>
     </row>
@@ -26264,7 +26268,7 @@
         <v>7.6300000000000001E-4</v>
       </c>
       <c r="I697">
-        <f>G697/D697</f>
+        <f t="shared" si="10"/>
         <v>7.6300000000000001E-4</v>
       </c>
     </row>
@@ -26291,7 +26295,7 @@
         <v>7.7300000000000003E-4</v>
       </c>
       <c r="I698">
-        <f>G698/D698</f>
+        <f t="shared" si="10"/>
         <v>7.7300000000000003E-4</v>
       </c>
     </row>
@@ -26318,7 +26322,7 @@
         <v>7.8899999999999999E-4</v>
       </c>
       <c r="I699">
-        <f>G699/D699</f>
+        <f t="shared" si="10"/>
         <v>7.8899999999999999E-4</v>
       </c>
     </row>
@@ -26345,7 +26349,7 @@
         <v>7.9900000000000001E-4</v>
       </c>
       <c r="I700">
-        <f>G700/D700</f>
+        <f t="shared" si="10"/>
         <v>7.9900000000000001E-4</v>
       </c>
     </row>
@@ -26372,7 +26376,7 @@
         <v>8.3199999999999995E-4</v>
       </c>
       <c r="I701">
-        <f>G701/D701</f>
+        <f t="shared" si="10"/>
         <v>8.3199999999999995E-4</v>
       </c>
     </row>
@@ -26399,7 +26403,7 @@
         <v>8.3900000000000001E-4</v>
       </c>
       <c r="I702">
-        <f>G702/D702</f>
+        <f t="shared" si="10"/>
         <v>8.3900000000000001E-4</v>
       </c>
     </row>
@@ -26426,7 +26430,7 @@
         <v>8.3600000000000005E-4</v>
       </c>
       <c r="I703">
-        <f>G703/D703</f>
+        <f t="shared" si="10"/>
         <v>8.3600000000000005E-4</v>
       </c>
     </row>
@@ -26453,7 +26457,7 @@
         <v>8.6600000000000002E-4</v>
       </c>
       <c r="I704">
-        <f>G704/D704</f>
+        <f t="shared" si="10"/>
         <v>8.6600000000000002E-4</v>
       </c>
     </row>
@@ -26480,7 +26484,7 @@
         <v>8.9499999999999996E-4</v>
       </c>
       <c r="I705">
-        <f>G705/D705</f>
+        <f t="shared" ref="I705:I768" si="11">G705/D705</f>
         <v>8.9499999999999996E-4</v>
       </c>
     </row>
@@ -26507,7 +26511,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
       <c r="I706">
-        <f>G706/D706</f>
+        <f t="shared" si="11"/>
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
@@ -26534,7 +26538,7 @@
         <v>9.2400000000000002E-4</v>
       </c>
       <c r="I707">
-        <f>G707/D707</f>
+        <f t="shared" si="11"/>
         <v>9.2400000000000002E-4</v>
       </c>
     </row>
@@ -26561,7 +26565,7 @@
         <v>1.072E-3</v>
       </c>
       <c r="I708">
-        <f>G708/D708</f>
+        <f t="shared" si="11"/>
         <v>1.072E-3</v>
       </c>
     </row>
@@ -26588,7 +26592,7 @@
         <v>1.0399999999999999E-3</v>
       </c>
       <c r="I709">
-        <f>G709/D709</f>
+        <f t="shared" si="11"/>
         <v>1.0399999999999999E-3</v>
       </c>
     </row>
@@ -26615,7 +26619,7 @@
         <v>1.096E-3</v>
       </c>
       <c r="I710">
-        <f>G710/D710</f>
+        <f t="shared" si="11"/>
         <v>1.096E-3</v>
       </c>
     </row>
@@ -26642,7 +26646,7 @@
         <v>7.5600000000000005E-4</v>
       </c>
       <c r="I711">
-        <f>G711/D711</f>
+        <f t="shared" si="11"/>
         <v>7.5600000000000005E-4</v>
       </c>
     </row>
@@ -26669,7 +26673,7 @@
         <v>9.2599999999999996E-4</v>
       </c>
       <c r="I712">
-        <f>G712/D712</f>
+        <f t="shared" si="11"/>
         <v>9.2599999999999996E-4</v>
       </c>
     </row>
@@ -26696,7 +26700,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
       <c r="I713">
-        <f>G713/D713</f>
+        <f t="shared" si="11"/>
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
@@ -26723,7 +26727,7 @@
         <v>9.6199999999999996E-4</v>
       </c>
       <c r="I714">
-        <f>G714/D714</f>
+        <f t="shared" si="11"/>
         <v>9.6199999999999996E-4</v>
       </c>
     </row>
@@ -26750,7 +26754,7 @@
         <v>9.68E-4</v>
       </c>
       <c r="I715">
-        <f>G715/D715</f>
+        <f t="shared" si="11"/>
         <v>9.68E-4</v>
       </c>
     </row>
@@ -26777,7 +26781,7 @@
         <v>9.7900000000000005E-4</v>
       </c>
       <c r="I716">
-        <f>G716/D716</f>
+        <f t="shared" si="11"/>
         <v>9.7900000000000005E-4</v>
       </c>
     </row>
@@ -26804,7 +26808,7 @@
         <v>9.9200000000000004E-4</v>
       </c>
       <c r="I717">
-        <f>G717/D717</f>
+        <f t="shared" si="11"/>
         <v>9.9200000000000004E-4</v>
       </c>
     </row>
@@ -26831,7 +26835,7 @@
         <v>9.9500000000000001E-4</v>
       </c>
       <c r="I718">
-        <f>G718/D718</f>
+        <f t="shared" si="11"/>
         <v>9.9500000000000001E-4</v>
       </c>
     </row>
@@ -26858,7 +26862,7 @@
         <v>1E-3</v>
       </c>
       <c r="I719">
-        <f>G719/D719</f>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -26885,7 +26889,7 @@
         <v>1.013E-3</v>
       </c>
       <c r="I720">
-        <f>G720/D720</f>
+        <f t="shared" si="11"/>
         <v>1.013E-3</v>
       </c>
     </row>
@@ -26912,7 +26916,7 @@
         <v>9.6299999999999999E-4</v>
       </c>
       <c r="I721">
-        <f>G721/D721</f>
+        <f t="shared" si="11"/>
         <v>1.3757142857142858E-4</v>
       </c>
     </row>
@@ -26939,7 +26943,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
       <c r="I722">
-        <f>G722/D722</f>
+        <f t="shared" si="11"/>
         <v>1.3222222222222224E-4</v>
       </c>
     </row>
@@ -26966,7 +26970,7 @@
         <v>1.3649999999999999E-3</v>
       </c>
       <c r="I723">
-        <f>G723/D723</f>
+        <f t="shared" si="11"/>
         <v>1.3649999999999998E-4</v>
       </c>
     </row>
@@ -26993,7 +26997,7 @@
         <v>1.114E-3</v>
       </c>
       <c r="I724">
-        <f>G724/D724</f>
+        <f t="shared" si="11"/>
         <v>1.2377777777777777E-4</v>
       </c>
     </row>
@@ -27020,7 +27024,7 @@
         <v>9.19E-4</v>
       </c>
       <c r="I725">
-        <f>G725/D725</f>
+        <f t="shared" si="11"/>
         <v>1.3128571428571429E-4</v>
       </c>
     </row>
@@ -27047,7 +27051,7 @@
         <v>7.1599999999999995E-4</v>
       </c>
       <c r="I726">
-        <f>G726/D726</f>
+        <f t="shared" si="11"/>
         <v>1.4319999999999998E-4</v>
       </c>
     </row>
@@ -27074,7 +27078,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="I727">
-        <f>G727/D727</f>
+        <f t="shared" si="11"/>
         <v>1.4799999999999999E-4</v>
       </c>
     </row>
@@ -27101,7 +27105,7 @@
         <v>6.69E-4</v>
       </c>
       <c r="I728">
-        <f>G728/D728</f>
+        <f t="shared" si="11"/>
         <v>1.6725E-4</v>
       </c>
     </row>
@@ -27128,7 +27132,7 @@
         <v>6.6699999999999995E-4</v>
       </c>
       <c r="I729">
-        <f>G729/D729</f>
+        <f t="shared" si="11"/>
         <v>1.6674999999999999E-4</v>
       </c>
     </row>
@@ -27155,7 +27159,7 @@
         <v>6.69E-4</v>
       </c>
       <c r="I730">
-        <f>G730/D730</f>
+        <f t="shared" si="11"/>
         <v>1.6725E-4</v>
       </c>
     </row>
@@ -27182,7 +27186,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
       <c r="I731">
-        <f>G731/D731</f>
+        <f t="shared" si="11"/>
         <v>2.0166666666666664E-4</v>
       </c>
     </row>
@@ -27209,7 +27213,7 @@
         <v>6.7400000000000001E-4</v>
       </c>
       <c r="I732">
-        <f>G732/D732</f>
+        <f t="shared" si="11"/>
         <v>1.685E-4</v>
       </c>
     </row>
@@ -27236,7 +27240,7 @@
         <v>5.9699999999999998E-4</v>
       </c>
       <c r="I733">
-        <f>G733/D733</f>
+        <f t="shared" si="11"/>
         <v>1.9899999999999999E-4</v>
       </c>
     </row>
@@ -27263,7 +27267,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
       <c r="I734">
-        <f>G734/D734</f>
+        <f t="shared" si="11"/>
         <v>2.0166666666666664E-4</v>
       </c>
     </row>
@@ -27290,7 +27294,7 @@
         <v>6.2E-4</v>
       </c>
       <c r="I735">
-        <f>G735/D735</f>
+        <f t="shared" si="11"/>
         <v>2.0666666666666666E-4</v>
       </c>
     </row>
@@ -27317,7 +27321,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="I736">
-        <f>G736/D736</f>
+        <f t="shared" si="11"/>
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
@@ -27344,7 +27348,7 @@
         <v>7.1900000000000002E-4</v>
       </c>
       <c r="I737">
-        <f>G737/D737</f>
+        <f t="shared" si="11"/>
         <v>2.3966666666666667E-4</v>
       </c>
     </row>
@@ -27371,7 +27375,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="I738">
-        <f>G738/D738</f>
+        <f t="shared" si="11"/>
         <v>2.4333333333333333E-4</v>
       </c>
     </row>
@@ -27398,7 +27402,7 @@
         <v>7.4299999999999995E-4</v>
       </c>
       <c r="I739">
-        <f>G739/D739</f>
+        <f t="shared" si="11"/>
         <v>2.4766666666666665E-4</v>
       </c>
     </row>
@@ -27425,7 +27429,7 @@
         <v>7.4600000000000003E-4</v>
       </c>
       <c r="I740">
-        <f>G740/D740</f>
+        <f t="shared" si="11"/>
         <v>2.4866666666666668E-4</v>
       </c>
     </row>
@@ -27452,7 +27456,7 @@
         <v>5.9500000000000004E-4</v>
       </c>
       <c r="I741">
-        <f>G741/D741</f>
+        <f t="shared" si="11"/>
         <v>5.9500000000000004E-4</v>
       </c>
     </row>
@@ -27479,7 +27483,7 @@
         <v>6.1300000000000005E-4</v>
       </c>
       <c r="I742">
-        <f>G742/D742</f>
+        <f t="shared" si="11"/>
         <v>6.1300000000000005E-4</v>
       </c>
     </row>
@@ -27506,7 +27510,7 @@
         <v>6.2699999999999995E-4</v>
       </c>
       <c r="I743">
-        <f>G743/D743</f>
+        <f t="shared" si="11"/>
         <v>6.2699999999999995E-4</v>
       </c>
     </row>
@@ -27533,7 +27537,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
       <c r="I744">
-        <f>G744/D744</f>
+        <f t="shared" si="11"/>
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
@@ -27560,7 +27564,7 @@
         <v>6.6E-4</v>
       </c>
       <c r="I745">
-        <f>G745/D745</f>
+        <f t="shared" si="11"/>
         <v>6.6E-4</v>
       </c>
     </row>
@@ -27587,7 +27591,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
       <c r="I746">
-        <f>G746/D746</f>
+        <f t="shared" si="11"/>
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
@@ -27614,7 +27618,7 @@
         <v>6.5899999999999997E-4</v>
       </c>
       <c r="I747">
-        <f>G747/D747</f>
+        <f t="shared" si="11"/>
         <v>6.5899999999999997E-4</v>
       </c>
     </row>
@@ -27641,7 +27645,7 @@
         <v>8.2799999999999996E-4</v>
       </c>
       <c r="I748">
-        <f>G748/D748</f>
+        <f t="shared" si="11"/>
         <v>2.7599999999999999E-4</v>
       </c>
     </row>
@@ -27668,7 +27672,7 @@
         <v>6.8499999999999995E-4</v>
       </c>
       <c r="I749">
-        <f>G749/D749</f>
+        <f t="shared" si="11"/>
         <v>6.8499999999999995E-4</v>
       </c>
     </row>
@@ -27695,7 +27699,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I750">
-        <f>G750/D750</f>
+        <f t="shared" si="11"/>
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
@@ -27722,7 +27726,7 @@
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="I751">
-        <f>G751/D751</f>
+        <f t="shared" si="11"/>
         <v>7.1000000000000002E-4</v>
       </c>
     </row>
@@ -27749,7 +27753,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="I752">
-        <f>G752/D752</f>
+        <f t="shared" si="11"/>
         <v>7.1699999999999997E-4</v>
       </c>
     </row>
@@ -27776,7 +27780,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="I753">
-        <f>G753/D753</f>
+        <f t="shared" si="11"/>
         <v>7.2999999999999996E-4</v>
       </c>
     </row>
@@ -27803,7 +27807,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="I754">
-        <f>G754/D754</f>
+        <f t="shared" si="11"/>
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
@@ -27830,7 +27834,7 @@
         <v>7.5100000000000004E-4</v>
       </c>
       <c r="I755">
-        <f>G755/D755</f>
+        <f t="shared" si="11"/>
         <v>7.5100000000000004E-4</v>
       </c>
     </row>
@@ -27857,7 +27861,7 @@
         <v>7.6499999999999995E-4</v>
       </c>
       <c r="I756">
-        <f>G756/D756</f>
+        <f t="shared" si="11"/>
         <v>7.6499999999999995E-4</v>
       </c>
     </row>
@@ -27884,7 +27888,7 @@
         <v>1.0280000000000001E-3</v>
       </c>
       <c r="I757">
-        <f>G757/D757</f>
+        <f t="shared" si="11"/>
         <v>1.0280000000000001E-3</v>
       </c>
     </row>
@@ -27911,7 +27915,7 @@
         <v>1.041E-3</v>
       </c>
       <c r="I758">
-        <f>G758/D758</f>
+        <f t="shared" si="11"/>
         <v>1.041E-3</v>
       </c>
     </row>
@@ -27938,7 +27942,7 @@
         <v>9.3800000000000003E-4</v>
       </c>
       <c r="I759">
-        <f>G759/D759</f>
+        <f t="shared" si="11"/>
         <v>9.3800000000000003E-4</v>
       </c>
     </row>
@@ -27965,7 +27969,7 @@
         <v>9.5100000000000002E-4</v>
       </c>
       <c r="I760">
-        <f>G760/D760</f>
+        <f t="shared" si="11"/>
         <v>9.5100000000000002E-4</v>
       </c>
     </row>
@@ -27992,7 +27996,7 @@
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="I761">
-        <f>G761/D761</f>
+        <f t="shared" si="11"/>
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
@@ -28019,7 +28023,7 @@
         <v>9.7099999999999997E-4</v>
       </c>
       <c r="I762">
-        <f>G762/D762</f>
+        <f t="shared" si="11"/>
         <v>9.7099999999999997E-4</v>
       </c>
     </row>
@@ -28046,7 +28050,7 @@
         <v>9.8499999999999998E-4</v>
       </c>
       <c r="I763">
-        <f>G763/D763</f>
+        <f t="shared" si="11"/>
         <v>9.8499999999999998E-4</v>
       </c>
     </row>
@@ -28073,7 +28077,7 @@
         <v>9.9500000000000001E-4</v>
       </c>
       <c r="I764">
-        <f>G764/D764</f>
+        <f t="shared" si="11"/>
         <v>9.9500000000000001E-4</v>
       </c>
     </row>
@@ -28100,7 +28104,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
       <c r="I765">
-        <f>G765/D765</f>
+        <f t="shared" si="11"/>
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
@@ -28127,7 +28131,7 @@
         <v>1.1199999999999999E-3</v>
       </c>
       <c r="I766">
-        <f>G766/D766</f>
+        <f t="shared" si="11"/>
         <v>1.2444444444444444E-4</v>
       </c>
     </row>
@@ -28154,7 +28158,7 @@
         <v>1.0430000000000001E-3</v>
       </c>
       <c r="I767">
-        <f>G767/D767</f>
+        <f t="shared" si="11"/>
         <v>1.4900000000000002E-4</v>
       </c>
     </row>
@@ -28181,7 +28185,7 @@
         <v>1.5870000000000001E-3</v>
       </c>
       <c r="I768">
-        <f>G768/D768</f>
+        <f t="shared" si="11"/>
         <v>1.1335714285714287E-4</v>
       </c>
     </row>
@@ -28208,7 +28212,7 @@
         <v>7.5699999999999997E-4</v>
       </c>
       <c r="I769">
-        <f>G769/D769</f>
+        <f t="shared" ref="I769:I832" si="12">G769/D769</f>
         <v>1.5139999999999999E-4</v>
       </c>
     </row>
@@ -28235,7 +28239,7 @@
         <v>8.3699999999999996E-4</v>
       </c>
       <c r="I770">
-        <f>G770/D770</f>
+        <f t="shared" si="12"/>
         <v>1.395E-4</v>
       </c>
     </row>
@@ -28262,7 +28266,7 @@
         <v>7.2199999999999999E-4</v>
       </c>
       <c r="I771">
-        <f>G771/D771</f>
+        <f t="shared" si="12"/>
         <v>1.4439999999999999E-4</v>
       </c>
     </row>
@@ -28289,7 +28293,7 @@
         <v>7.5600000000000005E-4</v>
       </c>
       <c r="I772">
-        <f>G772/D772</f>
+        <f t="shared" si="12"/>
         <v>1.5120000000000002E-4</v>
       </c>
     </row>
@@ -28316,7 +28320,7 @@
         <v>6.6299999999999996E-4</v>
       </c>
       <c r="I773">
-        <f>G773/D773</f>
+        <f t="shared" si="12"/>
         <v>1.6574999999999999E-4</v>
       </c>
     </row>
@@ -28343,7 +28347,7 @@
         <v>6.87E-4</v>
       </c>
       <c r="I774">
-        <f>G774/D774</f>
+        <f t="shared" si="12"/>
         <v>1.7175E-4</v>
       </c>
     </row>
@@ -28370,7 +28374,7 @@
         <v>6.6200000000000005E-4</v>
       </c>
       <c r="I775">
-        <f>G775/D775</f>
+        <f t="shared" si="12"/>
         <v>1.6550000000000001E-4</v>
       </c>
     </row>
@@ -28397,7 +28401,7 @@
         <v>5.9400000000000002E-4</v>
       </c>
       <c r="I776">
-        <f>G776/D776</f>
+        <f t="shared" si="12"/>
         <v>1.9800000000000002E-4</v>
       </c>
     </row>
@@ -28424,7 +28428,7 @@
         <v>5.9900000000000003E-4</v>
       </c>
       <c r="I777">
-        <f>G777/D777</f>
+        <f t="shared" si="12"/>
         <v>1.9966666666666668E-4</v>
       </c>
     </row>
@@ -28451,7 +28455,7 @@
         <v>6.0700000000000001E-4</v>
       </c>
       <c r="I778">
-        <f>G778/D778</f>
+        <f t="shared" si="12"/>
         <v>2.0233333333333334E-4</v>
       </c>
     </row>
@@ -28478,7 +28482,7 @@
         <v>6.11E-4</v>
       </c>
       <c r="I779">
-        <f>G779/D779</f>
+        <f t="shared" si="12"/>
         <v>2.0366666666666667E-4</v>
       </c>
     </row>
@@ -28505,7 +28509,7 @@
         <v>6.2299999999999996E-4</v>
       </c>
       <c r="I780">
-        <f>G780/D780</f>
+        <f t="shared" si="12"/>
         <v>2.0766666666666665E-4</v>
       </c>
     </row>
@@ -28532,7 +28536,7 @@
         <v>6.3100000000000005E-4</v>
       </c>
       <c r="I781">
-        <f>G781/D781</f>
+        <f t="shared" si="12"/>
         <v>2.1033333333333334E-4</v>
       </c>
     </row>
@@ -28559,7 +28563,7 @@
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="I782">
-        <f>G782/D782</f>
+        <f t="shared" si="12"/>
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
@@ -28586,7 +28590,7 @@
         <v>5.7899999999999998E-4</v>
       </c>
       <c r="I783">
-        <f>G783/D783</f>
+        <f t="shared" si="12"/>
         <v>5.7899999999999998E-4</v>
       </c>
     </row>
@@ -28613,7 +28617,7 @@
         <v>7.5199999999999996E-4</v>
       </c>
       <c r="I784">
-        <f>G784/D784</f>
+        <f t="shared" si="12"/>
         <v>2.5066666666666667E-4</v>
       </c>
     </row>
@@ -28640,7 +28644,7 @@
         <v>5.9100000000000005E-4</v>
       </c>
       <c r="I785">
-        <f>G785/D785</f>
+        <f t="shared" si="12"/>
         <v>5.9100000000000005E-4</v>
       </c>
     </row>
@@ -28667,7 +28671,7 @@
         <v>1.083E-3</v>
       </c>
       <c r="I786">
-        <f>G786/D786</f>
+        <f t="shared" si="12"/>
         <v>3.6099999999999999E-4</v>
       </c>
     </row>
@@ -28694,7 +28698,7 @@
         <v>1.129E-3</v>
       </c>
       <c r="I787">
-        <f>G787/D787</f>
+        <f t="shared" si="12"/>
         <v>3.7633333333333334E-4</v>
       </c>
     </row>
@@ -28721,7 +28725,7 @@
         <v>8.9899999999999995E-4</v>
       </c>
       <c r="I788">
-        <f>G788/D788</f>
+        <f t="shared" si="12"/>
         <v>8.9899999999999995E-4</v>
       </c>
     </row>
@@ -28748,7 +28752,7 @@
         <v>9.3800000000000003E-4</v>
       </c>
       <c r="I789">
-        <f>G789/D789</f>
+        <f t="shared" si="12"/>
         <v>9.3800000000000003E-4</v>
       </c>
     </row>
@@ -28775,7 +28779,7 @@
         <v>1.06E-3</v>
       </c>
       <c r="I790">
-        <f>G790/D790</f>
+        <f t="shared" si="12"/>
         <v>1.06E-3</v>
       </c>
     </row>
@@ -28802,7 +28806,7 @@
         <v>6.5300000000000004E-4</v>
       </c>
       <c r="I791">
-        <f>G791/D791</f>
+        <f t="shared" si="12"/>
         <v>6.5300000000000004E-4</v>
       </c>
     </row>
@@ -28829,7 +28833,7 @@
         <v>6.6200000000000005E-4</v>
       </c>
       <c r="I792">
-        <f>G792/D792</f>
+        <f t="shared" si="12"/>
         <v>6.6200000000000005E-4</v>
       </c>
     </row>
@@ -28856,7 +28860,7 @@
         <v>6.6699999999999995E-4</v>
       </c>
       <c r="I793">
-        <f>G793/D793</f>
+        <f t="shared" si="12"/>
         <v>6.6699999999999995E-4</v>
       </c>
     </row>
@@ -28883,7 +28887,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I794">
-        <f>G794/D794</f>
+        <f t="shared" si="12"/>
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
@@ -28910,7 +28914,7 @@
         <v>7.0399999999999998E-4</v>
       </c>
       <c r="I795">
-        <f>G795/D795</f>
+        <f t="shared" si="12"/>
         <v>7.0399999999999998E-4</v>
       </c>
     </row>
@@ -28937,7 +28941,7 @@
         <v>7.1199999999999996E-4</v>
       </c>
       <c r="I796">
-        <f>G796/D796</f>
+        <f t="shared" si="12"/>
         <v>7.1199999999999996E-4</v>
       </c>
     </row>
@@ -28964,7 +28968,7 @@
         <v>7.18E-4</v>
       </c>
       <c r="I797">
-        <f>G797/D797</f>
+        <f t="shared" si="12"/>
         <v>7.18E-4</v>
       </c>
     </row>
@@ -28991,7 +28995,7 @@
         <v>7.3200000000000001E-4</v>
       </c>
       <c r="I798">
-        <f>G798/D798</f>
+        <f t="shared" si="12"/>
         <v>7.3200000000000001E-4</v>
       </c>
     </row>
@@ -29018,7 +29022,7 @@
         <v>7.36E-4</v>
       </c>
       <c r="I799">
-        <f>G799/D799</f>
+        <f t="shared" si="12"/>
         <v>7.36E-4</v>
       </c>
     </row>
@@ -29045,7 +29049,7 @@
         <v>7.5100000000000004E-4</v>
       </c>
       <c r="I800">
-        <f>G800/D800</f>
+        <f t="shared" si="12"/>
         <v>7.5100000000000004E-4</v>
       </c>
     </row>
@@ -29072,7 +29076,7 @@
         <v>7.5600000000000005E-4</v>
       </c>
       <c r="I801">
-        <f>G801/D801</f>
+        <f t="shared" si="12"/>
         <v>7.5600000000000005E-4</v>
       </c>
     </row>
@@ -29099,7 +29103,7 @@
         <v>9.4200000000000002E-4</v>
       </c>
       <c r="I802">
-        <f>G802/D802</f>
+        <f t="shared" si="12"/>
         <v>9.4200000000000002E-4</v>
       </c>
     </row>
@@ -29126,7 +29130,7 @@
         <v>9.5E-4</v>
       </c>
       <c r="I803">
-        <f>G803/D803</f>
+        <f t="shared" si="12"/>
         <v>9.5E-4</v>
       </c>
     </row>
@@ -29153,7 +29157,7 @@
         <v>9.5699999999999995E-4</v>
       </c>
       <c r="I804">
-        <f>G804/D804</f>
+        <f t="shared" si="12"/>
         <v>9.5699999999999995E-4</v>
       </c>
     </row>
@@ -29180,7 +29184,7 @@
         <v>9.6199999999999996E-4</v>
       </c>
       <c r="I805">
-        <f>G805/D805</f>
+        <f t="shared" si="12"/>
         <v>9.6199999999999996E-4</v>
       </c>
     </row>
@@ -29207,7 +29211,7 @@
         <v>9.6699999999999998E-4</v>
       </c>
       <c r="I806">
-        <f>G806/D806</f>
+        <f t="shared" si="12"/>
         <v>9.6699999999999998E-4</v>
       </c>
     </row>
@@ -29234,7 +29238,7 @@
         <v>9.7300000000000002E-4</v>
       </c>
       <c r="I807">
-        <f>G807/D807</f>
+        <f t="shared" si="12"/>
         <v>9.7300000000000002E-4</v>
       </c>
     </row>
@@ -29261,7 +29265,7 @@
         <v>9.9299999999999996E-4</v>
       </c>
       <c r="I808">
-        <f>G808/D808</f>
+        <f t="shared" si="12"/>
         <v>9.9299999999999996E-4</v>
       </c>
     </row>
@@ -29288,7 +29292,7 @@
         <v>1.01E-3</v>
       </c>
       <c r="I809">
-        <f>G809/D809</f>
+        <f t="shared" si="12"/>
         <v>1.01E-3</v>
       </c>
     </row>
@@ -29315,7 +29319,7 @@
         <v>1.0120000000000001E-3</v>
       </c>
       <c r="I810">
-        <f>G810/D810</f>
+        <f t="shared" si="12"/>
         <v>1.0120000000000001E-3</v>
       </c>
     </row>
@@ -29342,7 +29346,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
       <c r="I811">
-        <f>G811/D811</f>
+        <f t="shared" si="12"/>
         <v>1.5133333333333332E-4</v>
       </c>
     </row>
@@ -29369,7 +29373,7 @@
         <v>1.3979999999999999E-3</v>
       </c>
       <c r="I812">
-        <f>G812/D812</f>
+        <f t="shared" si="12"/>
         <v>1.165E-4</v>
       </c>
     </row>
@@ -29396,7 +29400,7 @@
         <v>1.0059999999999999E-3</v>
       </c>
       <c r="I813">
-        <f>G813/D813</f>
+        <f t="shared" si="12"/>
         <v>1.437142857142857E-4</v>
       </c>
     </row>
@@ -29423,7 +29427,7 @@
         <v>9.5200000000000005E-4</v>
       </c>
       <c r="I814">
-        <f>G814/D814</f>
+        <f t="shared" si="12"/>
         <v>1.36E-4</v>
       </c>
     </row>
@@ -29450,7 +29454,7 @@
         <v>9.859999999999999E-4</v>
       </c>
       <c r="I815">
-        <f>G815/D815</f>
+        <f t="shared" si="12"/>
         <v>1.2324999999999999E-4</v>
       </c>
     </row>
@@ -29477,7 +29481,7 @@
         <v>6.38E-4</v>
       </c>
       <c r="I816">
-        <f>G816/D816</f>
+        <f t="shared" si="12"/>
         <v>1.595E-4</v>
       </c>
     </row>
@@ -29504,7 +29508,7 @@
         <v>6.6200000000000005E-4</v>
       </c>
       <c r="I817">
-        <f>G817/D817</f>
+        <f t="shared" si="12"/>
         <v>1.6550000000000001E-4</v>
       </c>
     </row>
@@ -29531,7 +29535,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="I818">
-        <f>G818/D818</f>
+        <f t="shared" si="12"/>
         <v>1.4799999999999999E-4</v>
       </c>
     </row>
@@ -29558,7 +29562,7 @@
         <v>6.5899999999999997E-4</v>
       </c>
       <c r="I819">
-        <f>G819/D819</f>
+        <f t="shared" si="12"/>
         <v>1.6474999999999999E-4</v>
       </c>
     </row>
@@ -29585,7 +29589,7 @@
         <v>5.9199999999999997E-4</v>
       </c>
       <c r="I820">
-        <f>G820/D820</f>
+        <f t="shared" si="12"/>
         <v>1.9733333333333332E-4</v>
       </c>
     </row>
@@ -29612,7 +29616,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="I821">
-        <f>G821/D821</f>
+        <f t="shared" si="12"/>
         <v>1.7249999999999999E-4</v>
       </c>
     </row>
@@ -29639,7 +29643,7 @@
         <v>6.7199999999999996E-4</v>
       </c>
       <c r="I822">
-        <f>G822/D822</f>
+        <f t="shared" si="12"/>
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
@@ -29666,7 +29670,7 @@
         <v>6.1399999999999996E-4</v>
       </c>
       <c r="I823">
-        <f>G823/D823</f>
+        <f t="shared" si="12"/>
         <v>2.0466666666666666E-4</v>
       </c>
     </row>
@@ -29693,7 +29697,7 @@
         <v>6.2299999999999996E-4</v>
       </c>
       <c r="I824">
-        <f>G824/D824</f>
+        <f t="shared" si="12"/>
         <v>2.0766666666666665E-4</v>
       </c>
     </row>
@@ -29720,7 +29724,7 @@
         <v>6.1799999999999995E-4</v>
       </c>
       <c r="I825">
-        <f>G825/D825</f>
+        <f t="shared" si="12"/>
         <v>2.0599999999999999E-4</v>
       </c>
     </row>
@@ -29747,7 +29751,7 @@
         <v>6.2799999999999998E-4</v>
       </c>
       <c r="I826">
-        <f>G826/D826</f>
+        <f t="shared" si="12"/>
         <v>2.0933333333333332E-4</v>
       </c>
     </row>
@@ -29774,7 +29778,7 @@
         <v>5.6700000000000001E-4</v>
       </c>
       <c r="I827">
-        <f>G827/D827</f>
+        <f t="shared" si="12"/>
         <v>5.6700000000000001E-4</v>
       </c>
     </row>
@@ -29801,7 +29805,7 @@
         <v>7.45E-4</v>
       </c>
       <c r="I828">
-        <f>G828/D828</f>
+        <f t="shared" si="12"/>
         <v>2.4833333333333332E-4</v>
       </c>
     </row>
@@ -29828,7 +29832,7 @@
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="I829">
-        <f>G829/D829</f>
+        <f t="shared" si="12"/>
         <v>5.9000000000000003E-4</v>
       </c>
     </row>
@@ -29855,7 +29859,7 @@
         <v>5.9900000000000003E-4</v>
       </c>
       <c r="I830">
-        <f>G830/D830</f>
+        <f t="shared" si="12"/>
         <v>5.9900000000000003E-4</v>
       </c>
     </row>
@@ -29882,7 +29886,7 @@
         <v>6.1899999999999998E-4</v>
       </c>
       <c r="I831">
-        <f>G831/D831</f>
+        <f t="shared" si="12"/>
         <v>6.1899999999999998E-4</v>
       </c>
     </row>
@@ -29909,7 +29913,7 @@
         <v>6.1200000000000002E-4</v>
       </c>
       <c r="I832">
-        <f>G832/D832</f>
+        <f t="shared" si="12"/>
         <v>6.1200000000000002E-4</v>
       </c>
     </row>
@@ -29936,7 +29940,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="I833">
-        <f>G833/D833</f>
+        <f t="shared" ref="I833:I900" si="13">G833/D833</f>
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
@@ -29963,7 +29967,7 @@
         <v>7.85E-4</v>
       </c>
       <c r="I834">
-        <f>G834/D834</f>
+        <f t="shared" si="13"/>
         <v>2.6166666666666667E-4</v>
       </c>
     </row>
@@ -29990,7 +29994,7 @@
         <v>7.9500000000000003E-4</v>
       </c>
       <c r="I835">
-        <f>G835/D835</f>
+        <f t="shared" si="13"/>
         <v>2.6499999999999999E-4</v>
       </c>
     </row>
@@ -30017,7 +30021,7 @@
         <v>6.5099999999999999E-4</v>
       </c>
       <c r="I836">
-        <f>G836/D836</f>
+        <f t="shared" si="13"/>
         <v>6.5099999999999999E-4</v>
       </c>
     </row>
@@ -30044,7 +30048,7 @@
         <v>6.7000000000000002E-4</v>
       </c>
       <c r="I837">
-        <f>G837/D837</f>
+        <f t="shared" si="13"/>
         <v>6.7000000000000002E-4</v>
       </c>
     </row>
@@ -30071,7 +30075,7 @@
         <v>6.9399999999999996E-4</v>
       </c>
       <c r="I838">
-        <f>G838/D838</f>
+        <f t="shared" si="13"/>
         <v>6.9399999999999996E-4</v>
       </c>
     </row>
@@ -30098,7 +30102,7 @@
         <v>6.8800000000000003E-4</v>
       </c>
       <c r="I839">
-        <f>G839/D839</f>
+        <f t="shared" si="13"/>
         <v>6.8800000000000003E-4</v>
       </c>
     </row>
@@ -30125,7 +30129,7 @@
         <v>6.96E-4</v>
       </c>
       <c r="I840">
-        <f>G840/D840</f>
+        <f t="shared" si="13"/>
         <v>6.96E-4</v>
       </c>
     </row>
@@ -30152,7 +30156,7 @@
         <v>7.0799999999999997E-4</v>
       </c>
       <c r="I841">
-        <f>G841/D841</f>
+        <f t="shared" si="13"/>
         <v>7.0799999999999997E-4</v>
       </c>
     </row>
@@ -30179,7 +30183,7 @@
         <v>7.1500000000000003E-4</v>
       </c>
       <c r="I842">
-        <f>G842/D842</f>
+        <f t="shared" si="13"/>
         <v>7.1500000000000003E-4</v>
       </c>
     </row>
@@ -30206,7 +30210,7 @@
         <v>7.2199999999999999E-4</v>
       </c>
       <c r="I843">
-        <f>G843/D843</f>
+        <f t="shared" si="13"/>
         <v>7.2199999999999999E-4</v>
       </c>
     </row>
@@ -30233,7 +30237,7 @@
         <v>7.2499999999999995E-4</v>
       </c>
       <c r="I844">
-        <f>G844/D844</f>
+        <f t="shared" si="13"/>
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
@@ -30260,7 +30264,7 @@
         <v>7.4200000000000004E-4</v>
       </c>
       <c r="I845">
-        <f>G845/D845</f>
+        <f t="shared" si="13"/>
         <v>7.4200000000000004E-4</v>
       </c>
     </row>
@@ -30287,7 +30291,7 @@
         <v>7.5600000000000005E-4</v>
       </c>
       <c r="I846">
-        <f>G846/D846</f>
+        <f t="shared" si="13"/>
         <v>7.5600000000000005E-4</v>
       </c>
     </row>
@@ -30314,7 +30318,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
       <c r="I847">
-        <f>G847/D847</f>
+        <f t="shared" si="13"/>
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
@@ -30341,7 +30345,7 @@
         <v>9.3499999999999996E-4</v>
       </c>
       <c r="I848">
-        <f>G848/D848</f>
+        <f t="shared" si="13"/>
         <v>9.3499999999999996E-4</v>
       </c>
     </row>
@@ -30368,7 +30372,7 @@
         <v>9.4700000000000003E-4</v>
       </c>
       <c r="I849">
-        <f>G849/D849</f>
+        <f t="shared" si="13"/>
         <v>9.4700000000000003E-4</v>
       </c>
     </row>
@@ -30395,7 +30399,7 @@
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="I850">
-        <f>G850/D850</f>
+        <f t="shared" si="13"/>
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
@@ -30422,7 +30426,7 @@
         <v>9.7599999999999998E-4</v>
       </c>
       <c r="I851">
-        <f>G851/D851</f>
+        <f t="shared" si="13"/>
         <v>9.7599999999999998E-4</v>
       </c>
     </row>
@@ -30449,7 +30453,7 @@
         <v>9.7799999999999992E-4</v>
       </c>
       <c r="I852">
-        <f>G852/D852</f>
+        <f t="shared" si="13"/>
         <v>9.7799999999999992E-4</v>
       </c>
     </row>
@@ -30476,7 +30480,7 @@
         <v>9.859999999999999E-4</v>
       </c>
       <c r="I853">
-        <f>G853/D853</f>
+        <f t="shared" si="13"/>
         <v>9.859999999999999E-4</v>
       </c>
     </row>
@@ -30503,7 +30507,7 @@
         <v>1.021E-3</v>
       </c>
       <c r="I854">
-        <f>G854/D854</f>
+        <f t="shared" si="13"/>
         <v>1.021E-3</v>
       </c>
     </row>
@@ -30530,7 +30534,7 @@
         <v>1.0120000000000001E-3</v>
       </c>
       <c r="I855">
-        <f>G855/D855</f>
+        <f t="shared" si="13"/>
         <v>1.0120000000000001E-3</v>
       </c>
     </row>
@@ -30557,7 +30561,7 @@
         <v>9.7799999999999992E-4</v>
       </c>
       <c r="I856">
-        <f>G856/D856</f>
+        <f t="shared" si="13"/>
         <v>1.3971428571428571E-4</v>
       </c>
     </row>
@@ -30584,7 +30588,7 @@
         <v>1.258E-3</v>
       </c>
       <c r="I857">
-        <f>G857/D857</f>
+        <f t="shared" si="13"/>
         <v>1.2579999999999999E-4</v>
       </c>
     </row>
@@ -30611,7 +30615,7 @@
         <v>1.217E-3</v>
       </c>
       <c r="I858">
-        <f>G858/D858</f>
+        <f t="shared" si="13"/>
         <v>1.217E-4</v>
       </c>
     </row>
@@ -30638,7 +30642,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="I859">
-        <f>G859/D859</f>
+        <f t="shared" si="13"/>
         <v>1.3428571428571428E-4</v>
       </c>
     </row>
@@ -30665,7 +30669,7 @@
         <v>9.6599999999999995E-4</v>
       </c>
       <c r="I860">
-        <f>G860/D860</f>
+        <f t="shared" si="13"/>
         <v>1.2074999999999999E-4</v>
       </c>
     </row>
@@ -30692,7 +30696,7 @@
         <v>7.1900000000000002E-4</v>
       </c>
       <c r="I861">
-        <f>G861/D861</f>
+        <f t="shared" si="13"/>
         <v>1.438E-4</v>
       </c>
     </row>
@@ -30719,7 +30723,7 @@
         <v>7.4899999999999999E-4</v>
       </c>
       <c r="I862">
-        <f>G862/D862</f>
+        <f t="shared" si="13"/>
         <v>1.4980000000000001E-4</v>
       </c>
     </row>
@@ -30746,7 +30750,7 @@
         <v>6.6299999999999996E-4</v>
       </c>
       <c r="I863">
-        <f>G863/D863</f>
+        <f t="shared" si="13"/>
         <v>1.6574999999999999E-4</v>
       </c>
     </row>
@@ -30773,7 +30777,7 @@
         <v>6.6200000000000005E-4</v>
       </c>
       <c r="I864">
-        <f>G864/D864</f>
+        <f t="shared" si="13"/>
         <v>1.6550000000000001E-4</v>
       </c>
     </row>
@@ -30800,7 +30804,7 @@
         <v>6.6299999999999996E-4</v>
       </c>
       <c r="I865">
-        <f>G865/D865</f>
+        <f t="shared" si="13"/>
         <v>1.6574999999999999E-4</v>
       </c>
     </row>
@@ -30827,7 +30831,7 @@
         <v>5.9100000000000005E-4</v>
       </c>
       <c r="I866">
-        <f>G866/D866</f>
+        <f t="shared" si="13"/>
         <v>1.9700000000000002E-4</v>
       </c>
     </row>
@@ -30854,7 +30858,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
       <c r="I867">
-        <f>G867/D867</f>
+        <f t="shared" si="13"/>
         <v>1.9766666666666666E-4</v>
       </c>
     </row>
@@ -30881,7 +30885,7 @@
         <v>5.9500000000000004E-4</v>
       </c>
       <c r="I868">
-        <f>G868/D868</f>
+        <f t="shared" si="13"/>
         <v>1.9833333333333335E-4</v>
       </c>
     </row>
@@ -30908,7 +30912,7 @@
         <v>6.0300000000000002E-4</v>
       </c>
       <c r="I869">
-        <f>G869/D869</f>
+        <f t="shared" si="13"/>
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
@@ -30935,7 +30939,7 @@
         <v>6.1499999999999999E-4</v>
       </c>
       <c r="I870">
-        <f>G870/D870</f>
+        <f t="shared" si="13"/>
         <v>2.05E-4</v>
       </c>
     </row>
@@ -30962,7 +30966,7 @@
         <v>6.2799999999999998E-4</v>
       </c>
       <c r="I871">
-        <f>G871/D871</f>
+        <f t="shared" si="13"/>
         <v>2.0933333333333332E-4</v>
       </c>
     </row>
@@ -30989,7 +30993,7 @@
         <v>7.1900000000000002E-4</v>
       </c>
       <c r="I872">
-        <f>G872/D872</f>
+        <f t="shared" si="13"/>
         <v>2.3966666666666667E-4</v>
       </c>
     </row>
@@ -31016,7 +31020,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="I873">
-        <f>G873/D873</f>
+        <f t="shared" si="13"/>
         <v>2.4666666666666668E-4</v>
       </c>
     </row>
@@ -31043,7 +31047,7 @@
         <v>5.8299999999999997E-4</v>
       </c>
       <c r="I874">
-        <f>G874/D874</f>
+        <f t="shared" si="13"/>
         <v>5.8299999999999997E-4</v>
       </c>
     </row>
@@ -31070,7 +31074,7 @@
         <v>5.9699999999999998E-4</v>
       </c>
       <c r="I875">
-        <f>G875/D875</f>
+        <f t="shared" si="13"/>
         <v>5.9699999999999998E-4</v>
       </c>
     </row>
@@ -31097,7 +31101,7 @@
         <v>7.6199999999999998E-4</v>
       </c>
       <c r="I876">
-        <f>G876/D876</f>
+        <f t="shared" si="13"/>
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
@@ -31124,7 +31128,7 @@
         <v>6.1600000000000001E-4</v>
       </c>
       <c r="I877">
-        <f>G877/D877</f>
+        <f t="shared" si="13"/>
         <v>6.1600000000000001E-4</v>
       </c>
     </row>
@@ -31151,7 +31155,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="I878">
-        <f>G878/D878</f>
+        <f t="shared" si="13"/>
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
@@ -31178,7 +31182,7 @@
         <v>6.3299999999999999E-4</v>
       </c>
       <c r="I879">
-        <f>G879/D879</f>
+        <f t="shared" si="13"/>
         <v>6.3299999999999999E-4</v>
       </c>
     </row>
@@ -31205,7 +31209,7 @@
         <v>6.38E-4</v>
       </c>
       <c r="I880">
-        <f>G880/D880</f>
+        <f t="shared" si="13"/>
         <v>6.38E-4</v>
       </c>
     </row>
@@ -31232,7 +31236,7 @@
         <v>6.5799999999999995E-4</v>
       </c>
       <c r="I881">
-        <f>G881/D881</f>
+        <f t="shared" si="13"/>
         <v>6.5799999999999995E-4</v>
       </c>
     </row>
@@ -31259,7 +31263,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
       <c r="I882">
-        <f>G882/D882</f>
+        <f t="shared" si="13"/>
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
@@ -31286,7 +31290,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I883">
-        <f>G883/D883</f>
+        <f t="shared" si="13"/>
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
@@ -31313,7 +31317,7 @@
         <v>6.9099999999999999E-4</v>
       </c>
       <c r="I884">
-        <f>G884/D884</f>
+        <f t="shared" si="13"/>
         <v>6.9099999999999999E-4</v>
       </c>
     </row>
@@ -31340,7 +31344,7 @@
         <v>7.0699999999999995E-4</v>
       </c>
       <c r="I885">
-        <f>G885/D885</f>
+        <f t="shared" si="13"/>
         <v>7.0699999999999995E-4</v>
       </c>
     </row>
@@ -31367,7 +31371,7 @@
         <v>7.0899999999999999E-4</v>
       </c>
       <c r="I886">
-        <f>G886/D886</f>
+        <f t="shared" si="13"/>
         <v>7.0899999999999999E-4</v>
       </c>
     </row>
@@ -31394,7 +31398,7 @@
         <v>1.0989999999999999E-3</v>
       </c>
       <c r="I887">
-        <f>G887/D887</f>
+        <f t="shared" si="13"/>
         <v>1.0989999999999999E-3</v>
       </c>
     </row>
@@ -31421,7 +31425,7 @@
         <v>1.07E-3</v>
       </c>
       <c r="I888">
-        <f>G888/D888</f>
+        <f t="shared" si="13"/>
         <v>1.07E-3</v>
       </c>
     </row>
@@ -31448,7 +31452,7 @@
         <v>1.0820000000000001E-3</v>
       </c>
       <c r="I889">
-        <f>G889/D889</f>
+        <f t="shared" si="13"/>
         <v>1.0820000000000001E-3</v>
       </c>
     </row>
@@ -31475,7 +31479,7 @@
         <v>8.25E-4</v>
       </c>
       <c r="I890">
-        <f>G890/D890</f>
+        <f t="shared" si="13"/>
         <v>8.25E-4</v>
       </c>
     </row>
@@ -31502,7 +31506,7 @@
         <v>7.9500000000000003E-4</v>
       </c>
       <c r="I891">
-        <f>G891/D891</f>
+        <f t="shared" si="13"/>
         <v>7.9500000000000003E-4</v>
       </c>
     </row>
@@ -31529,7 +31533,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="I892">
-        <f>G892/D892</f>
+        <f t="shared" si="13"/>
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
@@ -31556,7 +31560,7 @@
         <v>9.7199999999999999E-4</v>
       </c>
       <c r="I893">
-        <f>G893/D893</f>
+        <f t="shared" si="13"/>
         <v>9.7199999999999999E-4</v>
       </c>
     </row>
@@ -31583,7 +31587,7 @@
         <v>9.6599999999999995E-4</v>
       </c>
       <c r="I894">
-        <f>G894/D894</f>
+        <f t="shared" si="13"/>
         <v>9.6599999999999995E-4</v>
       </c>
     </row>
@@ -31610,7 +31614,7 @@
         <v>9.8700000000000003E-4</v>
       </c>
       <c r="I895">
-        <f>G895/D895</f>
+        <f t="shared" si="13"/>
         <v>9.8700000000000003E-4</v>
       </c>
     </row>
@@ -31637,7 +31641,7 @@
         <v>9.810000000000001E-4</v>
       </c>
       <c r="I896">
-        <f>G896/D896</f>
+        <f t="shared" si="13"/>
         <v>9.810000000000001E-4</v>
       </c>
     </row>
@@ -31664,7 +31668,7 @@
         <v>1.0319999999999999E-3</v>
       </c>
       <c r="I897">
-        <f>G897/D897</f>
+        <f t="shared" si="13"/>
         <v>1.0319999999999999E-3</v>
       </c>
     </row>
@@ -31691,7 +31695,7 @@
         <v>1.0089999999999999E-3</v>
       </c>
       <c r="I898">
-        <f>G898/D898</f>
+        <f t="shared" si="13"/>
         <v>1.0089999999999999E-3</v>
       </c>
     </row>
@@ -31718,7 +31722,7 @@
         <v>1.029E-3</v>
       </c>
       <c r="I899">
-        <f>G899/D899</f>
+        <f t="shared" si="13"/>
         <v>1.029E-3</v>
       </c>
     </row>
@@ -31745,7 +31749,7 @@
         <v>1.0280000000000001E-3</v>
       </c>
       <c r="I900">
-        <f>G900/D900</f>
+        <f t="shared" si="13"/>
         <v>1.0280000000000001E-3</v>
       </c>
     </row>
